--- a/documentation/figure_4/figure_4.xlsx
+++ b/documentation/figure_4/figure_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/figure_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/documentation/figure_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC759CF-0D7D-4843-902E-141F5418753C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A974BFD7-5CB5-CE46-9020-3D8DA4819572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -2178,1570 +2178,1570 @@
                   <c:v>-1.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.9770000000000001</c:v>
+                  <c:v>-1.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.9790000000000001</c:v>
+                  <c:v>-2.0219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.974</c:v>
+                  <c:v>-2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.946</c:v>
+                  <c:v>-2.0259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.9590000000000001</c:v>
+                  <c:v>-1.9319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.889</c:v>
+                  <c:v>-1.778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7629999999999999</c:v>
+                  <c:v>-1.58</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.6259999999999999</c:v>
+                  <c:v>-1.3939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.5609999999999999</c:v>
+                  <c:v>-1.3140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.49</c:v>
+                  <c:v>-1.272</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.3240000000000001</c:v>
+                  <c:v>-1.1259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.1499999999999999</c:v>
+                  <c:v>-1.046</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.0209999999999999</c:v>
+                  <c:v>-0.96399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.90200000000000002</c:v>
+                  <c:v>-0.72399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.86099999999999999</c:v>
+                  <c:v>-0.57399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.77400000000000002</c:v>
+                  <c:v>-0.51400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.0509999999999999</c:v>
+                  <c:v>-1.1559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.3460000000000001</c:v>
+                  <c:v>-1.792</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.7509999999999999</c:v>
+                  <c:v>-2.484</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.2090000000000001</c:v>
+                  <c:v>-3.202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.6840000000000002</c:v>
+                  <c:v>-4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.1840000000000002</c:v>
+                  <c:v>-4.1360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.6440000000000001</c:v>
+                  <c:v>-4.25</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-4.1639999999999997</c:v>
+                  <c:v>-4.3739999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.2590000000000003</c:v>
+                  <c:v>-4.4359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.3209999999999997</c:v>
+                  <c:v>-4.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.3959999999999999</c:v>
+                  <c:v>-4.4240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4.41</c:v>
+                  <c:v>-4.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-4.4160000000000004</c:v>
+                  <c:v>-4.4240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4.468</c:v>
+                  <c:v>-4.47</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4.3380000000000001</c:v>
+                  <c:v>-4.2759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4.3209999999999997</c:v>
+                  <c:v>-4.2539999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.3460000000000001</c:v>
+                  <c:v>-4.3339999999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-4.6589999999999998</c:v>
+                  <c:v>-4.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-5.3010000000000002</c:v>
+                  <c:v>-5.758</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-5.649</c:v>
+                  <c:v>-6.5259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-6.5960000000000001</c:v>
+                  <c:v>-8.0640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-8.25</c:v>
+                  <c:v>-10.715999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-9.8740000000000006</c:v>
+                  <c:v>-12.62</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-10.99</c:v>
+                  <c:v>-13.356</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-12.31</c:v>
+                  <c:v>-14.992000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-13.661</c:v>
+                  <c:v>-16.103999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-14.96</c:v>
+                  <c:v>-16.494</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-16.55</c:v>
+                  <c:v>-17.207999999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-17.440000000000001</c:v>
+                  <c:v>-18.384</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-17.623000000000001</c:v>
+                  <c:v>-19.216000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-18.507999999999999</c:v>
+                  <c:v>-20.373999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-19.754000000000001</c:v>
+                  <c:v>-21.026</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-20.724</c:v>
+                  <c:v>-21.67</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-21.457999999999998</c:v>
+                  <c:v>-22.532</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-21.943000000000001</c:v>
+                  <c:v>-23.405999999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-22.911000000000001</c:v>
+                  <c:v>-24.254000000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-24.37</c:v>
+                  <c:v>-25.77</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-25.818999999999999</c:v>
+                  <c:v>-27.367999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-26.814</c:v>
+                  <c:v>-28.943999999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-27.788</c:v>
+                  <c:v>-30.378</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-28.669</c:v>
+                  <c:v>-30.882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-29.495000000000001</c:v>
+                  <c:v>-30.731999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-30.248000000000001</c:v>
+                  <c:v>-30.492000000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-29.491</c:v>
+                  <c:v>-28.538</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-28.411000000000001</c:v>
+                  <c:v>-26.768000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-27.303999999999998</c:v>
+                  <c:v>-25.184000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-26.143999999999998</c:v>
+                  <c:v>-23.582000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-24.945</c:v>
+                  <c:v>-21.893999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-23.835999999999999</c:v>
+                  <c:v>-21.834</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-23.245000000000001</c:v>
+                  <c:v>-22.466000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-22.702999999999999</c:v>
+                  <c:v>-23.13</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-23.216000000000001</c:v>
+                  <c:v>-23.853999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-23.920999999999999</c:v>
+                  <c:v>-25.13</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-24.986000000000001</c:v>
+                  <c:v>-27.024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-25.998000000000001</c:v>
+                  <c:v>-27.986000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-27.018999999999998</c:v>
+                  <c:v>-28.8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-28.074999999999999</c:v>
+                  <c:v>-29.608000000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-28.658000000000001</c:v>
+                  <c:v>-30.044</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-29.341000000000001</c:v>
+                  <c:v>-30.097999999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-28.745999999999999</c:v>
+                  <c:v>-28.251999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-27.879000000000001</c:v>
+                  <c:v>-26.506</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-27.92</c:v>
+                  <c:v>-26.776</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-28.026</c:v>
+                  <c:v>-26.975999999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-28.314</c:v>
+                  <c:v>-27.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-28.614999999999998</c:v>
+                  <c:v>-29.398</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-28.004000000000001</c:v>
+                  <c:v>-30.244</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-27.277999999999999</c:v>
+                  <c:v>-29.07</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-27.850999999999999</c:v>
+                  <c:v>-27.972000000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-28.420999999999999</c:v>
+                  <c:v>-26.678000000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-27.666</c:v>
+                  <c:v>-25.257999999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-27.2</c:v>
+                  <c:v>-25.69</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-27.02</c:v>
+                  <c:v>-26.744</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-26.834</c:v>
+                  <c:v>-27.77</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-27.541</c:v>
+                  <c:v>-28.835999999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-28.236000000000001</c:v>
+                  <c:v>-29.981999999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-28.959</c:v>
+                  <c:v>-30.786000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-29.649000000000001</c:v>
+                  <c:v>-30.884</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-30.373000000000001</c:v>
+                  <c:v>-30.92</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-30.844999999999999</c:v>
+                  <c:v>-30.975999999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-30.774999999999999</c:v>
+                  <c:v>-30.806000000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-30.670999999999999</c:v>
+                  <c:v>-30.51</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-30.527999999999999</c:v>
+                  <c:v>-30.242000000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-30.385000000000002</c:v>
+                  <c:v>-30.001999999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-30.16</c:v>
+                  <c:v>-29.69</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-29.956</c:v>
+                  <c:v>-29.574000000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-29.777999999999999</c:v>
+                  <c:v>-29.49</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-30.414999999999999</c:v>
+                  <c:v>-30.795999999999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-30.866</c:v>
+                  <c:v>-31.576000000000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-31.222999999999999</c:v>
+                  <c:v>-32.21</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-31.628</c:v>
+                  <c:v>-32.915999999999997</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-32.020000000000003</c:v>
+                  <c:v>-33.590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-32.401000000000003</c:v>
+                  <c:v>-32.868000000000002</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-33.200000000000003</c:v>
+                  <c:v>-33.308</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-34.340000000000003</c:v>
+                  <c:v>-34.478000000000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-34.619999999999997</c:v>
+                  <c:v>-35.584000000000003</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-35.188000000000002</c:v>
+                  <c:v>-36.643999999999998</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-35.872999999999998</c:v>
+                  <c:v>-37.764000000000003</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-36.451000000000001</c:v>
+                  <c:v>-38.118000000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-37.070999999999998</c:v>
+                  <c:v>-37.96</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-37.551000000000002</c:v>
+                  <c:v>-37.558</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-37.481000000000002</c:v>
+                  <c:v>-36.978000000000002</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-37.054000000000002</c:v>
+                  <c:v>-36.368000000000002</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-36.637999999999998</c:v>
+                  <c:v>-35.881999999999998</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-36.268999999999998</c:v>
+                  <c:v>-35.36</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-35.872999999999998</c:v>
+                  <c:v>-35.078000000000003</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-35.534999999999997</c:v>
+                  <c:v>-35.003999999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-35.134</c:v>
+                  <c:v>-34.887999999999998</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-34.899000000000001</c:v>
+                  <c:v>-34.776000000000003</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-35.334000000000003</c:v>
+                  <c:v>-35.481999999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-35.808999999999997</c:v>
+                  <c:v>-36.265999999999998</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-36.243000000000002</c:v>
+                  <c:v>-37.014000000000003</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-36.6</c:v>
+                  <c:v>-37.706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-36.924999999999997</c:v>
+                  <c:v>-38.32</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-37.247999999999998</c:v>
+                  <c:v>-38.066000000000003</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-37.448</c:v>
+                  <c:v>-37.51</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-37.825000000000003</c:v>
+                  <c:v>-37.308</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-37.722999999999999</c:v>
+                  <c:v>-37.277999999999999</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-37.673000000000002</c:v>
+                  <c:v>-37.462000000000003</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-37.780999999999999</c:v>
+                  <c:v>-37.868000000000002</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-37.567999999999998</c:v>
+                  <c:v>-37.898000000000003</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-37.314999999999998</c:v>
+                  <c:v>-37.503999999999998</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-36.993000000000002</c:v>
+                  <c:v>-36.898000000000003</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-36.832999999999998</c:v>
+                  <c:v>-36.165999999999997</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-36.186</c:v>
+                  <c:v>-34.756</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-35.494</c:v>
+                  <c:v>-33.96</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-34.683999999999997</c:v>
+                  <c:v>-33.252000000000002</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-33.74</c:v>
+                  <c:v>-32.664000000000001</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-33.183</c:v>
+                  <c:v>-32.058</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-32.703000000000003</c:v>
+                  <c:v>-31.93</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-32.652999999999999</c:v>
+                  <c:v>-32.351999999999997</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-32.537999999999997</c:v>
+                  <c:v>-32.731999999999999</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-32.729999999999997</c:v>
+                  <c:v>-33.14</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-32.954999999999998</c:v>
+                  <c:v>-33.595999999999997</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-33.319000000000003</c:v>
+                  <c:v>-34.238</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-33.734000000000002</c:v>
+                  <c:v>-34.393999999999998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-34.1</c:v>
+                  <c:v>-34.558</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-34.384</c:v>
+                  <c:v>-34.576000000000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-34.133000000000003</c:v>
+                  <c:v>-34.235999999999997</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-33.360999999999997</c:v>
+                  <c:v>-32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-32.386000000000003</c:v>
+                  <c:v>-30.984000000000002</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-31.238</c:v>
+                  <c:v>-29.015999999999998</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-29.544</c:v>
+                  <c:v>-26.494</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-27.69</c:v>
+                  <c:v>-24.085999999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-25.788</c:v>
+                  <c:v>-22.44</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-23.811</c:v>
+                  <c:v>-20.856000000000002</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-22.013999999999999</c:v>
+                  <c:v>-19.478000000000002</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-20.754000000000001</c:v>
+                  <c:v>-18.736000000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-19.706</c:v>
+                  <c:v>-18.21</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-18.800999999999998</c:v>
+                  <c:v>-17.838000000000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-18.297999999999998</c:v>
+                  <c:v>-17.672000000000001</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-17.998999999999999</c:v>
+                  <c:v>-17.661999999999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-17.77</c:v>
+                  <c:v>-17.666</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-18.233000000000001</c:v>
+                  <c:v>-18.498000000000001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-18.763000000000002</c:v>
+                  <c:v>-19.416</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-19.138000000000002</c:v>
+                  <c:v>-20.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-19.448</c:v>
+                  <c:v>-20.527999999999999</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-19.765000000000001</c:v>
+                  <c:v>-21.03</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-20.13</c:v>
+                  <c:v>-20.707999999999998</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-20.535</c:v>
+                  <c:v>-20.498000000000001</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-20.959</c:v>
+                  <c:v>-20.58</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-20.875</c:v>
+                  <c:v>-20.782</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-20.75</c:v>
+                  <c:v>-20.992000000000001</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-20.812999999999999</c:v>
+                  <c:v>-21.172000000000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-21.06</c:v>
+                  <c:v>-21.367999999999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-21.286000000000001</c:v>
+                  <c:v>-21.553999999999998</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-21.495000000000001</c:v>
+                  <c:v>-21.7</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-21.594000000000001</c:v>
+                  <c:v>-21.847999999999999</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-21.701000000000001</c:v>
+                  <c:v>-22.001999999999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-21.791</c:v>
+                  <c:v>-21.952000000000002</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-21.885999999999999</c:v>
+                  <c:v>-21.952000000000002</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-21.969000000000001</c:v>
+                  <c:v>-21.93</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-21.919</c:v>
+                  <c:v>-21.888000000000002</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-21.91</c:v>
+                  <c:v>-21.888000000000002</c:v>
                 </c:pt>
                 <c:pt idx="194">
+                  <c:v>-21.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-22.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-22.352</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-22.641999999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-22.87</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-23.116</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-23.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-23.013999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-22.89</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-22.565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-22.294</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-21.898</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-21.51</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-21.257999999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-21.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-21.047999999999998</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-20.904</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-20.738</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-20.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-20.154</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-20.065999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-19.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-20.46</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-20.91</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-21.41</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-21.69</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-22.053999999999998</c:v>
+                </c:pt>
+                <c:pt idx="221">
                   <c:v>-21.878</c:v>
                 </c:pt>
-                <c:pt idx="195">
-                  <c:v>-22.035</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-22.187999999999999</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-22.35</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-22.484000000000002</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>-22.619</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>-22.789000000000001</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>-22.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>-23.007999999999999</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>-22.783999999999999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>-22.582999999999998</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>-22.324000000000002</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>-22.041</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>-21.846</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>-21.646000000000001</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>-21.353999999999999</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>-21.082999999999998</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>-20.899000000000001</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>-20.710999999999999</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>-20.556000000000001</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>-20.451000000000001</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>-20.280999999999999</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>-20.39</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>-20.625</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>-20.873000000000001</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>-21.045999999999999</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>-21.265999999999998</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>-21.468</c:v>
-                </c:pt>
                 <c:pt idx="222">
-                  <c:v>-21.626000000000001</c:v>
+                  <c:v>-21.667999999999999</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-21.779</c:v>
+                  <c:v>-21.425999999999998</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-21.597999999999999</c:v>
+                  <c:v>-21.341999999999999</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-21.443999999999999</c:v>
+                  <c:v>-21.193999999999999</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-21.184999999999999</c:v>
+                  <c:v>-20.957999999999998</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-21.2</c:v>
+                  <c:v>-21.007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-21.166</c:v>
+                  <c:v>-21.074000000000002</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-21.161000000000001</c:v>
+                  <c:v>-21.18</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-21.018999999999998</c:v>
+                  <c:v>-20.988</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-20.92</c:v>
+                  <c:v>-21.001999999999999</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-21.006</c:v>
+                  <c:v>-21.032</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-21.096</c:v>
+                  <c:v>-21.082000000000001</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-21.399000000000001</c:v>
+                  <c:v>-21.338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-21.350999999999999</c:v>
+                  <c:v>-21.54</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-21.300999999999998</c:v>
+                  <c:v>-21.684000000000001</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-21.44</c:v>
+                  <c:v>-21.873999999999999</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-21.346</c:v>
+                  <c:v>-21.388000000000002</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-21.22</c:v>
+                  <c:v>-20.716000000000001</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-20.893000000000001</c:v>
+                  <c:v>-20.297999999999998</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-20.489000000000001</c:v>
+                  <c:v>-19.782</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-20.119</c:v>
+                  <c:v>-19.224</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-20.100000000000001</c:v>
+                  <c:v>-19.545999999999999</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-20.22</c:v>
+                  <c:v>-20.084</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-20.026</c:v>
+                  <c:v>-20.488</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-20.265999999999998</c:v>
+                  <c:v>-21.032</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-20.55</c:v>
+                  <c:v>-21.405999999999999</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-20.885000000000002</c:v>
+                  <c:v>-21.553999999999998</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-21.33</c:v>
+                  <c:v>-21.558</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-21.131</c:v>
+                  <c:v>-20.992000000000001</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-20.76</c:v>
+                  <c:v>-20.335999999999999</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-20.548999999999999</c:v>
+                  <c:v>-20.082000000000001</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-20.515000000000001</c:v>
+                  <c:v>-19.896000000000001</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-20.469000000000001</c:v>
+                  <c:v>-19.654</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-20.082999999999998</c:v>
+                  <c:v>-19.728000000000002</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-19.606000000000002</c:v>
+                  <c:v>-19.707999999999998</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>-19.506</c:v>
+                  <c:v>-19.89</c:v>
                 </c:pt>
                 <c:pt idx="258">
+                  <c:v>-20.013999999999999</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-20.02</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-20.114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-20.138000000000002</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-19.771999999999998</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-19.434000000000001</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-19.198</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-18.98</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-18.986000000000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-19.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-19.942</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-20.361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-21.161999999999999</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-21.928000000000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-21.94</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-21.962</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-21.998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-21.364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-20.673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-21.667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-22.648</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-23.65</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-23.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-24.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-23.725999999999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-23.344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-22.994</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-24.212</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-25.212</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-25.248000000000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-25.27</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-25.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-25.19</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-25.164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-25.102</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-25.012</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-24.98</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-24.962</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-24.963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-25.192</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-25.513999999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-25.736000000000001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-25.864000000000001</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-25.994</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-25.501999999999999</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-24.94</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-24.391999999999999</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-23.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-23.995999999999999</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-24.51</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-25.07</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-25.684000000000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-26.302</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-26.315999999999999</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-26.338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-26.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-26.167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-26.084</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-26.036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-25.99</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-25.99</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-26.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-25.95</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-25.885999999999999</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-25.77</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-25.661999999999999</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-25.611999999999998</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-25.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-25.23</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-25.271999999999998</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-25.376000000000001</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-25.276</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-25.468</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-25.702000000000002</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-25.782</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-25.774000000000001</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-25.93</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-25.94</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-25.893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-25.85</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-25.812000000000001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-25.614000000000001</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-25.434000000000001</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-25.242000000000001</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-25.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-24.826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-24.931999999999999</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-20.943999999999999</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-20.84</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-20.687999999999999</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-20.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-20.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-24.437999999999999</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-24.314</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-24.224</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-24.045999999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-23.853999999999999</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-23.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-23.623999999999999</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-23.614000000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-23.57</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-23.54</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-23.533999999999999</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-23.544</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-23.526</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-23.532</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-23.507999999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-23.495999999999999</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-23.512</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-23.56</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-23.66</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-23.79</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-23.507999999999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-22.992000000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-22.442</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-21.827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-21.186</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-20.98</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-20.998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-21.026</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-21.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-20.815999999999999</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-20.6</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-20.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-20.14</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-19.956</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-19.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-20.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-20.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-20.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-20.18</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-20.297999999999998</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-20.474</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-20.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-20.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-20.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="394">
                   <c:v>-19.904</c:v>
                 </c:pt>
-                <c:pt idx="259">
-                  <c:v>-20.271000000000001</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>-20.103000000000002</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>-19.757999999999999</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>-19.579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>-19.72</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>-19.952999999999999</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>-19.533999999999999</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>-19.114999999999998</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>-19.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>-19.613</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>-20.093</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>-20.402999999999999</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>-20.673999999999999</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>-20.954000000000001</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>-21.475999999999999</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>-21.975000000000001</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>-21.582999999999998</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>-21.131</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>-21.77</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>-22.405000000000001</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>-23.050999999999998</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>-22.715</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>-22.47</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>-22.85</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>-23.643000000000001</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>-24.501000000000001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>-24.305</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>-24.073</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>-23.849</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>-24.591000000000001</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>-25.209</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>-25.22</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>-25.21</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>-25.166</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>-25.091000000000001</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>-25.064</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>-25.041</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>-25.018999999999998</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>-25.138999999999999</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>-25.294</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>-25.420999999999999</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>-25.518000000000001</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>-25.632999999999999</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>-25.465</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>-25.28</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>-25.064</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>-24.718</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>-24.684000000000001</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>-24.699000000000002</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>-24.783999999999999</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>-24.87</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>-25.218</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>-25.544</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>-25.914999999999999</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>-26.26</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>-26.228000000000002</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>-26.201000000000001</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>-26.148</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>-26.106000000000002</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>-26.065000000000001</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>-26.041</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>-25.959</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>-25.905000000000001</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>-25.858000000000001</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>-25.800999999999998</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>-25.776</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>-25.594999999999999</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>-25.43</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>-25.390999999999998</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>-25.443000000000001</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>-25.395</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>-25.405999999999999</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>-25.454999999999998</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>-25.498000000000001</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>-25.670999999999999</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>-25.832999999999998</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>-25.824000000000002</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>-25.779</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>-25.856000000000002</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>-25.885999999999999</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>-25.777999999999999</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>-25.606000000000002</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>-25.446000000000002</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>-25.29</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>-25.19</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>-25.175999999999998</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>-22.54</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>-22.338999999999999</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>-22.210999999999999</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>-22.198</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>-22.198</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>-22.173999999999999</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>-22.018999999999998</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>-21.768999999999998</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>-24.135999999999999</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>-24.081</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>-24.023</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>-23.88</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>-23.73</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>-23.594000000000001</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>-23.597999999999999</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>-23.591000000000001</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>-23.565999999999999</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>-23.524999999999999</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>-23.523</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>-23.524999999999999</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>-23.518000000000001</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>-23.53</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>-23.538</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>-23.600999999999999</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>-23.678999999999998</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>-23.506</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>-23.193000000000001</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>-22.870999999999999</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>-22.559000000000001</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>-22.225000000000001</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>-21.893999999999998</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>-21.529</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>-21.143999999999998</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>-21.003</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>-20.864999999999998</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>-20.742999999999999</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>-20.609000000000002</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>-20.49</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>-20.363</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>-20.22</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>-20.108000000000001</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>-20.026</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>-20.068999999999999</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>-20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>-20.184000000000001</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>-20.315999999999999</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>-20.460999999999999</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>-20.349</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>-20.213000000000001</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>-20.07</c:v>
-                </c:pt>
                 <c:pt idx="395">
-                  <c:v>-19.922999999999998</c:v>
+                  <c:v>-19.512</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>-19.789000000000001</c:v>
+                  <c:v>-19.103999999999999</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>-19.605</c:v>
+                  <c:v>-19.108000000000001</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>-19.341000000000001</c:v>
+                  <c:v>-19.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>-19.009</c:v>
+                  <c:v>-18.954000000000001</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>-18.925999999999998</c:v>
+                  <c:v>-18.82</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>-18.838000000000001</c:v>
+                  <c:v>-18.667999999999999</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>-18.768999999999998</c:v>
+                  <c:v>-18.565999999999999</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>-18.7</c:v>
+                  <c:v>-18.486000000000001</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>-18.638999999999999</c:v>
+                  <c:v>-18.512</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>-18.308</c:v>
+                  <c:v>-18.117999999999999</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>-17.93</c:v>
+                  <c:v>-17.628</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>-17.488</c:v>
+                  <c:v>-16.904</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>-17.053000000000001</c:v>
+                  <c:v>-16.184000000000001</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>-16.623000000000001</c:v>
+                  <c:v>-15.442</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>-16.119</c:v>
+                  <c:v>-15.064</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>-15.859</c:v>
+                  <c:v>-15.172000000000001</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>-15.473000000000001</c:v>
+                  <c:v>-15.288</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>-15.359</c:v>
+                  <c:v>-15.407999999999999</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>-15.323</c:v>
+                  <c:v>-15.548</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>-15.42</c:v>
+                  <c:v>-15.786</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>-15.548</c:v>
+                  <c:v>-15.686</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>-15.670999999999999</c:v>
+                  <c:v>-15.76</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>-15.798</c:v>
+                  <c:v>-15.766</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>-15.333</c:v>
+                  <c:v>-15.188000000000001</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>-14.984999999999999</c:v>
+                  <c:v>-14.592000000000001</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>-14.624000000000001</c:v>
+                  <c:v>-13.93</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>-14.24</c:v>
+                  <c:v>-13.257999999999999</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>-13.973000000000001</c:v>
+                  <c:v>-12.866</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>-13.675000000000001</c:v>
+                  <c:v>-13.034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>-13.353</c:v>
+                  <c:v>-13.148</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>-13.04</c:v>
+                  <c:v>-13.231999999999999</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>-13.076000000000001</c:v>
+                  <c:v>-13.326000000000001</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>-13.099</c:v>
+                  <c:v>-13.194000000000001</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>-13.143000000000001</c:v>
+                  <c:v>-13.077999999999999</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>-13.129</c:v>
+                  <c:v>-12.9</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>-12.981</c:v>
+                  <c:v>-12.772</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>-12.834</c:v>
+                  <c:v>-12.646000000000001</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>-12.696</c:v>
+                  <c:v>-12.504</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>-13.193</c:v>
+                  <c:v>-13.311999999999999</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>-13.694000000000001</c:v>
+                  <c:v>-14.23</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>-14.186</c:v>
+                  <c:v>-15.122</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>-14.670999999999999</c:v>
+                  <c:v>-16.018000000000001</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>-15.226000000000001</c:v>
+                  <c:v>-16.948</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>-15.792999999999999</c:v>
+                  <c:v>-16.931999999999999</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>-16.341000000000001</c:v>
+                  <c:v>-16.882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>-16.940999999999999</c:v>
+                  <c:v>-16.911999999999999</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>-16.93</c:v>
+                  <c:v>-16.925999999999998</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>-16.939</c:v>
+                  <c:v>-16.97</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>-16.969000000000001</c:v>
+                  <c:v>-17.004000000000001</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>-16.934000000000001</c:v>
+                  <c:v>-16.966000000000001</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>-16.908000000000001</c:v>
+                  <c:v>-16.893999999999998</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>-16.838000000000001</c:v>
+                  <c:v>-16.783999999999999</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>-16.745000000000001</c:v>
+                  <c:v>-16.571999999999999</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>-16.605</c:v>
+                  <c:v>-16.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>-16.312999999999999</c:v>
+                  <c:v>-15.932</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>-15.978999999999999</c:v>
+                  <c:v>-15.484</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>-15.548999999999999</c:v>
+                  <c:v>-14.942</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>-15.186</c:v>
+                  <c:v>-14.472</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>-14.73</c:v>
+                  <c:v>-13.894</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>-14.881</c:v>
+                  <c:v>-14.494</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>-15.06</c:v>
+                  <c:v>-15.102</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>-15.260999999999999</c:v>
+                  <c:v>-15.87</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>-15.605</c:v>
+                  <c:v>-16.602</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>-16.006</c:v>
+                  <c:v>-17.526</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>-16.491</c:v>
+                  <c:v>-17.518000000000001</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>-16.454000000000001</c:v>
+                  <c:v>-16.702000000000002</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>-16.449000000000002</c:v>
+                  <c:v>-15.794</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>-15.917999999999999</c:v>
+                  <c:v>-14.994</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>-15.456</c:v>
+                  <c:v>-14.222</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>-14.944000000000001</c:v>
+                  <c:v>-13.394</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>-14.468</c:v>
+                  <c:v>-13.423999999999999</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>-13.948</c:v>
+                  <c:v>-13.523999999999999</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>-13.29</c:v>
+                  <c:v>-13.314</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>-13.164</c:v>
+                  <c:v>-13.034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>-12.92</c:v>
+                  <c:v>-12.555999999999999</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>-12.618</c:v>
+                  <c:v>-12.034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>-12.250999999999999</c:v>
+                  <c:v>-11.507999999999999</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>-11.930999999999999</c:v>
+                  <c:v>-11.22</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>-11.577999999999999</c:v>
+                  <c:v>-10.885999999999999</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>-11.071</c:v>
+                  <c:v>-10.566000000000001</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>-10.723000000000001</c:v>
+                  <c:v>-10.282</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>-11.166</c:v>
+                  <c:v>-11.298</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>-11.766</c:v>
+                  <c:v>-12.292</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>-12.27</c:v>
+                  <c:v>-13.141999999999999</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>-12.769</c:v>
+                  <c:v>-14.224</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>-13.196</c:v>
+                  <c:v>-15.178000000000001</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>-13.625999999999999</c:v>
+                  <c:v>-14.821999999999999</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>-14.089</c:v>
+                  <c:v>-14.282</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>-14.518000000000001</c:v>
+                  <c:v>-13.878</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>-14.132999999999999</c:v>
+                  <c:v>-13.48</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>-13.747999999999999</c:v>
+                  <c:v>-13.173999999999999</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>-13.429</c:v>
+                  <c:v>-12.826000000000001</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>-13.1</c:v>
+                  <c:v>-12.641999999999999</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>-12.849</c:v>
+                  <c:v>-12.507999999999999</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>-12.593999999999999</c:v>
+                  <c:v>-12.36</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>-12.455</c:v>
+                  <c:v>-12.214</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>-12.331</c:v>
+                  <c:v>-12.122</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>-12.228</c:v>
+                  <c:v>-12.084</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>-12.134</c:v>
+                  <c:v>-12.03</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>-12.086</c:v>
+                  <c:v>-12.013999999999999</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>-12.074</c:v>
+                  <c:v>-12.032</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>-12.005000000000001</c:v>
+                  <c:v>-11.986000000000001</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>-11.763</c:v>
+                  <c:v>-11.616</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>-11.778</c:v>
+                  <c:v>-11.644</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>-11.805999999999999</c:v>
+                  <c:v>-11.673999999999999</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>-11.82</c:v>
+                  <c:v>-11.678000000000001</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>-11.837999999999999</c:v>
+                  <c:v>-11.762</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>-11.869</c:v>
+                  <c:v>-12.183999999999999</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>-11.874000000000001</c:v>
+                  <c:v>-12.186</c:v>
                 </c:pt>
                 <c:pt idx="505">
+                  <c:v>-12.178000000000001</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>-12.154</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>-12.12</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>-12.08</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>-12.071999999999999</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>-12.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>-12.135999999999999</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>-12.262</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>-12.35</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>-12.336</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>-12.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>-12.214</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>-12.07</c:v>
+                </c:pt>
+                <c:pt idx="518">
                   <c:v>-11.926</c:v>
                 </c:pt>
-                <c:pt idx="506">
-                  <c:v>-12.156000000000001</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>-12.135</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>-12.122999999999999</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>-12.12</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>-12.125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>-12.125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>-12.183</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>-12.23</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>-12.234</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>-12.259</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>-12.21</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>-12.180999999999999</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>-12.132999999999999</c:v>
-                </c:pt>
                 <c:pt idx="519">
-                  <c:v>-12.085000000000001</c:v>
+                  <c:v>-11.898</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>-11.997999999999999</c:v>
+                  <c:v>-11.843999999999999</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>-11.906000000000001</c:v>
+                  <c:v>-11.864000000000001</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>-11.903</c:v>
+                  <c:v>-11.89</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>-11.9</c:v>
+                  <c:v>-11.96</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>-12.000999999999999</c:v>
+                  <c:v>-12.08</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>-12.079000000000001</c:v>
+                  <c:v>-12.2</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>-12.215999999999999</c:v>
+                  <c:v>-12.422000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16860,7 +16860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AAC05F-B371-884F-ABD1-98C22EF61BAF}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="164" workbookViewId="0">
+    <sheetView zoomScale="162" zoomScaleNormal="164" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -26762,11 +26762,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C491D87-F346-CA48-BF83-3B74F4392A2D}">
-  <dimension ref="A1:I534"/>
+  <dimension ref="A1:I563"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26853,7 +26853,7 @@
         <v>-2.210000000000008</v>
       </c>
       <c r="E8" s="30">
-        <f xml:space="preserve"> ROUND(AVERAGE(D1:D8),3)</f>
+        <f xml:space="preserve"> ROUND(AVERAGE(D4:D8),3)</f>
         <v>-2.21</v>
       </c>
       <c r="F8" s="4"/>
@@ -26873,7 +26873,7 @@
         <v>-1.5300000000000011</v>
       </c>
       <c r="E9" s="30">
-        <f t="shared" ref="E9:E72" si="1" xml:space="preserve"> ROUND(AVERAGE(D2:D9),3)</f>
+        <f t="shared" ref="E9:E72" si="1" xml:space="preserve"> ROUND(AVERAGE(D5:D9),3)</f>
         <v>-1.87</v>
       </c>
       <c r="F9" s="4"/>
@@ -26954,7 +26954,7 @@
       </c>
       <c r="E13" s="30">
         <f t="shared" si="1"/>
-        <v>-1.9770000000000001</v>
+        <v>-1.93</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -26974,7 +26974,7 @@
       </c>
       <c r="E14" s="30">
         <f t="shared" si="1"/>
-        <v>-1.9790000000000001</v>
+        <v>-2.0219999999999998</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -26994,7 +26994,7 @@
       </c>
       <c r="E15" s="30">
         <f t="shared" si="1"/>
-        <v>-1.974</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -27014,7 +27014,7 @@
       </c>
       <c r="E16" s="30">
         <f t="shared" si="1"/>
-        <v>-1.946</v>
+        <v>-2.0259999999999998</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -27034,7 +27034,7 @@
       </c>
       <c r="E17" s="30">
         <f t="shared" si="1"/>
-        <v>-1.9590000000000001</v>
+        <v>-1.9319999999999999</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -27054,7 +27054,7 @@
       </c>
       <c r="E18" s="30">
         <f t="shared" si="1"/>
-        <v>-1.889</v>
+        <v>-1.778</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -27074,7 +27074,7 @@
       </c>
       <c r="E19" s="30">
         <f t="shared" si="1"/>
-        <v>-1.7629999999999999</v>
+        <v>-1.58</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -27094,7 +27094,7 @@
       </c>
       <c r="E20" s="30">
         <f t="shared" si="1"/>
-        <v>-1.6259999999999999</v>
+        <v>-1.3939999999999999</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -27114,7 +27114,7 @@
       </c>
       <c r="E21" s="30">
         <f t="shared" si="1"/>
-        <v>-1.5609999999999999</v>
+        <v>-1.3140000000000001</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -27134,7 +27134,7 @@
       </c>
       <c r="E22" s="30">
         <f t="shared" si="1"/>
-        <v>-1.49</v>
+        <v>-1.272</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -27154,7 +27154,7 @@
       </c>
       <c r="E23" s="30">
         <f t="shared" si="1"/>
-        <v>-1.3240000000000001</v>
+        <v>-1.1259999999999999</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -27174,7 +27174,7 @@
       </c>
       <c r="E24" s="30">
         <f t="shared" si="1"/>
-        <v>-1.1499999999999999</v>
+        <v>-1.046</v>
       </c>
       <c r="F24" s="4"/>
     </row>
@@ -27194,7 +27194,7 @@
       </c>
       <c r="E25" s="30">
         <f t="shared" si="1"/>
-        <v>-1.0209999999999999</v>
+        <v>-0.96399999999999997</v>
       </c>
       <c r="F25" s="4"/>
     </row>
@@ -27214,7 +27214,7 @@
       </c>
       <c r="E26" s="30">
         <f t="shared" si="1"/>
-        <v>-0.90200000000000002</v>
+        <v>-0.72399999999999998</v>
       </c>
       <c r="F26" s="4"/>
     </row>
@@ -27234,7 +27234,7 @@
       </c>
       <c r="E27" s="30">
         <f t="shared" si="1"/>
-        <v>-0.86099999999999999</v>
+        <v>-0.57399999999999995</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -27254,7 +27254,7 @@
       </c>
       <c r="E28" s="30">
         <f t="shared" si="1"/>
-        <v>-0.77400000000000002</v>
+        <v>-0.51400000000000001</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -27274,7 +27274,7 @@
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>-1.0509999999999999</v>
+        <v>-1.1559999999999999</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -27294,7 +27294,7 @@
       </c>
       <c r="E30" s="30">
         <f t="shared" si="1"/>
-        <v>-1.3460000000000001</v>
+        <v>-1.792</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -27314,7 +27314,7 @@
       </c>
       <c r="E31" s="30">
         <f t="shared" si="1"/>
-        <v>-1.7509999999999999</v>
+        <v>-2.484</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -27334,7 +27334,7 @@
       </c>
       <c r="E32" s="30">
         <f t="shared" si="1"/>
-        <v>-2.2090000000000001</v>
+        <v>-3.202</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -27354,7 +27354,7 @@
       </c>
       <c r="E33" s="30">
         <f t="shared" si="1"/>
-        <v>-2.6840000000000002</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="F33" s="4"/>
     </row>
@@ -27374,7 +27374,7 @@
       </c>
       <c r="E34" s="30">
         <f t="shared" si="1"/>
-        <v>-3.1840000000000002</v>
+        <v>-4.1360000000000001</v>
       </c>
       <c r="F34" s="4"/>
     </row>
@@ -27394,7 +27394,7 @@
       </c>
       <c r="E35" s="30">
         <f t="shared" si="1"/>
-        <v>-3.6440000000000001</v>
+        <v>-4.25</v>
       </c>
       <c r="F35" s="4"/>
     </row>
@@ -27414,7 +27414,7 @@
       </c>
       <c r="E36" s="30">
         <f t="shared" si="1"/>
-        <v>-4.1639999999999997</v>
+        <v>-4.3739999999999997</v>
       </c>
       <c r="F36" s="4"/>
     </row>
@@ -27433,8 +27433,8 @@
         <v>-4.5700000000000074</v>
       </c>
       <c r="E37" s="30">
-        <f xml:space="preserve"> ROUND(AVERAGE(D30:D37),3)</f>
-        <v>-4.2590000000000003</v>
+        <f t="shared" si="1"/>
+        <v>-4.4359999999999999</v>
       </c>
       <c r="F37" s="4"/>
     </row>
@@ -27454,7 +27454,7 @@
       </c>
       <c r="E38" s="30">
         <f t="shared" si="1"/>
-        <v>-4.3209999999999997</v>
+        <v>-4.4119999999999999</v>
       </c>
       <c r="F38" s="4"/>
     </row>
@@ -27474,7 +27474,7 @@
       </c>
       <c r="E39" s="30">
         <f t="shared" si="1"/>
-        <v>-4.3959999999999999</v>
+        <v>-4.4240000000000004</v>
       </c>
       <c r="F39" s="4"/>
     </row>
@@ -27494,7 +27494,7 @@
       </c>
       <c r="E40" s="30">
         <f t="shared" si="1"/>
-        <v>-4.41</v>
+        <v>-4.4279999999999999</v>
       </c>
       <c r="F40" s="4"/>
     </row>
@@ -27514,7 +27514,7 @@
       </c>
       <c r="E41" s="30">
         <f t="shared" si="1"/>
-        <v>-4.4160000000000004</v>
+        <v>-4.4240000000000004</v>
       </c>
       <c r="F41" s="4"/>
     </row>
@@ -27534,7 +27534,7 @@
       </c>
       <c r="E42" s="30">
         <f t="shared" si="1"/>
-        <v>-4.468</v>
+        <v>-4.47</v>
       </c>
       <c r="F42" s="4"/>
     </row>
@@ -27554,7 +27554,7 @@
       </c>
       <c r="E43" s="30">
         <f t="shared" si="1"/>
-        <v>-4.3380000000000001</v>
+        <v>-4.2759999999999998</v>
       </c>
       <c r="F43" s="4"/>
     </row>
@@ -27574,7 +27574,7 @@
       </c>
       <c r="E44" s="30">
         <f t="shared" si="1"/>
-        <v>-4.3209999999999997</v>
+        <v>-4.2539999999999996</v>
       </c>
       <c r="F44" s="4"/>
     </row>
@@ -27594,7 +27594,7 @@
       </c>
       <c r="E45" s="30">
         <f t="shared" si="1"/>
-        <v>-4.3460000000000001</v>
+        <v>-4.3339999999999996</v>
       </c>
       <c r="F45" s="4"/>
     </row>
@@ -27614,7 +27614,7 @@
       </c>
       <c r="E46" s="30">
         <f t="shared" si="1"/>
-        <v>-4.6589999999999998</v>
+        <v>-4.8</v>
       </c>
       <c r="F46" s="4"/>
     </row>
@@ -27634,7 +27634,7 @@
       </c>
       <c r="E47" s="30">
         <f t="shared" si="1"/>
-        <v>-5.3010000000000002</v>
+        <v>-5.758</v>
       </c>
       <c r="F47" s="4"/>
     </row>
@@ -27654,7 +27654,7 @@
       </c>
       <c r="E48" s="30">
         <f t="shared" si="1"/>
-        <v>-5.649</v>
+        <v>-6.5259999999999998</v>
       </c>
       <c r="F48" s="4"/>
     </row>
@@ -27674,7 +27674,7 @@
       </c>
       <c r="E49" s="30">
         <f t="shared" si="1"/>
-        <v>-6.5960000000000001</v>
+        <v>-8.0640000000000001</v>
       </c>
       <c r="F49" s="4"/>
     </row>
@@ -27694,7 +27694,7 @@
       </c>
       <c r="E50" s="30">
         <f t="shared" si="1"/>
-        <v>-8.25</v>
+        <v>-10.715999999999999</v>
       </c>
       <c r="F50" s="4"/>
     </row>
@@ -27714,7 +27714,7 @@
       </c>
       <c r="E51" s="30">
         <f t="shared" si="1"/>
-        <v>-9.8740000000000006</v>
+        <v>-12.62</v>
       </c>
       <c r="F51" s="4"/>
     </row>
@@ -27734,7 +27734,7 @@
       </c>
       <c r="E52" s="30">
         <f t="shared" si="1"/>
-        <v>-10.99</v>
+        <v>-13.356</v>
       </c>
       <c r="F52" s="4"/>
     </row>
@@ -27754,7 +27754,7 @@
       </c>
       <c r="E53" s="30">
         <f t="shared" si="1"/>
-        <v>-12.31</v>
+        <v>-14.992000000000001</v>
       </c>
       <c r="F53" s="4"/>
     </row>
@@ -27774,7 +27774,7 @@
       </c>
       <c r="E54" s="30">
         <f t="shared" si="1"/>
-        <v>-13.661</v>
+        <v>-16.103999999999999</v>
       </c>
       <c r="F54" s="4"/>
     </row>
@@ -27794,7 +27794,7 @@
       </c>
       <c r="E55" s="30">
         <f t="shared" si="1"/>
-        <v>-14.96</v>
+        <v>-16.494</v>
       </c>
       <c r="F55" s="4"/>
     </row>
@@ -27814,7 +27814,7 @@
       </c>
       <c r="E56" s="30">
         <f t="shared" si="1"/>
-        <v>-16.55</v>
+        <v>-17.207999999999998</v>
       </c>
       <c r="F56" s="4"/>
     </row>
@@ -27834,7 +27834,7 @@
       </c>
       <c r="E57" s="30">
         <f t="shared" si="1"/>
-        <v>-17.440000000000001</v>
+        <v>-18.384</v>
       </c>
       <c r="F57" s="4"/>
     </row>
@@ -27854,7 +27854,7 @@
       </c>
       <c r="E58" s="30">
         <f t="shared" si="1"/>
-        <v>-17.623000000000001</v>
+        <v>-19.216000000000001</v>
       </c>
       <c r="F58" s="4"/>
     </row>
@@ -27874,7 +27874,7 @@
       </c>
       <c r="E59" s="30">
         <f t="shared" si="1"/>
-        <v>-18.507999999999999</v>
+        <v>-20.373999999999999</v>
       </c>
       <c r="F59" s="4"/>
     </row>
@@ -27894,7 +27894,7 @@
       </c>
       <c r="E60" s="30">
         <f t="shared" si="1"/>
-        <v>-19.754000000000001</v>
+        <v>-21.026</v>
       </c>
       <c r="F60" s="4"/>
     </row>
@@ -27914,7 +27914,7 @@
       </c>
       <c r="E61" s="30">
         <f t="shared" si="1"/>
-        <v>-20.724</v>
+        <v>-21.67</v>
       </c>
       <c r="F61" s="4"/>
     </row>
@@ -27934,7 +27934,7 @@
       </c>
       <c r="E62" s="30">
         <f t="shared" si="1"/>
-        <v>-21.457999999999998</v>
+        <v>-22.532</v>
       </c>
       <c r="F62" s="4"/>
     </row>
@@ -27954,7 +27954,7 @@
       </c>
       <c r="E63" s="30">
         <f t="shared" si="1"/>
-        <v>-21.943000000000001</v>
+        <v>-23.405999999999999</v>
       </c>
       <c r="F63" s="4"/>
     </row>
@@ -27974,7 +27974,7 @@
       </c>
       <c r="E64" s="30">
         <f t="shared" si="1"/>
-        <v>-22.911000000000001</v>
+        <v>-24.254000000000001</v>
       </c>
       <c r="F64" s="4"/>
     </row>
@@ -27994,7 +27994,7 @@
       </c>
       <c r="E65" s="30">
         <f t="shared" si="1"/>
-        <v>-24.37</v>
+        <v>-25.77</v>
       </c>
       <c r="F65" s="4"/>
     </row>
@@ -28014,7 +28014,7 @@
       </c>
       <c r="E66" s="30">
         <f t="shared" si="1"/>
-        <v>-25.818999999999999</v>
+        <v>-27.367999999999999</v>
       </c>
       <c r="F66" s="4"/>
     </row>
@@ -28034,7 +28034,7 @@
       </c>
       <c r="E67" s="30">
         <f t="shared" si="1"/>
-        <v>-26.814</v>
+        <v>-28.943999999999999</v>
       </c>
       <c r="F67" s="4"/>
     </row>
@@ -28054,7 +28054,7 @@
       </c>
       <c r="E68" s="30">
         <f t="shared" si="1"/>
-        <v>-27.788</v>
+        <v>-30.378</v>
       </c>
       <c r="F68" s="4"/>
     </row>
@@ -28074,7 +28074,7 @@
       </c>
       <c r="E69" s="30">
         <f t="shared" si="1"/>
-        <v>-28.669</v>
+        <v>-30.882000000000001</v>
       </c>
       <c r="F69" s="4"/>
     </row>
@@ -28094,7 +28094,7 @@
       </c>
       <c r="E70" s="30">
         <f t="shared" si="1"/>
-        <v>-29.495000000000001</v>
+        <v>-30.731999999999999</v>
       </c>
       <c r="F70" s="4"/>
     </row>
@@ -28114,7 +28114,7 @@
       </c>
       <c r="E71" s="30">
         <f t="shared" si="1"/>
-        <v>-30.248000000000001</v>
+        <v>-30.492000000000001</v>
       </c>
       <c r="F71" s="4"/>
     </row>
@@ -28134,7 +28134,7 @@
       </c>
       <c r="E72" s="30">
         <f t="shared" si="1"/>
-        <v>-29.491</v>
+        <v>-28.538</v>
       </c>
       <c r="F72" s="4"/>
     </row>
@@ -28153,8 +28153,8 @@
         <v>-22.179999999999993</v>
       </c>
       <c r="E73" s="30">
-        <f t="shared" ref="E73:E136" si="3" xml:space="preserve"> ROUND(AVERAGE(D66:D73),3)</f>
-        <v>-28.411000000000001</v>
+        <f t="shared" ref="E73:E136" si="3" xml:space="preserve"> ROUND(AVERAGE(D69:D73),3)</f>
+        <v>-26.768000000000001</v>
       </c>
       <c r="F73" s="4"/>
     </row>
@@ -28174,7 +28174,7 @@
       </c>
       <c r="E74" s="30">
         <f t="shared" si="3"/>
-        <v>-27.303999999999998</v>
+        <v>-25.184000000000001</v>
       </c>
       <c r="F74" s="4"/>
     </row>
@@ -28194,7 +28194,7 @@
       </c>
       <c r="E75" s="30">
         <f t="shared" si="3"/>
-        <v>-26.143999999999998</v>
+        <v>-23.582000000000001</v>
       </c>
       <c r="F75" s="4"/>
     </row>
@@ -28214,7 +28214,7 @@
       </c>
       <c r="E76" s="30">
         <f t="shared" si="3"/>
-        <v>-24.945</v>
+        <v>-21.893999999999998</v>
       </c>
       <c r="F76" s="4"/>
     </row>
@@ -28234,7 +28234,7 @@
       </c>
       <c r="E77" s="30">
         <f t="shared" si="3"/>
-        <v>-23.835999999999999</v>
+        <v>-21.834</v>
       </c>
       <c r="F77" s="4"/>
     </row>
@@ -28254,7 +28254,7 @@
       </c>
       <c r="E78" s="30">
         <f t="shared" si="3"/>
-        <v>-23.245000000000001</v>
+        <v>-22.466000000000001</v>
       </c>
       <c r="F78" s="4"/>
     </row>
@@ -28274,7 +28274,7 @@
       </c>
       <c r="E79" s="30">
         <f t="shared" si="3"/>
-        <v>-22.702999999999999</v>
+        <v>-23.13</v>
       </c>
       <c r="F79" s="4"/>
     </row>
@@ -28294,7 +28294,7 @@
       </c>
       <c r="E80" s="30">
         <f t="shared" si="3"/>
-        <v>-23.216000000000001</v>
+        <v>-23.853999999999999</v>
       </c>
       <c r="F80" s="4"/>
     </row>
@@ -28314,7 +28314,7 @@
       </c>
       <c r="E81" s="30">
         <f t="shared" si="3"/>
-        <v>-23.920999999999999</v>
+        <v>-25.13</v>
       </c>
       <c r="F81" s="4"/>
     </row>
@@ -28334,7 +28334,7 @@
       </c>
       <c r="E82" s="30">
         <f t="shared" si="3"/>
-        <v>-24.986000000000001</v>
+        <v>-27.024000000000001</v>
       </c>
       <c r="F82" s="4"/>
     </row>
@@ -28354,7 +28354,7 @@
       </c>
       <c r="E83" s="30">
         <f t="shared" si="3"/>
-        <v>-25.998000000000001</v>
+        <v>-27.986000000000001</v>
       </c>
       <c r="F83" s="4"/>
     </row>
@@ -28374,7 +28374,7 @@
       </c>
       <c r="E84" s="30">
         <f t="shared" si="3"/>
-        <v>-27.018999999999998</v>
+        <v>-28.8</v>
       </c>
       <c r="F84" s="4"/>
     </row>
@@ -28394,7 +28394,7 @@
       </c>
       <c r="E85" s="30">
         <f t="shared" si="3"/>
-        <v>-28.074999999999999</v>
+        <v>-29.608000000000001</v>
       </c>
       <c r="F85" s="4"/>
     </row>
@@ -28414,7 +28414,7 @@
       </c>
       <c r="E86" s="30">
         <f t="shared" si="3"/>
-        <v>-28.658000000000001</v>
+        <v>-30.044</v>
       </c>
       <c r="F86" s="4"/>
     </row>
@@ -28434,7 +28434,7 @@
       </c>
       <c r="E87" s="30">
         <f t="shared" si="3"/>
-        <v>-29.341000000000001</v>
+        <v>-30.097999999999999</v>
       </c>
       <c r="F87" s="4"/>
     </row>
@@ -28454,7 +28454,7 @@
       </c>
       <c r="E88" s="30">
         <f t="shared" si="3"/>
-        <v>-28.745999999999999</v>
+        <v>-28.251999999999999</v>
       </c>
       <c r="F88" s="4"/>
     </row>
@@ -28474,7 +28474,7 @@
       </c>
       <c r="E89" s="30">
         <f t="shared" si="3"/>
-        <v>-27.879000000000001</v>
+        <v>-26.506</v>
       </c>
       <c r="F89" s="4"/>
     </row>
@@ -28494,7 +28494,7 @@
       </c>
       <c r="E90" s="30">
         <f t="shared" si="3"/>
-        <v>-27.92</v>
+        <v>-26.776</v>
       </c>
       <c r="F90" s="4"/>
     </row>
@@ -28514,7 +28514,7 @@
       </c>
       <c r="E91" s="30">
         <f t="shared" si="3"/>
-        <v>-28.026</v>
+        <v>-26.975999999999999</v>
       </c>
       <c r="F91" s="4"/>
     </row>
@@ -28534,7 +28534,7 @@
       </c>
       <c r="E92" s="30">
         <f t="shared" si="3"/>
-        <v>-28.314</v>
+        <v>-27.155999999999999</v>
       </c>
       <c r="F92" s="4"/>
     </row>
@@ -28554,7 +28554,7 @@
       </c>
       <c r="E93" s="30">
         <f t="shared" si="3"/>
-        <v>-28.614999999999998</v>
+        <v>-29.398</v>
       </c>
       <c r="F93" s="4"/>
     </row>
@@ -28574,7 +28574,7 @@
       </c>
       <c r="E94" s="30">
         <f t="shared" si="3"/>
-        <v>-28.004000000000001</v>
+        <v>-30.244</v>
       </c>
       <c r="F94" s="4"/>
     </row>
@@ -28594,7 +28594,7 @@
       </c>
       <c r="E95" s="30">
         <f t="shared" si="3"/>
-        <v>-27.277999999999999</v>
+        <v>-29.07</v>
       </c>
       <c r="F95" s="4"/>
     </row>
@@ -28614,7 +28614,7 @@
       </c>
       <c r="E96" s="30">
         <f t="shared" si="3"/>
-        <v>-27.850999999999999</v>
+        <v>-27.972000000000001</v>
       </c>
       <c r="F96" s="4"/>
     </row>
@@ -28634,7 +28634,7 @@
       </c>
       <c r="E97" s="30">
         <f t="shared" si="3"/>
-        <v>-28.420999999999999</v>
+        <v>-26.678000000000001</v>
       </c>
       <c r="F97" s="4"/>
     </row>
@@ -28654,7 +28654,7 @@
       </c>
       <c r="E98" s="30">
         <f t="shared" si="3"/>
-        <v>-27.666</v>
+        <v>-25.257999999999999</v>
       </c>
       <c r="F98" s="4"/>
     </row>
@@ -28674,7 +28674,7 @@
       </c>
       <c r="E99" s="30">
         <f t="shared" si="3"/>
-        <v>-27.2</v>
+        <v>-25.69</v>
       </c>
       <c r="F99" s="4"/>
     </row>
@@ -28694,7 +28694,7 @@
       </c>
       <c r="E100" s="30">
         <f t="shared" si="3"/>
-        <v>-27.02</v>
+        <v>-26.744</v>
       </c>
       <c r="F100" s="4"/>
     </row>
@@ -28714,7 +28714,7 @@
       </c>
       <c r="E101" s="30">
         <f t="shared" si="3"/>
-        <v>-26.834</v>
+        <v>-27.77</v>
       </c>
       <c r="F101" s="4"/>
     </row>
@@ -28734,7 +28734,7 @@
       </c>
       <c r="E102" s="30">
         <f t="shared" si="3"/>
-        <v>-27.541</v>
+        <v>-28.835999999999999</v>
       </c>
       <c r="F102" s="4"/>
     </row>
@@ -28754,7 +28754,7 @@
       </c>
       <c r="E103" s="30">
         <f t="shared" si="3"/>
-        <v>-28.236000000000001</v>
+        <v>-29.981999999999999</v>
       </c>
       <c r="F103" s="4"/>
     </row>
@@ -28774,7 +28774,7 @@
       </c>
       <c r="E104" s="30">
         <f t="shared" si="3"/>
-        <v>-28.959</v>
+        <v>-30.786000000000001</v>
       </c>
       <c r="F104" s="4"/>
     </row>
@@ -28794,7 +28794,7 @@
       </c>
       <c r="E105" s="30">
         <f t="shared" si="3"/>
-        <v>-29.649000000000001</v>
+        <v>-30.884</v>
       </c>
       <c r="F105" s="4"/>
     </row>
@@ -28814,7 +28814,7 @@
       </c>
       <c r="E106" s="30">
         <f t="shared" si="3"/>
-        <v>-30.373000000000001</v>
+        <v>-30.92</v>
       </c>
       <c r="F106" s="4"/>
     </row>
@@ -28834,7 +28834,7 @@
       </c>
       <c r="E107" s="30">
         <f t="shared" si="3"/>
-        <v>-30.844999999999999</v>
+        <v>-30.975999999999999</v>
       </c>
       <c r="F107" s="7"/>
     </row>
@@ -28854,7 +28854,7 @@
       </c>
       <c r="E108" s="30">
         <f t="shared" si="3"/>
-        <v>-30.774999999999999</v>
+        <v>-30.806000000000001</v>
       </c>
       <c r="F108" s="4"/>
     </row>
@@ -28874,7 +28874,7 @@
       </c>
       <c r="E109" s="30">
         <f t="shared" si="3"/>
-        <v>-30.670999999999999</v>
+        <v>-30.51</v>
       </c>
       <c r="F109" s="4"/>
     </row>
@@ -28894,7 +28894,7 @@
       </c>
       <c r="E110" s="30">
         <f t="shared" si="3"/>
-        <v>-30.527999999999999</v>
+        <v>-30.242000000000001</v>
       </c>
       <c r="F110" s="4"/>
     </row>
@@ -28914,7 +28914,7 @@
       </c>
       <c r="E111" s="30">
         <f t="shared" si="3"/>
-        <v>-30.385000000000002</v>
+        <v>-30.001999999999999</v>
       </c>
       <c r="F111" s="4"/>
     </row>
@@ -28934,7 +28934,7 @@
       </c>
       <c r="E112" s="30">
         <f t="shared" si="3"/>
-        <v>-30.16</v>
+        <v>-29.69</v>
       </c>
       <c r="F112" s="4"/>
     </row>
@@ -28954,7 +28954,7 @@
       </c>
       <c r="E113" s="30">
         <f t="shared" si="3"/>
-        <v>-29.956</v>
+        <v>-29.574000000000002</v>
       </c>
       <c r="F113" s="4"/>
     </row>
@@ -28974,7 +28974,7 @@
       </c>
       <c r="E114" s="30">
         <f t="shared" si="3"/>
-        <v>-29.777999999999999</v>
+        <v>-29.49</v>
       </c>
       <c r="F114" s="4"/>
     </row>
@@ -28994,7 +28994,7 @@
       </c>
       <c r="E115" s="30">
         <f t="shared" si="3"/>
-        <v>-30.414999999999999</v>
+        <v>-30.795999999999999</v>
       </c>
       <c r="F115" s="4"/>
     </row>
@@ -29014,7 +29014,7 @@
       </c>
       <c r="E116" s="30">
         <f t="shared" si="3"/>
-        <v>-30.866</v>
+        <v>-31.576000000000001</v>
       </c>
       <c r="F116" s="4"/>
     </row>
@@ -29034,7 +29034,7 @@
       </c>
       <c r="E117" s="30">
         <f t="shared" si="3"/>
-        <v>-31.222999999999999</v>
+        <v>-32.21</v>
       </c>
       <c r="F117" s="4"/>
     </row>
@@ -29054,7 +29054,7 @@
       </c>
       <c r="E118" s="30">
         <f t="shared" si="3"/>
-        <v>-31.628</v>
+        <v>-32.915999999999997</v>
       </c>
       <c r="F118" s="4"/>
     </row>
@@ -29074,7 +29074,7 @@
       </c>
       <c r="E119" s="30">
         <f t="shared" si="3"/>
-        <v>-32.020000000000003</v>
+        <v>-33.590000000000003</v>
       </c>
       <c r="F119" s="4"/>
     </row>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="E120" s="30">
         <f t="shared" si="3"/>
-        <v>-32.401000000000003</v>
+        <v>-32.868000000000002</v>
       </c>
       <c r="F120" s="4"/>
     </row>
@@ -29114,7 +29114,7 @@
       </c>
       <c r="E121" s="30">
         <f t="shared" si="3"/>
-        <v>-33.200000000000003</v>
+        <v>-33.308</v>
       </c>
       <c r="F121" s="4"/>
     </row>
@@ -29134,7 +29134,7 @@
       </c>
       <c r="E122" s="30">
         <f t="shared" si="3"/>
-        <v>-34.340000000000003</v>
+        <v>-34.478000000000002</v>
       </c>
       <c r="F122" s="4"/>
     </row>
@@ -29154,7 +29154,7 @@
       </c>
       <c r="E123" s="30">
         <f t="shared" si="3"/>
-        <v>-34.619999999999997</v>
+        <v>-35.584000000000003</v>
       </c>
       <c r="F123" s="4"/>
     </row>
@@ -29174,7 +29174,7 @@
       </c>
       <c r="E124" s="30">
         <f t="shared" si="3"/>
-        <v>-35.188000000000002</v>
+        <v>-36.643999999999998</v>
       </c>
       <c r="F124" s="4"/>
     </row>
@@ -29194,7 +29194,7 @@
       </c>
       <c r="E125" s="30">
         <f t="shared" si="3"/>
-        <v>-35.872999999999998</v>
+        <v>-37.764000000000003</v>
       </c>
       <c r="F125" s="4"/>
     </row>
@@ -29214,7 +29214,7 @@
       </c>
       <c r="E126" s="30">
         <f t="shared" si="3"/>
-        <v>-36.451000000000001</v>
+        <v>-38.118000000000002</v>
       </c>
       <c r="F126" s="4"/>
     </row>
@@ -29234,7 +29234,7 @@
       </c>
       <c r="E127" s="30">
         <f t="shared" si="3"/>
-        <v>-37.070999999999998</v>
+        <v>-37.96</v>
       </c>
       <c r="F127" s="4"/>
     </row>
@@ -29254,7 +29254,7 @@
       </c>
       <c r="E128" s="30">
         <f t="shared" si="3"/>
-        <v>-37.551000000000002</v>
+        <v>-37.558</v>
       </c>
       <c r="F128" s="4"/>
     </row>
@@ -29274,7 +29274,7 @@
       </c>
       <c r="E129" s="30">
         <f t="shared" si="3"/>
-        <v>-37.481000000000002</v>
+        <v>-36.978000000000002</v>
       </c>
       <c r="F129" s="4"/>
     </row>
@@ -29294,7 +29294,7 @@
       </c>
       <c r="E130" s="30">
         <f t="shared" si="3"/>
-        <v>-37.054000000000002</v>
+        <v>-36.368000000000002</v>
       </c>
       <c r="F130" s="7"/>
     </row>
@@ -29314,7 +29314,7 @@
       </c>
       <c r="E131" s="30">
         <f t="shared" si="3"/>
-        <v>-36.637999999999998</v>
+        <v>-35.881999999999998</v>
       </c>
       <c r="F131" s="4"/>
     </row>
@@ -29334,7 +29334,7 @@
       </c>
       <c r="E132" s="30">
         <f t="shared" si="3"/>
-        <v>-36.268999999999998</v>
+        <v>-35.36</v>
       </c>
       <c r="F132" s="4"/>
     </row>
@@ -29354,7 +29354,7 @@
       </c>
       <c r="E133" s="30">
         <f t="shared" si="3"/>
-        <v>-35.872999999999998</v>
+        <v>-35.078000000000003</v>
       </c>
       <c r="F133" s="4"/>
     </row>
@@ -29374,7 +29374,7 @@
       </c>
       <c r="E134" s="30">
         <f t="shared" si="3"/>
-        <v>-35.534999999999997</v>
+        <v>-35.003999999999998</v>
       </c>
       <c r="F134" s="4"/>
     </row>
@@ -29394,7 +29394,7 @@
       </c>
       <c r="E135" s="30">
         <f t="shared" si="3"/>
-        <v>-35.134</v>
+        <v>-34.887999999999998</v>
       </c>
       <c r="F135" s="4"/>
     </row>
@@ -29414,7 +29414,7 @@
       </c>
       <c r="E136" s="30">
         <f t="shared" si="3"/>
-        <v>-34.899000000000001</v>
+        <v>-34.776000000000003</v>
       </c>
       <c r="F136" s="4"/>
     </row>
@@ -29433,8 +29433,8 @@
         <v>-38.64</v>
       </c>
       <c r="E137" s="30">
-        <f t="shared" ref="E137:E200" si="5" xml:space="preserve"> ROUND(AVERAGE(D130:D137),3)</f>
-        <v>-35.334000000000003</v>
+        <f t="shared" ref="E137:E200" si="5" xml:space="preserve"> ROUND(AVERAGE(D133:D137),3)</f>
+        <v>-35.481999999999999</v>
       </c>
       <c r="F137" s="4"/>
     </row>
@@ -29454,7 +29454,7 @@
       </c>
       <c r="E138" s="30">
         <f t="shared" si="5"/>
-        <v>-35.808999999999997</v>
+        <v>-36.265999999999998</v>
       </c>
       <c r="F138" s="4"/>
     </row>
@@ -29474,7 +29474,7 @@
       </c>
       <c r="E139" s="30">
         <f t="shared" si="5"/>
-        <v>-36.243000000000002</v>
+        <v>-37.014000000000003</v>
       </c>
       <c r="F139" s="4"/>
     </row>
@@ -29494,7 +29494,7 @@
       </c>
       <c r="E140" s="30">
         <f t="shared" si="5"/>
-        <v>-36.6</v>
+        <v>-37.706000000000003</v>
       </c>
       <c r="F140" s="4"/>
     </row>
@@ -29514,7 +29514,7 @@
       </c>
       <c r="E141" s="30">
         <f t="shared" si="5"/>
-        <v>-36.924999999999997</v>
+        <v>-38.32</v>
       </c>
       <c r="F141" s="4"/>
     </row>
@@ -29534,7 +29534,7 @@
       </c>
       <c r="E142" s="30">
         <f t="shared" si="5"/>
-        <v>-37.247999999999998</v>
+        <v>-38.066000000000003</v>
       </c>
       <c r="F142" s="4"/>
     </row>
@@ -29554,7 +29554,7 @@
       </c>
       <c r="E143" s="30">
         <f t="shared" si="5"/>
-        <v>-37.448</v>
+        <v>-37.51</v>
       </c>
       <c r="F143" s="4"/>
     </row>
@@ -29574,7 +29574,7 @@
       </c>
       <c r="E144" s="30">
         <f t="shared" si="5"/>
-        <v>-37.825000000000003</v>
+        <v>-37.308</v>
       </c>
       <c r="F144" s="4"/>
     </row>
@@ -29594,7 +29594,7 @@
       </c>
       <c r="E145" s="30">
         <f t="shared" si="5"/>
-        <v>-37.722999999999999</v>
+        <v>-37.277999999999999</v>
       </c>
       <c r="F145" s="4"/>
     </row>
@@ -29614,7 +29614,7 @@
       </c>
       <c r="E146" s="30">
         <f t="shared" si="5"/>
-        <v>-37.673000000000002</v>
+        <v>-37.462000000000003</v>
       </c>
       <c r="F146" s="4"/>
     </row>
@@ -29634,7 +29634,7 @@
       </c>
       <c r="E147" s="30">
         <f t="shared" si="5"/>
-        <v>-37.780999999999999</v>
+        <v>-37.868000000000002</v>
       </c>
       <c r="F147" s="4"/>
     </row>
@@ -29654,7 +29654,7 @@
       </c>
       <c r="E148" s="30">
         <f t="shared" si="5"/>
-        <v>-37.567999999999998</v>
+        <v>-37.898000000000003</v>
       </c>
       <c r="F148" s="4"/>
     </row>
@@ -29674,7 +29674,7 @@
       </c>
       <c r="E149" s="30">
         <f t="shared" si="5"/>
-        <v>-37.314999999999998</v>
+        <v>-37.503999999999998</v>
       </c>
       <c r="F149" s="4"/>
     </row>
@@ -29694,7 +29694,7 @@
       </c>
       <c r="E150" s="30">
         <f t="shared" si="5"/>
-        <v>-36.993000000000002</v>
+        <v>-36.898000000000003</v>
       </c>
       <c r="F150" s="4"/>
     </row>
@@ -29714,7 +29714,7 @@
       </c>
       <c r="E151" s="30">
         <f t="shared" si="5"/>
-        <v>-36.832999999999998</v>
+        <v>-36.165999999999997</v>
       </c>
       <c r="F151" s="4"/>
     </row>
@@ -29734,7 +29734,7 @@
       </c>
       <c r="E152" s="30">
         <f t="shared" si="5"/>
-        <v>-36.186</v>
+        <v>-34.756</v>
       </c>
       <c r="F152" s="4"/>
     </row>
@@ -29754,7 +29754,7 @@
       </c>
       <c r="E153" s="30">
         <f t="shared" si="5"/>
-        <v>-35.494</v>
+        <v>-33.96</v>
       </c>
       <c r="F153" s="4"/>
     </row>
@@ -29774,7 +29774,7 @@
       </c>
       <c r="E154" s="30">
         <f t="shared" si="5"/>
-        <v>-34.683999999999997</v>
+        <v>-33.252000000000002</v>
       </c>
       <c r="F154" s="4"/>
     </row>
@@ -29794,7 +29794,7 @@
       </c>
       <c r="E155" s="30">
         <f t="shared" si="5"/>
-        <v>-33.74</v>
+        <v>-32.664000000000001</v>
       </c>
       <c r="F155" s="4"/>
     </row>
@@ -29814,7 +29814,7 @@
       </c>
       <c r="E156" s="30">
         <f t="shared" si="5"/>
-        <v>-33.183</v>
+        <v>-32.058</v>
       </c>
       <c r="F156" s="4"/>
     </row>
@@ -29834,7 +29834,7 @@
       </c>
       <c r="E157" s="30">
         <f t="shared" si="5"/>
-        <v>-32.703000000000003</v>
+        <v>-31.93</v>
       </c>
       <c r="F157" s="4"/>
     </row>
@@ -29854,7 +29854,7 @@
       </c>
       <c r="E158" s="30">
         <f t="shared" si="5"/>
-        <v>-32.652999999999999</v>
+        <v>-32.351999999999997</v>
       </c>
       <c r="F158" s="4"/>
     </row>
@@ -29874,7 +29874,7 @@
       </c>
       <c r="E159" s="30">
         <f t="shared" si="5"/>
-        <v>-32.537999999999997</v>
+        <v>-32.731999999999999</v>
       </c>
       <c r="F159" s="4"/>
     </row>
@@ -29894,7 +29894,7 @@
       </c>
       <c r="E160" s="30">
         <f t="shared" si="5"/>
-        <v>-32.729999999999997</v>
+        <v>-33.14</v>
       </c>
       <c r="F160" s="4"/>
     </row>
@@ -29914,7 +29914,7 @@
       </c>
       <c r="E161" s="30">
         <f t="shared" si="5"/>
-        <v>-32.954999999999998</v>
+        <v>-33.595999999999997</v>
       </c>
       <c r="F161" s="4"/>
     </row>
@@ -29934,7 +29934,7 @@
       </c>
       <c r="E162" s="30">
         <f t="shared" si="5"/>
-        <v>-33.319000000000003</v>
+        <v>-34.238</v>
       </c>
       <c r="F162" s="4"/>
     </row>
@@ -29954,7 +29954,7 @@
       </c>
       <c r="E163" s="30">
         <f t="shared" si="5"/>
-        <v>-33.734000000000002</v>
+        <v>-34.393999999999998</v>
       </c>
       <c r="F163" s="4"/>
     </row>
@@ -29974,7 +29974,7 @@
       </c>
       <c r="E164" s="30">
         <f t="shared" si="5"/>
-        <v>-34.1</v>
+        <v>-34.558</v>
       </c>
       <c r="F164" s="4"/>
     </row>
@@ -29994,7 +29994,7 @@
       </c>
       <c r="E165" s="30">
         <f t="shared" si="5"/>
-        <v>-34.384</v>
+        <v>-34.576000000000001</v>
       </c>
       <c r="F165" s="4"/>
     </row>
@@ -30014,7 +30014,7 @@
       </c>
       <c r="E166" s="30">
         <f t="shared" si="5"/>
-        <v>-34.133000000000003</v>
+        <v>-34.235999999999997</v>
       </c>
       <c r="F166" s="4"/>
     </row>
@@ -30034,7 +30034,7 @@
       </c>
       <c r="E167" s="30">
         <f t="shared" si="5"/>
-        <v>-33.360999999999997</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="F167" s="4"/>
     </row>
@@ -30054,7 +30054,7 @@
       </c>
       <c r="E168" s="30">
         <f t="shared" si="5"/>
-        <v>-32.386000000000003</v>
+        <v>-30.984000000000002</v>
       </c>
       <c r="F168" s="4"/>
     </row>
@@ -30074,7 +30074,7 @@
       </c>
       <c r="E169" s="30">
         <f t="shared" si="5"/>
-        <v>-31.238</v>
+        <v>-29.015999999999998</v>
       </c>
       <c r="F169" s="4"/>
     </row>
@@ -30094,7 +30094,7 @@
       </c>
       <c r="E170" s="30">
         <f t="shared" si="5"/>
-        <v>-29.544</v>
+        <v>-26.494</v>
       </c>
       <c r="F170" s="4"/>
     </row>
@@ -30114,7 +30114,7 @@
       </c>
       <c r="E171" s="30">
         <f t="shared" si="5"/>
-        <v>-27.69</v>
+        <v>-24.085999999999999</v>
       </c>
       <c r="F171" s="4"/>
     </row>
@@ -30134,7 +30134,7 @@
       </c>
       <c r="E172" s="30">
         <f t="shared" si="5"/>
-        <v>-25.788</v>
+        <v>-22.44</v>
       </c>
       <c r="F172" s="4"/>
     </row>
@@ -30154,7 +30154,7 @@
       </c>
       <c r="E173" s="30">
         <f t="shared" si="5"/>
-        <v>-23.811</v>
+        <v>-20.856000000000002</v>
       </c>
       <c r="F173" s="4"/>
     </row>
@@ -30174,7 +30174,7 @@
       </c>
       <c r="E174" s="30">
         <f t="shared" si="5"/>
-        <v>-22.013999999999999</v>
+        <v>-19.478000000000002</v>
       </c>
       <c r="F174" s="4"/>
     </row>
@@ -30194,7 +30194,7 @@
       </c>
       <c r="E175" s="30">
         <f t="shared" si="5"/>
-        <v>-20.754000000000001</v>
+        <v>-18.736000000000001</v>
       </c>
       <c r="F175" s="4"/>
     </row>
@@ -30214,7 +30214,7 @@
       </c>
       <c r="E176" s="30">
         <f t="shared" si="5"/>
-        <v>-19.706</v>
+        <v>-18.21</v>
       </c>
       <c r="F176" s="4"/>
     </row>
@@ -30234,7 +30234,7 @@
       </c>
       <c r="E177" s="30">
         <f t="shared" si="5"/>
-        <v>-18.800999999999998</v>
+        <v>-17.838000000000001</v>
       </c>
       <c r="F177" s="4"/>
     </row>
@@ -30254,7 +30254,7 @@
       </c>
       <c r="E178" s="30">
         <f t="shared" si="5"/>
-        <v>-18.297999999999998</v>
+        <v>-17.672000000000001</v>
       </c>
       <c r="F178" s="4"/>
     </row>
@@ -30274,7 +30274,7 @@
       </c>
       <c r="E179" s="30">
         <f t="shared" si="5"/>
-        <v>-17.998999999999999</v>
+        <v>-17.661999999999999</v>
       </c>
       <c r="F179" s="4"/>
     </row>
@@ -30294,7 +30294,7 @@
       </c>
       <c r="E180" s="30">
         <f t="shared" si="5"/>
-        <v>-17.77</v>
+        <v>-17.666</v>
       </c>
       <c r="F180" s="4"/>
     </row>
@@ -30314,7 +30314,7 @@
       </c>
       <c r="E181" s="30">
         <f t="shared" si="5"/>
-        <v>-18.233000000000001</v>
+        <v>-18.498000000000001</v>
       </c>
       <c r="F181" s="4"/>
     </row>
@@ -30334,7 +30334,7 @@
       </c>
       <c r="E182" s="30">
         <f t="shared" si="5"/>
-        <v>-18.763000000000002</v>
+        <v>-19.416</v>
       </c>
       <c r="F182" s="4"/>
     </row>
@@ -30354,7 +30354,7 @@
       </c>
       <c r="E183" s="30">
         <f t="shared" si="5"/>
-        <v>-19.138000000000002</v>
+        <v>-20.079999999999998</v>
       </c>
       <c r="F183" s="4"/>
     </row>
@@ -30374,7 +30374,7 @@
       </c>
       <c r="E184" s="30">
         <f t="shared" si="5"/>
-        <v>-19.448</v>
+        <v>-20.527999999999999</v>
       </c>
       <c r="F184" s="4"/>
     </row>
@@ -30394,7 +30394,7 @@
       </c>
       <c r="E185" s="30">
         <f t="shared" si="5"/>
-        <v>-19.765000000000001</v>
+        <v>-21.03</v>
       </c>
       <c r="F185" s="4"/>
     </row>
@@ -30414,7 +30414,7 @@
       </c>
       <c r="E186" s="30">
         <f t="shared" si="5"/>
-        <v>-20.13</v>
+        <v>-20.707999999999998</v>
       </c>
       <c r="F186" s="4"/>
     </row>
@@ -30434,7 +30434,7 @@
       </c>
       <c r="E187" s="30">
         <f t="shared" si="5"/>
-        <v>-20.535</v>
+        <v>-20.498000000000001</v>
       </c>
       <c r="F187" s="4"/>
     </row>
@@ -30454,7 +30454,7 @@
       </c>
       <c r="E188" s="30">
         <f t="shared" si="5"/>
-        <v>-20.959</v>
+        <v>-20.58</v>
       </c>
       <c r="F188" s="4"/>
     </row>
@@ -30474,7 +30474,7 @@
       </c>
       <c r="E189" s="30">
         <f t="shared" si="5"/>
-        <v>-20.875</v>
+        <v>-20.782</v>
       </c>
       <c r="F189" s="4"/>
     </row>
@@ -30494,7 +30494,7 @@
       </c>
       <c r="E190" s="30">
         <f t="shared" si="5"/>
-        <v>-20.75</v>
+        <v>-20.992000000000001</v>
       </c>
       <c r="F190" s="4"/>
     </row>
@@ -30514,7 +30514,7 @@
       </c>
       <c r="E191" s="30">
         <f t="shared" si="5"/>
-        <v>-20.812999999999999</v>
+        <v>-21.172000000000001</v>
       </c>
       <c r="F191" s="4"/>
     </row>
@@ -30534,7 +30534,7 @@
       </c>
       <c r="E192" s="30">
         <f t="shared" si="5"/>
-        <v>-21.06</v>
+        <v>-21.367999999999999</v>
       </c>
       <c r="F192" s="7"/>
     </row>
@@ -30554,7 +30554,7 @@
       </c>
       <c r="E193" s="30">
         <f t="shared" si="5"/>
-        <v>-21.286000000000001</v>
+        <v>-21.553999999999998</v>
       </c>
       <c r="F193" s="4"/>
     </row>
@@ -30574,7 +30574,7 @@
       </c>
       <c r="E194" s="30">
         <f t="shared" si="5"/>
-        <v>-21.495000000000001</v>
+        <v>-21.7</v>
       </c>
       <c r="F194" s="4"/>
     </row>
@@ -30594,7 +30594,7 @@
       </c>
       <c r="E195" s="30">
         <f t="shared" si="5"/>
-        <v>-21.594000000000001</v>
+        <v>-21.847999999999999</v>
       </c>
       <c r="F195" s="4"/>
     </row>
@@ -30614,7 +30614,7 @@
       </c>
       <c r="E196" s="30">
         <f t="shared" si="5"/>
-        <v>-21.701000000000001</v>
+        <v>-22.001999999999999</v>
       </c>
       <c r="F196" s="4"/>
     </row>
@@ -30634,7 +30634,7 @@
       </c>
       <c r="E197" s="30">
         <f t="shared" si="5"/>
-        <v>-21.791</v>
+        <v>-21.952000000000002</v>
       </c>
       <c r="F197" s="4"/>
     </row>
@@ -30654,7 +30654,7 @@
       </c>
       <c r="E198" s="30">
         <f t="shared" si="5"/>
-        <v>-21.885999999999999</v>
+        <v>-21.952000000000002</v>
       </c>
       <c r="F198" s="4"/>
     </row>
@@ -30674,7 +30674,7 @@
       </c>
       <c r="E199" s="30">
         <f t="shared" si="5"/>
-        <v>-21.969000000000001</v>
+        <v>-21.93</v>
       </c>
       <c r="F199" s="4"/>
     </row>
@@ -30694,7 +30694,7 @@
       </c>
       <c r="E200" s="30">
         <f t="shared" si="5"/>
-        <v>-21.919</v>
+        <v>-21.888000000000002</v>
       </c>
       <c r="F200" s="4"/>
     </row>
@@ -30713,8 +30713,8 @@
         <v>-21.930000000000007</v>
       </c>
       <c r="E201" s="30">
-        <f t="shared" ref="E201:E264" si="7" xml:space="preserve"> ROUND(AVERAGE(D194:D201),3)</f>
-        <v>-21.91</v>
+        <f t="shared" ref="E201:E264" si="7" xml:space="preserve"> ROUND(AVERAGE(D197:D201),3)</f>
+        <v>-21.888000000000002</v>
       </c>
       <c r="F201" s="4"/>
     </row>
@@ -30734,7 +30734,7 @@
       </c>
       <c r="E202" s="30">
         <f t="shared" si="7"/>
-        <v>-21.878</v>
+        <v>-21.838000000000001</v>
       </c>
       <c r="F202" s="4"/>
     </row>
@@ -30754,7 +30754,7 @@
       </c>
       <c r="E203" s="30">
         <f t="shared" si="7"/>
-        <v>-22.035</v>
+        <v>-22.085999999999999</v>
       </c>
       <c r="F203" s="4"/>
     </row>
@@ -30774,7 +30774,7 @@
       </c>
       <c r="E204" s="30">
         <f t="shared" si="7"/>
-        <v>-22.187999999999999</v>
+        <v>-22.352</v>
       </c>
       <c r="F204" s="4"/>
     </row>
@@ -30794,7 +30794,7 @@
       </c>
       <c r="E205" s="30">
         <f t="shared" si="7"/>
-        <v>-22.35</v>
+        <v>-22.641999999999999</v>
       </c>
       <c r="F205" s="4"/>
     </row>
@@ -30814,7 +30814,7 @@
       </c>
       <c r="E206" s="30">
         <f t="shared" si="7"/>
-        <v>-22.484000000000002</v>
+        <v>-22.87</v>
       </c>
       <c r="F206" s="4"/>
     </row>
@@ -30834,7 +30834,7 @@
       </c>
       <c r="E207" s="30">
         <f t="shared" si="7"/>
-        <v>-22.619</v>
+        <v>-23.116</v>
       </c>
       <c r="F207" s="4"/>
     </row>
@@ -30854,7 +30854,7 @@
       </c>
       <c r="E208" s="30">
         <f t="shared" si="7"/>
-        <v>-22.789000000000001</v>
+        <v>-23.094000000000001</v>
       </c>
       <c r="F208" s="4"/>
     </row>
@@ -30874,7 +30874,7 @@
       </c>
       <c r="E209" s="30">
         <f t="shared" si="7"/>
-        <v>-22.890999999999998</v>
+        <v>-23.013999999999999</v>
       </c>
       <c r="F209" s="4"/>
     </row>
@@ -30894,7 +30894,7 @@
       </c>
       <c r="E210" s="30">
         <f t="shared" si="7"/>
-        <v>-23.007999999999999</v>
+        <v>-22.89</v>
       </c>
       <c r="F210" s="4"/>
     </row>
@@ -30914,7 +30914,7 @@
       </c>
       <c r="E211" s="30">
         <f t="shared" si="7"/>
-        <v>-22.783999999999999</v>
+        <v>-22.565999999999999</v>
       </c>
       <c r="F211" s="4"/>
     </row>
@@ -30934,7 +30934,7 @@
       </c>
       <c r="E212" s="30">
         <f t="shared" si="7"/>
-        <v>-22.582999999999998</v>
+        <v>-22.294</v>
       </c>
       <c r="F212" s="4"/>
     </row>
@@ -30954,7 +30954,7 @@
       </c>
       <c r="E213" s="30">
         <f t="shared" si="7"/>
-        <v>-22.324000000000002</v>
+        <v>-21.898</v>
       </c>
       <c r="F213" s="4"/>
     </row>
@@ -30974,7 +30974,7 @@
       </c>
       <c r="E214" s="30">
         <f t="shared" si="7"/>
-        <v>-22.041</v>
+        <v>-21.51</v>
       </c>
       <c r="F214" s="4"/>
     </row>
@@ -30994,7 +30994,7 @@
       </c>
       <c r="E215" s="30">
         <f t="shared" si="7"/>
-        <v>-21.846</v>
+        <v>-21.257999999999999</v>
       </c>
       <c r="F215" s="4"/>
     </row>
@@ -31014,7 +31014,7 @@
       </c>
       <c r="E216" s="30">
         <f t="shared" si="7"/>
-        <v>-21.646000000000001</v>
+        <v>-21.274000000000001</v>
       </c>
       <c r="F216" s="4"/>
     </row>
@@ -31034,7 +31034,7 @@
       </c>
       <c r="E217" s="30">
         <f t="shared" si="7"/>
-        <v>-21.353999999999999</v>
+        <v>-21.047999999999998</v>
       </c>
       <c r="F217" s="4"/>
     </row>
@@ -31054,7 +31054,7 @@
       </c>
       <c r="E218" s="30">
         <f t="shared" si="7"/>
-        <v>-21.082999999999998</v>
+        <v>-20.904</v>
       </c>
       <c r="F218" s="4"/>
     </row>
@@ -31074,7 +31074,7 @@
       </c>
       <c r="E219" s="30">
         <f t="shared" si="7"/>
-        <v>-20.899000000000001</v>
+        <v>-20.738</v>
       </c>
       <c r="F219" s="4"/>
     </row>
@@ -31094,7 +31094,7 @@
       </c>
       <c r="E220" s="30">
         <f t="shared" si="7"/>
-        <v>-20.710999999999999</v>
+        <v>-20.478000000000002</v>
       </c>
       <c r="F220" s="4"/>
     </row>
@@ -31114,7 +31114,7 @@
       </c>
       <c r="E221" s="30">
         <f t="shared" si="7"/>
-        <v>-20.556000000000001</v>
+        <v>-20.154</v>
       </c>
       <c r="F221" s="4"/>
     </row>
@@ -31134,7 +31134,7 @@
       </c>
       <c r="E222" s="30">
         <f t="shared" si="7"/>
-        <v>-20.451000000000001</v>
+        <v>-20.065999999999999</v>
       </c>
       <c r="F222" s="4"/>
     </row>
@@ -31154,7 +31154,7 @@
       </c>
       <c r="E223" s="30">
         <f t="shared" si="7"/>
-        <v>-20.280999999999999</v>
+        <v>-19.975999999999999</v>
       </c>
       <c r="F223" s="4"/>
     </row>
@@ -31174,7 +31174,7 @@
       </c>
       <c r="E224" s="30">
         <f t="shared" si="7"/>
-        <v>-20.39</v>
+        <v>-20.46</v>
       </c>
       <c r="F224" s="4"/>
     </row>
@@ -31194,7 +31194,7 @@
       </c>
       <c r="E225" s="30">
         <f t="shared" si="7"/>
-        <v>-20.625</v>
+        <v>-20.91</v>
       </c>
       <c r="F225" s="4"/>
     </row>
@@ -31214,7 +31214,7 @@
       </c>
       <c r="E226" s="30">
         <f t="shared" si="7"/>
-        <v>-20.873000000000001</v>
+        <v>-21.41</v>
       </c>
       <c r="F226" s="4"/>
     </row>
@@ -31234,7 +31234,7 @@
       </c>
       <c r="E227" s="30">
         <f t="shared" si="7"/>
-        <v>-21.045999999999999</v>
+        <v>-21.69</v>
       </c>
       <c r="F227" s="4"/>
     </row>
@@ -31254,7 +31254,7 @@
       </c>
       <c r="E228" s="30">
         <f t="shared" si="7"/>
-        <v>-21.265999999999998</v>
+        <v>-22.053999999999998</v>
       </c>
       <c r="F228" s="4"/>
     </row>
@@ -31274,7 +31274,7 @@
       </c>
       <c r="E229" s="30">
         <f t="shared" si="7"/>
-        <v>-21.468</v>
+        <v>-21.878</v>
       </c>
       <c r="F229" s="4"/>
     </row>
@@ -31294,7 +31294,7 @@
       </c>
       <c r="E230" s="30">
         <f t="shared" si="7"/>
-        <v>-21.626000000000001</v>
+        <v>-21.667999999999999</v>
       </c>
       <c r="F230" s="4"/>
     </row>
@@ -31314,7 +31314,7 @@
       </c>
       <c r="E231" s="30">
         <f t="shared" si="7"/>
-        <v>-21.779</v>
+        <v>-21.425999999999998</v>
       </c>
       <c r="F231" s="4"/>
     </row>
@@ -31334,7 +31334,7 @@
       </c>
       <c r="E232" s="30">
         <f t="shared" si="7"/>
-        <v>-21.597999999999999</v>
+        <v>-21.341999999999999</v>
       </c>
       <c r="F232" s="4"/>
     </row>
@@ -31354,7 +31354,7 @@
       </c>
       <c r="E233" s="30">
         <f t="shared" si="7"/>
-        <v>-21.443999999999999</v>
+        <v>-21.193999999999999</v>
       </c>
       <c r="F233" s="4"/>
     </row>
@@ -31374,7 +31374,7 @@
       </c>
       <c r="E234" s="30">
         <f t="shared" si="7"/>
-        <v>-21.184999999999999</v>
+        <v>-20.957999999999998</v>
       </c>
       <c r="F234" s="4"/>
     </row>
@@ -31394,7 +31394,7 @@
       </c>
       <c r="E235" s="30">
         <f t="shared" si="7"/>
-        <v>-21.2</v>
+        <v>-21.007999999999999</v>
       </c>
       <c r="F235" s="7"/>
     </row>
@@ -31414,7 +31414,7 @@
       </c>
       <c r="E236" s="30">
         <f t="shared" si="7"/>
-        <v>-21.166</v>
+        <v>-21.074000000000002</v>
       </c>
       <c r="F236" s="4"/>
     </row>
@@ -31434,7 +31434,7 @@
       </c>
       <c r="E237" s="30">
         <f t="shared" si="7"/>
-        <v>-21.161000000000001</v>
+        <v>-21.18</v>
       </c>
       <c r="F237" s="4"/>
     </row>
@@ -31454,7 +31454,7 @@
       </c>
       <c r="E238" s="30">
         <f t="shared" si="7"/>
-        <v>-21.018999999999998</v>
+        <v>-20.988</v>
       </c>
       <c r="F238" s="4"/>
     </row>
@@ -31474,7 +31474,7 @@
       </c>
       <c r="E239" s="30">
         <f t="shared" si="7"/>
-        <v>-20.92</v>
+        <v>-21.001999999999999</v>
       </c>
       <c r="F239" s="4"/>
     </row>
@@ -31494,7 +31494,7 @@
       </c>
       <c r="E240" s="30">
         <f t="shared" si="7"/>
-        <v>-21.006</v>
+        <v>-21.032</v>
       </c>
       <c r="F240" s="4"/>
     </row>
@@ -31514,7 +31514,7 @@
       </c>
       <c r="E241" s="30">
         <f t="shared" si="7"/>
-        <v>-21.096</v>
+        <v>-21.082000000000001</v>
       </c>
       <c r="F241" s="4"/>
     </row>
@@ -31534,7 +31534,7 @@
       </c>
       <c r="E242" s="30">
         <f t="shared" si="7"/>
-        <v>-21.399000000000001</v>
+        <v>-21.338000000000001</v>
       </c>
       <c r="F242" s="4"/>
     </row>
@@ -31554,7 +31554,7 @@
       </c>
       <c r="E243" s="30">
         <f t="shared" si="7"/>
-        <v>-21.350999999999999</v>
+        <v>-21.54</v>
       </c>
       <c r="F243" s="4"/>
     </row>
@@ -31574,7 +31574,7 @@
       </c>
       <c r="E244" s="30">
         <f t="shared" si="7"/>
-        <v>-21.300999999999998</v>
+        <v>-21.684000000000001</v>
       </c>
       <c r="F244" s="4"/>
     </row>
@@ -31594,7 +31594,7 @@
       </c>
       <c r="E245" s="30">
         <f t="shared" si="7"/>
-        <v>-21.44</v>
+        <v>-21.873999999999999</v>
       </c>
       <c r="F245" s="4"/>
     </row>
@@ -31614,7 +31614,7 @@
       </c>
       <c r="E246" s="30">
         <f t="shared" si="7"/>
-        <v>-21.346</v>
+        <v>-21.388000000000002</v>
       </c>
       <c r="F246" s="4"/>
     </row>
@@ -31634,7 +31634,7 @@
       </c>
       <c r="E247" s="30">
         <f t="shared" si="7"/>
-        <v>-21.22</v>
+        <v>-20.716000000000001</v>
       </c>
       <c r="F247" s="4"/>
     </row>
@@ -31654,7 +31654,7 @@
       </c>
       <c r="E248" s="30">
         <f t="shared" si="7"/>
-        <v>-20.893000000000001</v>
+        <v>-20.297999999999998</v>
       </c>
       <c r="F248" s="4"/>
     </row>
@@ -31674,7 +31674,7 @@
       </c>
       <c r="E249" s="30">
         <f t="shared" si="7"/>
-        <v>-20.489000000000001</v>
+        <v>-19.782</v>
       </c>
       <c r="F249" s="4"/>
     </row>
@@ -31694,7 +31694,7 @@
       </c>
       <c r="E250" s="30">
         <f t="shared" si="7"/>
-        <v>-20.119</v>
+        <v>-19.224</v>
       </c>
       <c r="F250" s="4"/>
     </row>
@@ -31714,7 +31714,7 @@
       </c>
       <c r="E251" s="30">
         <f t="shared" si="7"/>
-        <v>-20.100000000000001</v>
+        <v>-19.545999999999999</v>
       </c>
       <c r="F251" s="4"/>
     </row>
@@ -31734,7 +31734,7 @@
       </c>
       <c r="E252" s="30">
         <f t="shared" si="7"/>
-        <v>-20.22</v>
+        <v>-20.084</v>
       </c>
       <c r="F252" s="4"/>
     </row>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="E253" s="30">
         <f t="shared" si="7"/>
-        <v>-20.026</v>
+        <v>-20.488</v>
       </c>
       <c r="F253" s="4"/>
     </row>
@@ -31774,7 +31774,7 @@
       </c>
       <c r="E254" s="30">
         <f t="shared" si="7"/>
-        <v>-20.265999999999998</v>
+        <v>-21.032</v>
       </c>
       <c r="F254" s="4"/>
     </row>
@@ -31794,7 +31794,7 @@
       </c>
       <c r="E255" s="30">
         <f t="shared" si="7"/>
-        <v>-20.55</v>
+        <v>-21.405999999999999</v>
       </c>
       <c r="F255" s="4"/>
     </row>
@@ -31814,7 +31814,7 @@
       </c>
       <c r="E256" s="30">
         <f t="shared" si="7"/>
-        <v>-20.885000000000002</v>
+        <v>-21.553999999999998</v>
       </c>
       <c r="F256" s="4"/>
     </row>
@@ -31834,7 +31834,7 @@
       </c>
       <c r="E257" s="30">
         <f t="shared" si="7"/>
-        <v>-21.33</v>
+        <v>-21.558</v>
       </c>
       <c r="F257" s="4"/>
     </row>
@@ -31854,7 +31854,7 @@
       </c>
       <c r="E258" s="30">
         <f t="shared" si="7"/>
-        <v>-21.131</v>
+        <v>-20.992000000000001</v>
       </c>
       <c r="F258" s="4"/>
     </row>
@@ -31874,7 +31874,7 @@
       </c>
       <c r="E259" s="30">
         <f t="shared" si="7"/>
-        <v>-20.76</v>
+        <v>-20.335999999999999</v>
       </c>
       <c r="F259" s="4"/>
     </row>
@@ -31894,7 +31894,7 @@
       </c>
       <c r="E260" s="30">
         <f t="shared" si="7"/>
-        <v>-20.548999999999999</v>
+        <v>-20.082000000000001</v>
       </c>
       <c r="F260" s="4"/>
     </row>
@@ -31914,7 +31914,7 @@
       </c>
       <c r="E261" s="30">
         <f t="shared" si="7"/>
-        <v>-20.515000000000001</v>
+        <v>-19.896000000000001</v>
       </c>
       <c r="F261" s="4"/>
     </row>
@@ -31934,7 +31934,7 @@
       </c>
       <c r="E262" s="30">
         <f t="shared" si="7"/>
-        <v>-20.469000000000001</v>
+        <v>-19.654</v>
       </c>
       <c r="F262" s="4"/>
     </row>
@@ -31954,7 +31954,7 @@
       </c>
       <c r="E263" s="30">
         <f t="shared" si="7"/>
-        <v>-20.082999999999998</v>
+        <v>-19.728000000000002</v>
       </c>
       <c r="F263" s="4"/>
     </row>
@@ -31974,7 +31974,7 @@
       </c>
       <c r="E264" s="30">
         <f t="shared" si="7"/>
-        <v>-19.606000000000002</v>
+        <v>-19.707999999999998</v>
       </c>
       <c r="F264" s="4"/>
     </row>
@@ -31993,8 +31993,8 @@
         <v>-21.310000000000002</v>
       </c>
       <c r="E265" s="30">
-        <f t="shared" ref="E265:E328" si="9" xml:space="preserve"> ROUND(AVERAGE(D258:D265),3)</f>
-        <v>-19.506</v>
+        <f t="shared" ref="E265:E328" si="9" xml:space="preserve"> ROUND(AVERAGE(D261:D265),3)</f>
+        <v>-19.89</v>
       </c>
       <c r="F265" s="4"/>
     </row>
@@ -32014,7 +32014,7 @@
       </c>
       <c r="E266" s="30">
         <f t="shared" si="9"/>
-        <v>-19.904</v>
+        <v>-20.013999999999999</v>
       </c>
       <c r="F266" s="4"/>
     </row>
@@ -32034,7 +32034,7 @@
       </c>
       <c r="E267" s="30">
         <f t="shared" si="9"/>
-        <v>-20.271000000000001</v>
+        <v>-20.02</v>
       </c>
       <c r="F267" s="4"/>
     </row>
@@ -32054,7 +32054,7 @@
       </c>
       <c r="E268" s="30">
         <f t="shared" si="9"/>
-        <v>-20.103000000000002</v>
+        <v>-20.114000000000001</v>
       </c>
       <c r="F268" s="4"/>
     </row>
@@ -32074,7 +32074,7 @@
       </c>
       <c r="E269" s="30">
         <f t="shared" si="9"/>
-        <v>-19.757999999999999</v>
+        <v>-20.138000000000002</v>
       </c>
       <c r="F269" s="4"/>
     </row>
@@ -32094,7 +32094,7 @@
       </c>
       <c r="E270" s="30">
         <f t="shared" si="9"/>
-        <v>-19.579999999999998</v>
+        <v>-19.771999999999998</v>
       </c>
       <c r="F270" s="4"/>
     </row>
@@ -32114,7 +32114,7 @@
       </c>
       <c r="E271" s="30">
         <f t="shared" si="9"/>
-        <v>-19.72</v>
+        <v>-19.434000000000001</v>
       </c>
       <c r="F271" s="4"/>
     </row>
@@ -32134,7 +32134,7 @@
       </c>
       <c r="E272" s="30">
         <f t="shared" si="9"/>
-        <v>-19.952999999999999</v>
+        <v>-19.198</v>
       </c>
       <c r="F272" s="4"/>
     </row>
@@ -32154,7 +32154,7 @@
       </c>
       <c r="E273" s="30">
         <f t="shared" si="9"/>
-        <v>-19.533999999999999</v>
+        <v>-18.98</v>
       </c>
       <c r="F273" s="4"/>
     </row>
@@ -32174,7 +32174,7 @@
       </c>
       <c r="E274" s="30">
         <f t="shared" si="9"/>
-        <v>-19.114999999999998</v>
+        <v>-18.986000000000001</v>
       </c>
       <c r="F274" s="4"/>
     </row>
@@ -32194,7 +32194,7 @@
       </c>
       <c r="E275" s="30">
         <f t="shared" si="9"/>
-        <v>-19.239999999999998</v>
+        <v>-19.475999999999999</v>
       </c>
       <c r="F275" s="4"/>
     </row>
@@ -32214,7 +32214,7 @@
       </c>
       <c r="E276" s="30">
         <f t="shared" si="9"/>
-        <v>-19.613</v>
+        <v>-19.942</v>
       </c>
       <c r="F276" s="4"/>
     </row>
@@ -32234,7 +32234,7 @@
       </c>
       <c r="E277" s="30">
         <f t="shared" si="9"/>
-        <v>-20.093</v>
+        <v>-20.361999999999998</v>
       </c>
       <c r="F277" s="4"/>
     </row>
@@ -32254,7 +32254,7 @@
       </c>
       <c r="E278" s="30">
         <f t="shared" si="9"/>
-        <v>-20.402999999999999</v>
+        <v>-21.161999999999999</v>
       </c>
       <c r="F278" s="7"/>
     </row>
@@ -32274,7 +32274,7 @@
       </c>
       <c r="E279" s="30">
         <f t="shared" si="9"/>
-        <v>-20.673999999999999</v>
+        <v>-21.928000000000001</v>
       </c>
       <c r="F279" s="4"/>
     </row>
@@ -32294,7 +32294,7 @@
       </c>
       <c r="E280" s="30">
         <f t="shared" si="9"/>
-        <v>-20.954000000000001</v>
+        <v>-21.94</v>
       </c>
       <c r="F280" s="4"/>
     </row>
@@ -32314,7 +32314,7 @@
       </c>
       <c r="E281" s="30">
         <f t="shared" si="9"/>
-        <v>-21.475999999999999</v>
+        <v>-21.962</v>
       </c>
       <c r="F281" s="4"/>
     </row>
@@ -32334,7 +32334,7 @@
       </c>
       <c r="E282" s="30">
         <f t="shared" si="9"/>
-        <v>-21.975000000000001</v>
+        <v>-21.998000000000001</v>
       </c>
       <c r="F282" s="4"/>
     </row>
@@ -32354,7 +32354,7 @@
       </c>
       <c r="E283" s="30">
         <f t="shared" si="9"/>
-        <v>-21.582999999999998</v>
+        <v>-21.364000000000001</v>
       </c>
       <c r="F283" s="4"/>
     </row>
@@ -32374,7 +32374,7 @@
       </c>
       <c r="E284" s="30">
         <f t="shared" si="9"/>
-        <v>-21.131</v>
+        <v>-20.673999999999999</v>
       </c>
       <c r="F284" s="4"/>
     </row>
@@ -32394,7 +32394,7 @@
       </c>
       <c r="E285" s="30">
         <f t="shared" si="9"/>
-        <v>-21.77</v>
+        <v>-21.667999999999999</v>
       </c>
       <c r="F285" s="4"/>
     </row>
@@ -32414,7 +32414,7 @@
       </c>
       <c r="E286" s="30">
         <f t="shared" si="9"/>
-        <v>-22.405000000000001</v>
+        <v>-22.648</v>
       </c>
       <c r="F286" s="4"/>
     </row>
@@ -32434,7 +32434,7 @@
       </c>
       <c r="E287" s="30">
         <f t="shared" si="9"/>
-        <v>-23.050999999999998</v>
+        <v>-23.65</v>
       </c>
       <c r="F287" s="4"/>
     </row>
@@ -32454,7 +32454,7 @@
       </c>
       <c r="E288" s="30">
         <f t="shared" si="9"/>
-        <v>-22.715</v>
+        <v>-23.751999999999999</v>
       </c>
       <c r="F288" s="4"/>
     </row>
@@ -32474,7 +32474,7 @@
       </c>
       <c r="E289" s="30">
         <f t="shared" si="9"/>
-        <v>-22.47</v>
+        <v>-24.103999999999999</v>
       </c>
       <c r="F289" s="4"/>
     </row>
@@ -32494,7 +32494,7 @@
       </c>
       <c r="E290" s="30">
         <f t="shared" si="9"/>
-        <v>-22.85</v>
+        <v>-23.725999999999999</v>
       </c>
       <c r="F290" s="4"/>
     </row>
@@ -32514,7 +32514,7 @@
       </c>
       <c r="E291" s="30">
         <f t="shared" si="9"/>
-        <v>-23.643000000000001</v>
+        <v>-23.344000000000001</v>
       </c>
       <c r="F291" s="4"/>
     </row>
@@ -32534,7 +32534,7 @@
       </c>
       <c r="E292" s="30">
         <f t="shared" si="9"/>
-        <v>-24.501000000000001</v>
+        <v>-22.994</v>
       </c>
       <c r="F292" s="4"/>
     </row>
@@ -32554,7 +32554,7 @@
       </c>
       <c r="E293" s="30">
         <f t="shared" si="9"/>
-        <v>-24.305</v>
+        <v>-24.212</v>
       </c>
       <c r="F293" s="4"/>
     </row>
@@ -32574,7 +32574,7 @@
       </c>
       <c r="E294" s="30">
         <f t="shared" si="9"/>
-        <v>-24.073</v>
+        <v>-25.212</v>
       </c>
       <c r="F294" s="4"/>
     </row>
@@ -32594,7 +32594,7 @@
       </c>
       <c r="E295" s="30">
         <f t="shared" si="9"/>
-        <v>-23.849</v>
+        <v>-25.248000000000001</v>
       </c>
       <c r="F295" s="4"/>
     </row>
@@ -32614,7 +32614,7 @@
       </c>
       <c r="E296" s="30">
         <f t="shared" si="9"/>
-        <v>-24.591000000000001</v>
+        <v>-25.27</v>
       </c>
       <c r="F296" s="4"/>
     </row>
@@ -32634,7 +32634,7 @@
       </c>
       <c r="E297" s="30">
         <f t="shared" si="9"/>
-        <v>-25.209</v>
+        <v>-25.236000000000001</v>
       </c>
       <c r="F297" s="4"/>
     </row>
@@ -32654,7 +32654,7 @@
       </c>
       <c r="E298" s="30">
         <f t="shared" si="9"/>
-        <v>-25.22</v>
+        <v>-25.19</v>
       </c>
       <c r="F298" s="4"/>
     </row>
@@ -32674,7 +32674,7 @@
       </c>
       <c r="E299" s="30">
         <f t="shared" si="9"/>
-        <v>-25.21</v>
+        <v>-25.164000000000001</v>
       </c>
       <c r="F299" s="4"/>
     </row>
@@ -32694,7 +32694,7 @@
       </c>
       <c r="E300" s="30">
         <f t="shared" si="9"/>
-        <v>-25.166</v>
+        <v>-25.102</v>
       </c>
       <c r="F300" s="4"/>
     </row>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="E301" s="30">
         <f t="shared" si="9"/>
-        <v>-25.091000000000001</v>
+        <v>-25.012</v>
       </c>
       <c r="F301" s="4"/>
     </row>
@@ -32734,7 +32734,7 @@
       </c>
       <c r="E302" s="30">
         <f t="shared" si="9"/>
-        <v>-25.064</v>
+        <v>-24.98</v>
       </c>
       <c r="F302" s="4"/>
     </row>
@@ -32754,7 +32754,7 @@
       </c>
       <c r="E303" s="30">
         <f t="shared" si="9"/>
-        <v>-25.041</v>
+        <v>-24.962</v>
       </c>
       <c r="F303" s="4"/>
     </row>
@@ -32774,7 +32774,7 @@
       </c>
       <c r="E304" s="30">
         <f t="shared" si="9"/>
-        <v>-25.018999999999998</v>
+        <v>-24.963999999999999</v>
       </c>
       <c r="F304" s="4"/>
     </row>
@@ -32794,7 +32794,7 @@
       </c>
       <c r="E305" s="30">
         <f t="shared" si="9"/>
-        <v>-25.138999999999999</v>
+        <v>-25.192</v>
       </c>
       <c r="F305" s="4"/>
     </row>
@@ -32814,7 +32814,7 @@
       </c>
       <c r="E306" s="30">
         <f t="shared" si="9"/>
-        <v>-25.294</v>
+        <v>-25.513999999999999</v>
       </c>
       <c r="F306" s="4"/>
     </row>
@@ -32834,7 +32834,7 @@
       </c>
       <c r="E307" s="30">
         <f t="shared" si="9"/>
-        <v>-25.420999999999999</v>
+        <v>-25.736000000000001</v>
       </c>
       <c r="F307" s="4"/>
     </row>
@@ -32854,7 +32854,7 @@
       </c>
       <c r="E308" s="30">
         <f t="shared" si="9"/>
-        <v>-25.518000000000001</v>
+        <v>-25.864000000000001</v>
       </c>
       <c r="F308" s="4"/>
     </row>
@@ -32874,7 +32874,7 @@
       </c>
       <c r="E309" s="30">
         <f t="shared" si="9"/>
-        <v>-25.632999999999999</v>
+        <v>-25.994</v>
       </c>
       <c r="F309" s="4"/>
     </row>
@@ -32894,7 +32894,7 @@
       </c>
       <c r="E310" s="30">
         <f t="shared" si="9"/>
-        <v>-25.465</v>
+        <v>-25.501999999999999</v>
       </c>
       <c r="F310" s="7"/>
     </row>
@@ -32914,7 +32914,7 @@
       </c>
       <c r="E311" s="30">
         <f t="shared" si="9"/>
-        <v>-25.28</v>
+        <v>-24.94</v>
       </c>
       <c r="F311" s="4"/>
     </row>
@@ -32934,7 +32934,7 @@
       </c>
       <c r="E312" s="30">
         <f t="shared" si="9"/>
-        <v>-25.064</v>
+        <v>-24.391999999999999</v>
       </c>
       <c r="F312" s="4"/>
     </row>
@@ -32954,7 +32954,7 @@
       </c>
       <c r="E313" s="30">
         <f t="shared" si="9"/>
-        <v>-24.718</v>
+        <v>-23.911999999999999</v>
       </c>
       <c r="F313" s="4"/>
     </row>
@@ -32974,7 +32974,7 @@
       </c>
       <c r="E314" s="30">
         <f t="shared" si="9"/>
-        <v>-24.684000000000001</v>
+        <v>-23.995999999999999</v>
       </c>
       <c r="F314" s="4"/>
     </row>
@@ -32994,7 +32994,7 @@
       </c>
       <c r="E315" s="30">
         <f t="shared" si="9"/>
-        <v>-24.699000000000002</v>
+        <v>-24.51</v>
       </c>
       <c r="F315" s="4"/>
     </row>
@@ -33014,7 +33014,7 @@
       </c>
       <c r="E316" s="30">
         <f t="shared" si="9"/>
-        <v>-24.783999999999999</v>
+        <v>-25.07</v>
       </c>
       <c r="F316" s="4"/>
     </row>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="E317" s="30">
         <f t="shared" si="9"/>
-        <v>-24.87</v>
+        <v>-25.684000000000001</v>
       </c>
       <c r="F317" s="4"/>
     </row>
@@ -33054,7 +33054,7 @@
       </c>
       <c r="E318" s="30">
         <f t="shared" si="9"/>
-        <v>-25.218</v>
+        <v>-26.302</v>
       </c>
       <c r="F318" s="4"/>
     </row>
@@ -33074,7 +33074,7 @@
       </c>
       <c r="E319" s="30">
         <f t="shared" si="9"/>
-        <v>-25.544</v>
+        <v>-26.315999999999999</v>
       </c>
       <c r="F319" s="4"/>
     </row>
@@ -33094,7 +33094,7 @@
       </c>
       <c r="E320" s="30">
         <f t="shared" si="9"/>
-        <v>-25.914999999999999</v>
+        <v>-26.338000000000001</v>
       </c>
       <c r="F320" s="4"/>
     </row>
@@ -33114,7 +33114,7 @@
       </c>
       <c r="E321" s="30">
         <f t="shared" si="9"/>
-        <v>-26.26</v>
+        <v>-26.274000000000001</v>
       </c>
       <c r="F321" s="4"/>
     </row>
@@ -33134,7 +33134,7 @@
       </c>
       <c r="E322" s="30">
         <f t="shared" si="9"/>
-        <v>-26.228000000000002</v>
+        <v>-26.167999999999999</v>
       </c>
       <c r="F322" s="4"/>
     </row>
@@ -33154,7 +33154,7 @@
       </c>
       <c r="E323" s="30">
         <f t="shared" si="9"/>
-        <v>-26.201000000000001</v>
+        <v>-26.084</v>
       </c>
       <c r="F323" s="4"/>
     </row>
@@ -33174,7 +33174,7 @@
       </c>
       <c r="E324" s="30">
         <f t="shared" si="9"/>
-        <v>-26.148</v>
+        <v>-26.036000000000001</v>
       </c>
       <c r="F324" s="4"/>
     </row>
@@ -33194,7 +33194,7 @@
       </c>
       <c r="E325" s="30">
         <f t="shared" si="9"/>
-        <v>-26.106000000000002</v>
+        <v>-25.99</v>
       </c>
       <c r="F325" s="4"/>
     </row>
@@ -33214,7 +33214,7 @@
       </c>
       <c r="E326" s="30">
         <f t="shared" si="9"/>
-        <v>-26.065000000000001</v>
+        <v>-25.99</v>
       </c>
       <c r="F326" s="4"/>
     </row>
@@ -33234,7 +33234,7 @@
       </c>
       <c r="E327" s="30">
         <f t="shared" si="9"/>
-        <v>-26.041</v>
+        <v>-26.018000000000001</v>
       </c>
       <c r="F327" s="4"/>
     </row>
@@ -33254,7 +33254,7 @@
       </c>
       <c r="E328" s="30">
         <f t="shared" si="9"/>
-        <v>-25.959</v>
+        <v>-25.95</v>
       </c>
       <c r="F328" s="4"/>
     </row>
@@ -33273,8 +33273,8 @@
         <v>-25.64</v>
       </c>
       <c r="E329" s="30">
-        <f t="shared" ref="E329:E392" si="11" xml:space="preserve"> ROUND(AVERAGE(D322:D329),3)</f>
-        <v>-25.905000000000001</v>
+        <f t="shared" ref="E329:E392" si="11" xml:space="preserve"> ROUND(AVERAGE(D325:D329),3)</f>
+        <v>-25.885999999999999</v>
       </c>
       <c r="F329" s="4"/>
     </row>
@@ -33294,7 +33294,7 @@
       </c>
       <c r="E330" s="30">
         <f t="shared" si="11"/>
-        <v>-25.858000000000001</v>
+        <v>-25.77</v>
       </c>
       <c r="F330" s="4"/>
     </row>
@@ -33314,7 +33314,7 @@
       </c>
       <c r="E331" s="30">
         <f t="shared" si="11"/>
-        <v>-25.800999999999998</v>
+        <v>-25.661999999999999</v>
       </c>
       <c r="F331" s="4"/>
     </row>
@@ -33334,7 +33334,7 @@
       </c>
       <c r="E332" s="30">
         <f t="shared" si="11"/>
-        <v>-25.776</v>
+        <v>-25.611999999999998</v>
       </c>
       <c r="F332" s="4"/>
     </row>
@@ -33354,7 +33354,7 @@
       </c>
       <c r="E333" s="30">
         <f t="shared" si="11"/>
-        <v>-25.594999999999999</v>
+        <v>-25.408000000000001</v>
       </c>
       <c r="F333" s="4"/>
     </row>
@@ -33374,7 +33374,7 @@
       </c>
       <c r="E334" s="30">
         <f t="shared" si="11"/>
-        <v>-25.43</v>
+        <v>-25.23</v>
       </c>
       <c r="F334" s="4"/>
     </row>
@@ -33394,7 +33394,7 @@
       </c>
       <c r="E335" s="30">
         <f t="shared" si="11"/>
-        <v>-25.390999999999998</v>
+        <v>-25.271999999999998</v>
       </c>
       <c r="F335" s="4"/>
     </row>
@@ -33414,7 +33414,7 @@
       </c>
       <c r="E336" s="30">
         <f t="shared" si="11"/>
-        <v>-25.443000000000001</v>
+        <v>-25.376000000000001</v>
       </c>
       <c r="F336" s="4"/>
     </row>
@@ -33434,7 +33434,7 @@
       </c>
       <c r="E337" s="30">
         <f t="shared" si="11"/>
-        <v>-25.395</v>
+        <v>-25.276</v>
       </c>
       <c r="F337" s="4"/>
     </row>
@@ -33454,7 +33454,7 @@
       </c>
       <c r="E338" s="30">
         <f t="shared" si="11"/>
-        <v>-25.405999999999999</v>
+        <v>-25.468</v>
       </c>
       <c r="F338" s="4"/>
     </row>
@@ -33474,7 +33474,7 @@
       </c>
       <c r="E339" s="30">
         <f t="shared" si="11"/>
-        <v>-25.454999999999998</v>
+        <v>-25.702000000000002</v>
       </c>
       <c r="F339" s="4"/>
     </row>
@@ -33494,7 +33494,7 @@
       </c>
       <c r="E340" s="30">
         <f t="shared" si="11"/>
-        <v>-25.498000000000001</v>
+        <v>-25.782</v>
       </c>
       <c r="F340" s="4"/>
     </row>
@@ -33514,7 +33514,7 @@
       </c>
       <c r="E341" s="30">
         <f t="shared" si="11"/>
-        <v>-25.670999999999999</v>
+        <v>-25.774000000000001</v>
       </c>
       <c r="F341" s="4"/>
     </row>
@@ -33534,7 +33534,7 @@
       </c>
       <c r="E342" s="30">
         <f t="shared" si="11"/>
-        <v>-25.832999999999998</v>
+        <v>-25.93</v>
       </c>
       <c r="F342" s="4"/>
     </row>
@@ -33554,7 +33554,7 @@
       </c>
       <c r="E343" s="30">
         <f t="shared" si="11"/>
-        <v>-25.824000000000002</v>
+        <v>-25.94</v>
       </c>
       <c r="F343" s="4"/>
     </row>
@@ -33574,7 +33574,7 @@
       </c>
       <c r="E344" s="30">
         <f t="shared" si="11"/>
-        <v>-25.779</v>
+        <v>-25.893999999999998</v>
       </c>
       <c r="F344" s="4"/>
     </row>
@@ -33594,7 +33594,7 @@
       </c>
       <c r="E345" s="30">
         <f t="shared" si="11"/>
-        <v>-25.856000000000002</v>
+        <v>-25.85</v>
       </c>
       <c r="F345" s="4"/>
     </row>
@@ -33614,7 +33614,7 @@
       </c>
       <c r="E346" s="30">
         <f t="shared" si="11"/>
-        <v>-25.885999999999999</v>
+        <v>-25.812000000000001</v>
       </c>
       <c r="F346" s="4"/>
     </row>
@@ -33634,7 +33634,7 @@
       </c>
       <c r="E347" s="30">
         <f t="shared" si="11"/>
-        <v>-25.777999999999999</v>
+        <v>-25.614000000000001</v>
       </c>
       <c r="F347" s="4"/>
     </row>
@@ -33654,7 +33654,7 @@
       </c>
       <c r="E348" s="30">
         <f t="shared" si="11"/>
-        <v>-25.606000000000002</v>
+        <v>-25.434000000000001</v>
       </c>
       <c r="F348" s="4"/>
     </row>
@@ -33674,7 +33674,7 @@
       </c>
       <c r="E349" s="30">
         <f t="shared" si="11"/>
-        <v>-25.446000000000002</v>
+        <v>-25.242000000000001</v>
       </c>
       <c r="F349" s="4"/>
     </row>
@@ -33694,7 +33694,7 @@
       </c>
       <c r="E350" s="30">
         <f t="shared" si="11"/>
-        <v>-25.29</v>
+        <v>-25.024000000000001</v>
       </c>
       <c r="F350" s="4"/>
     </row>
@@ -33714,7 +33714,7 @@
       </c>
       <c r="E351" s="30">
         <f t="shared" si="11"/>
-        <v>-25.19</v>
+        <v>-24.826000000000001</v>
       </c>
       <c r="F351" s="4"/>
     </row>
@@ -33734,7 +33734,7 @@
       </c>
       <c r="E352" s="30">
         <f t="shared" si="11"/>
-        <v>-25.175999999999998</v>
+        <v>-24.931999999999999</v>
       </c>
       <c r="F352" s="4"/>
     </row>
@@ -33754,7 +33754,7 @@
       </c>
       <c r="E353" s="30">
         <f t="shared" si="11"/>
-        <v>-22.54</v>
+        <v>-20.943999999999999</v>
       </c>
       <c r="F353" s="4"/>
     </row>
@@ -33774,7 +33774,7 @@
       </c>
       <c r="E354" s="30">
         <f t="shared" si="11"/>
-        <v>-22.338999999999999</v>
+        <v>-20.84</v>
       </c>
       <c r="F354" s="4"/>
     </row>
@@ -33794,7 +33794,7 @@
       </c>
       <c r="E355" s="30">
         <f t="shared" si="11"/>
-        <v>-22.210999999999999</v>
+        <v>-20.687999999999999</v>
       </c>
       <c r="F355" s="4"/>
     </row>
@@ -33814,7 +33814,7 @@
       </c>
       <c r="E356" s="30">
         <f t="shared" si="11"/>
-        <v>-22.198</v>
+        <v>-20.646000000000001</v>
       </c>
       <c r="F356" s="4"/>
     </row>
@@ -33834,7 +33834,7 @@
       </c>
       <c r="E357" s="30">
         <f t="shared" si="11"/>
-        <v>-22.198</v>
+        <v>-20.475999999999999</v>
       </c>
       <c r="F357" s="4"/>
     </row>
@@ -33854,7 +33854,7 @@
       </c>
       <c r="E358" s="30">
         <f t="shared" si="11"/>
-        <v>-22.173999999999999</v>
+        <v>-24.437999999999999</v>
       </c>
       <c r="F358" s="4"/>
     </row>
@@ -33874,7 +33874,7 @@
       </c>
       <c r="E359" s="30">
         <f t="shared" si="11"/>
-        <v>-22.018999999999998</v>
+        <v>-24.314</v>
       </c>
       <c r="F359" s="4"/>
     </row>
@@ -33894,7 +33894,7 @@
       </c>
       <c r="E360" s="30">
         <f t="shared" si="11"/>
-        <v>-21.768999999999998</v>
+        <v>-24.224</v>
       </c>
       <c r="F360" s="4"/>
     </row>
@@ -33914,7 +33914,7 @@
       </c>
       <c r="E361" s="30">
         <f t="shared" si="11"/>
-        <v>-24.135999999999999</v>
+        <v>-24.045999999999999</v>
       </c>
       <c r="F361" s="4"/>
     </row>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="E362" s="30">
         <f t="shared" si="11"/>
-        <v>-24.081</v>
+        <v>-23.853999999999999</v>
       </c>
       <c r="F362" s="4"/>
     </row>
@@ -33954,7 +33954,7 @@
       </c>
       <c r="E363" s="30">
         <f t="shared" si="11"/>
-        <v>-24.023</v>
+        <v>-23.646000000000001</v>
       </c>
       <c r="F363" s="4"/>
     </row>
@@ -33974,7 +33974,7 @@
       </c>
       <c r="E364" s="30">
         <f t="shared" si="11"/>
-        <v>-23.88</v>
+        <v>-23.623999999999999</v>
       </c>
       <c r="F364" s="4"/>
     </row>
@@ -33994,7 +33994,7 @@
       </c>
       <c r="E365" s="30">
         <f t="shared" si="11"/>
-        <v>-23.73</v>
+        <v>-23.614000000000001</v>
       </c>
       <c r="F365" s="4"/>
     </row>
@@ -34014,7 +34014,7 @@
       </c>
       <c r="E366" s="30">
         <f t="shared" si="11"/>
-        <v>-23.594000000000001</v>
+        <v>-23.57</v>
       </c>
       <c r="F366" s="4"/>
     </row>
@@ -34034,7 +34034,7 @@
       </c>
       <c r="E367" s="30">
         <f t="shared" si="11"/>
-        <v>-23.597999999999999</v>
+        <v>-23.54</v>
       </c>
       <c r="F367" s="4"/>
     </row>
@@ -34054,7 +34054,7 @@
       </c>
       <c r="E368" s="30">
         <f t="shared" si="11"/>
-        <v>-23.591000000000001</v>
+        <v>-23.533999999999999</v>
       </c>
       <c r="F368" s="4"/>
     </row>
@@ -34074,7 +34074,7 @@
       </c>
       <c r="E369" s="30">
         <f t="shared" si="11"/>
-        <v>-23.565999999999999</v>
+        <v>-23.544</v>
       </c>
       <c r="F369" s="4"/>
     </row>
@@ -34094,7 +34094,7 @@
       </c>
       <c r="E370" s="30">
         <f t="shared" si="11"/>
-        <v>-23.524999999999999</v>
+        <v>-23.526</v>
       </c>
       <c r="F370" s="4"/>
     </row>
@@ -34114,7 +34114,7 @@
       </c>
       <c r="E371" s="30">
         <f t="shared" si="11"/>
-        <v>-23.523</v>
+        <v>-23.532</v>
       </c>
       <c r="F371" s="4"/>
     </row>
@@ -34134,7 +34134,7 @@
       </c>
       <c r="E372" s="30">
         <f t="shared" si="11"/>
-        <v>-23.524999999999999</v>
+        <v>-23.507999999999999</v>
       </c>
       <c r="F372" s="4"/>
     </row>
@@ -34154,7 +34154,7 @@
       </c>
       <c r="E373" s="30">
         <f t="shared" si="11"/>
-        <v>-23.518000000000001</v>
+        <v>-23.495999999999999</v>
       </c>
       <c r="F373" s="4"/>
     </row>
@@ -34174,7 +34174,7 @@
       </c>
       <c r="E374" s="30">
         <f t="shared" si="11"/>
-        <v>-23.53</v>
+        <v>-23.512</v>
       </c>
       <c r="F374" s="4"/>
     </row>
@@ -34194,7 +34194,7 @@
       </c>
       <c r="E375" s="30">
         <f t="shared" si="11"/>
-        <v>-23.538</v>
+        <v>-23.56</v>
       </c>
       <c r="F375" s="4"/>
     </row>
@@ -34214,7 +34214,7 @@
       </c>
       <c r="E376" s="30">
         <f t="shared" si="11"/>
-        <v>-23.600999999999999</v>
+        <v>-23.66</v>
       </c>
       <c r="F376" s="4"/>
     </row>
@@ -34234,7 +34234,7 @@
       </c>
       <c r="E377" s="30">
         <f t="shared" si="11"/>
-        <v>-23.678999999999998</v>
+        <v>-23.79</v>
       </c>
       <c r="F377" s="4"/>
     </row>
@@ -34254,7 +34254,7 @@
       </c>
       <c r="E378" s="30">
         <f t="shared" si="11"/>
-        <v>-23.506</v>
+        <v>-23.507999999999999</v>
       </c>
       <c r="F378" s="4"/>
     </row>
@@ -34274,7 +34274,7 @@
       </c>
       <c r="E379" s="30">
         <f t="shared" si="11"/>
-        <v>-23.193000000000001</v>
+        <v>-22.992000000000001</v>
       </c>
       <c r="F379" s="4"/>
     </row>
@@ -34294,7 +34294,7 @@
       </c>
       <c r="E380" s="30">
         <f t="shared" si="11"/>
-        <v>-22.870999999999999</v>
+        <v>-22.442</v>
       </c>
       <c r="F380" s="7"/>
     </row>
@@ -34314,7 +34314,7 @@
       </c>
       <c r="E381" s="30">
         <f t="shared" si="11"/>
-        <v>-22.559000000000001</v>
+        <v>-21.827999999999999</v>
       </c>
       <c r="F381" s="4"/>
     </row>
@@ -34334,7 +34334,7 @@
       </c>
       <c r="E382" s="30">
         <f t="shared" si="11"/>
-        <v>-22.225000000000001</v>
+        <v>-21.186</v>
       </c>
       <c r="F382" s="4"/>
     </row>
@@ -34354,7 +34354,7 @@
       </c>
       <c r="E383" s="30">
         <f t="shared" si="11"/>
-        <v>-21.893999999999998</v>
+        <v>-20.98</v>
       </c>
       <c r="F383" s="4"/>
     </row>
@@ -34374,7 +34374,7 @@
       </c>
       <c r="E384" s="30">
         <f t="shared" si="11"/>
-        <v>-21.529</v>
+        <v>-20.998000000000001</v>
       </c>
       <c r="F384" s="4"/>
     </row>
@@ -34394,7 +34394,7 @@
       </c>
       <c r="E385" s="30">
         <f t="shared" si="11"/>
-        <v>-21.143999999999998</v>
+        <v>-21.026</v>
       </c>
       <c r="F385" s="4"/>
     </row>
@@ -34414,7 +34414,7 @@
       </c>
       <c r="E386" s="30">
         <f t="shared" si="11"/>
-        <v>-21.003</v>
+        <v>-21.018000000000001</v>
       </c>
       <c r="F386" s="4"/>
     </row>
@@ -34434,7 +34434,7 @@
       </c>
       <c r="E387" s="30">
         <f t="shared" si="11"/>
-        <v>-20.864999999999998</v>
+        <v>-20.815999999999999</v>
       </c>
       <c r="F387" s="4"/>
     </row>
@@ -34454,7 +34454,7 @@
       </c>
       <c r="E388" s="30">
         <f t="shared" si="11"/>
-        <v>-20.742999999999999</v>
+        <v>-20.6</v>
       </c>
       <c r="F388" s="4"/>
     </row>
@@ -34474,7 +34474,7 @@
       </c>
       <c r="E389" s="30">
         <f t="shared" si="11"/>
-        <v>-20.609000000000002</v>
+        <v>-20.356000000000002</v>
       </c>
       <c r="F389" s="4"/>
     </row>
@@ -34494,7 +34494,7 @@
       </c>
       <c r="E390" s="30">
         <f t="shared" si="11"/>
-        <v>-20.49</v>
+        <v>-20.14</v>
       </c>
       <c r="F390" s="4"/>
     </row>
@@ -34514,7 +34514,7 @@
       </c>
       <c r="E391" s="30">
         <f t="shared" si="11"/>
-        <v>-20.363</v>
+        <v>-19.956</v>
       </c>
       <c r="F391" s="4"/>
     </row>
@@ -34534,7 +34534,7 @@
       </c>
       <c r="E392" s="30">
         <f t="shared" si="11"/>
-        <v>-20.22</v>
+        <v>-19.966000000000001</v>
       </c>
       <c r="F392" s="4"/>
     </row>
@@ -34553,8 +34553,8 @@
         <v>-20.169999999999995</v>
       </c>
       <c r="E393" s="30">
-        <f t="shared" ref="E393:E456" si="13" xml:space="preserve"> ROUND(AVERAGE(D386:D393),3)</f>
-        <v>-20.108000000000001</v>
+        <f t="shared" ref="E393:E456" si="13" xml:space="preserve"> ROUND(AVERAGE(D389:D393),3)</f>
+        <v>-20.010000000000002</v>
       </c>
       <c r="F393" s="4"/>
     </row>
@@ -34574,7 +34574,7 @@
       </c>
       <c r="E394" s="30">
         <f t="shared" si="13"/>
-        <v>-20.026</v>
+        <v>-20.085999999999999</v>
       </c>
       <c r="F394" s="4"/>
     </row>
@@ -34594,7 +34594,7 @@
       </c>
       <c r="E395" s="30">
         <f t="shared" si="13"/>
-        <v>-20.068999999999999</v>
+        <v>-20.141999999999999</v>
       </c>
       <c r="F395" s="4"/>
     </row>
@@ -34614,7 +34614,7 @@
       </c>
       <c r="E396" s="30">
         <f t="shared" si="13"/>
-        <v>-20.100000000000001</v>
+        <v>-20.18</v>
       </c>
       <c r="F396" s="4"/>
     </row>
@@ -34634,7 +34634,7 @@
       </c>
       <c r="E397" s="30">
         <f t="shared" si="13"/>
-        <v>-20.184000000000001</v>
+        <v>-20.297999999999998</v>
       </c>
       <c r="F397" s="4"/>
     </row>
@@ -34654,7 +34654,7 @@
       </c>
       <c r="E398" s="30">
         <f t="shared" si="13"/>
-        <v>-20.315999999999999</v>
+        <v>-20.474</v>
       </c>
       <c r="F398" s="4"/>
     </row>
@@ -34674,7 +34674,7 @@
       </c>
       <c r="E399" s="30">
         <f t="shared" si="13"/>
-        <v>-20.460999999999999</v>
+        <v>-20.652000000000001</v>
       </c>
       <c r="F399" s="4"/>
     </row>
@@ -34694,7 +34694,7 @@
       </c>
       <c r="E400" s="30">
         <f t="shared" si="13"/>
-        <v>-20.349</v>
+        <v>-20.414000000000001</v>
       </c>
       <c r="F400" s="4"/>
     </row>
@@ -34714,7 +34714,7 @@
       </c>
       <c r="E401" s="30">
         <f t="shared" si="13"/>
-        <v>-20.213000000000001</v>
+        <v>-20.190000000000001</v>
       </c>
       <c r="F401" s="4"/>
     </row>
@@ -34734,7 +34734,7 @@
       </c>
       <c r="E402" s="30">
         <f t="shared" si="13"/>
-        <v>-20.07</v>
+        <v>-19.904</v>
       </c>
       <c r="F402" s="4"/>
     </row>
@@ -34754,7 +34754,7 @@
       </c>
       <c r="E403" s="30">
         <f t="shared" si="13"/>
-        <v>-19.922999999999998</v>
+        <v>-19.512</v>
       </c>
       <c r="F403" s="4"/>
     </row>
@@ -34774,7 +34774,7 @@
       </c>
       <c r="E404" s="30">
         <f t="shared" si="13"/>
-        <v>-19.789000000000001</v>
+        <v>-19.103999999999999</v>
       </c>
       <c r="F404" s="4"/>
     </row>
@@ -34794,7 +34794,7 @@
       </c>
       <c r="E405" s="30">
         <f t="shared" si="13"/>
-        <v>-19.605</v>
+        <v>-19.108000000000001</v>
       </c>
       <c r="F405" s="4"/>
     </row>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="E406" s="30">
         <f t="shared" si="13"/>
-        <v>-19.341000000000001</v>
+        <v>-19.079999999999998</v>
       </c>
       <c r="F406" s="4"/>
     </row>
@@ -34834,7 +34834,7 @@
       </c>
       <c r="E407" s="30">
         <f t="shared" si="13"/>
-        <v>-19.009</v>
+        <v>-18.954000000000001</v>
       </c>
       <c r="F407" s="4"/>
     </row>
@@ -34854,7 +34854,7 @@
       </c>
       <c r="E408" s="30">
         <f t="shared" si="13"/>
-        <v>-18.925999999999998</v>
+        <v>-18.82</v>
       </c>
       <c r="F408" s="4"/>
     </row>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="E409" s="30">
         <f t="shared" si="13"/>
-        <v>-18.838000000000001</v>
+        <v>-18.667999999999999</v>
       </c>
       <c r="F409" s="4"/>
     </row>
@@ -34894,7 +34894,7 @@
       </c>
       <c r="E410" s="30">
         <f t="shared" si="13"/>
-        <v>-18.768999999999998</v>
+        <v>-18.565999999999999</v>
       </c>
       <c r="F410" s="4"/>
     </row>
@@ -34914,7 +34914,7 @@
       </c>
       <c r="E411" s="30">
         <f t="shared" si="13"/>
-        <v>-18.7</v>
+        <v>-18.486000000000001</v>
       </c>
       <c r="F411" s="4"/>
     </row>
@@ -34934,7 +34934,7 @@
       </c>
       <c r="E412" s="30">
         <f t="shared" si="13"/>
-        <v>-18.638999999999999</v>
+        <v>-18.512</v>
       </c>
       <c r="F412" s="4"/>
     </row>
@@ -34954,7 +34954,7 @@
       </c>
       <c r="E413" s="30">
         <f t="shared" si="13"/>
-        <v>-18.308</v>
+        <v>-18.117999999999999</v>
       </c>
       <c r="F413" s="4"/>
     </row>
@@ -34974,7 +34974,7 @@
       </c>
       <c r="E414" s="30">
         <f t="shared" si="13"/>
-        <v>-17.93</v>
+        <v>-17.628</v>
       </c>
       <c r="F414" s="4"/>
     </row>
@@ -34994,7 +34994,7 @@
       </c>
       <c r="E415" s="30">
         <f t="shared" si="13"/>
-        <v>-17.488</v>
+        <v>-16.904</v>
       </c>
       <c r="F415" s="4"/>
     </row>
@@ -35014,7 +35014,7 @@
       </c>
       <c r="E416" s="30">
         <f t="shared" si="13"/>
-        <v>-17.053000000000001</v>
+        <v>-16.184000000000001</v>
       </c>
       <c r="F416" s="4"/>
     </row>
@@ -35034,7 +35034,7 @@
       </c>
       <c r="E417" s="30">
         <f t="shared" si="13"/>
-        <v>-16.623000000000001</v>
+        <v>-15.442</v>
       </c>
       <c r="F417" s="4"/>
     </row>
@@ -35054,7 +35054,7 @@
       </c>
       <c r="E418" s="30">
         <f t="shared" si="13"/>
-        <v>-16.119</v>
+        <v>-15.064</v>
       </c>
       <c r="F418" s="4"/>
     </row>
@@ -35074,7 +35074,7 @@
       </c>
       <c r="E419" s="30">
         <f t="shared" si="13"/>
-        <v>-15.859</v>
+        <v>-15.172000000000001</v>
       </c>
       <c r="F419" s="4"/>
     </row>
@@ -35094,7 +35094,7 @@
       </c>
       <c r="E420" s="30">
         <f t="shared" si="13"/>
-        <v>-15.473000000000001</v>
+        <v>-15.288</v>
       </c>
       <c r="F420" s="4"/>
     </row>
@@ -35114,7 +35114,7 @@
       </c>
       <c r="E421" s="30">
         <f t="shared" si="13"/>
-        <v>-15.359</v>
+        <v>-15.407999999999999</v>
       </c>
       <c r="F421" s="4"/>
     </row>
@@ -35134,7 +35134,7 @@
       </c>
       <c r="E422" s="30">
         <f t="shared" si="13"/>
-        <v>-15.323</v>
+        <v>-15.548</v>
       </c>
       <c r="F422" s="4"/>
     </row>
@@ -35154,7 +35154,7 @@
       </c>
       <c r="E423" s="30">
         <f t="shared" si="13"/>
-        <v>-15.42</v>
+        <v>-15.786</v>
       </c>
       <c r="F423" s="4"/>
     </row>
@@ -35174,7 +35174,7 @@
       </c>
       <c r="E424" s="30">
         <f t="shared" si="13"/>
-        <v>-15.548</v>
+        <v>-15.686</v>
       </c>
       <c r="F424" s="4"/>
     </row>
@@ -35194,7 +35194,7 @@
       </c>
       <c r="E425" s="30">
         <f t="shared" si="13"/>
-        <v>-15.670999999999999</v>
+        <v>-15.76</v>
       </c>
       <c r="F425" s="4"/>
     </row>
@@ -35214,7 +35214,7 @@
       </c>
       <c r="E426" s="30">
         <f t="shared" si="13"/>
-        <v>-15.798</v>
+        <v>-15.766</v>
       </c>
       <c r="F426" s="4"/>
     </row>
@@ -35234,7 +35234,7 @@
       </c>
       <c r="E427" s="30">
         <f t="shared" si="13"/>
-        <v>-15.333</v>
+        <v>-15.188000000000001</v>
       </c>
       <c r="F427" s="4"/>
     </row>
@@ -35254,7 +35254,7 @@
       </c>
       <c r="E428" s="30">
         <f t="shared" si="13"/>
-        <v>-14.984999999999999</v>
+        <v>-14.592000000000001</v>
       </c>
       <c r="F428" s="4"/>
     </row>
@@ -35274,7 +35274,7 @@
       </c>
       <c r="E429" s="30">
         <f t="shared" si="13"/>
-        <v>-14.624000000000001</v>
+        <v>-13.93</v>
       </c>
       <c r="F429" s="4"/>
     </row>
@@ -35294,7 +35294,7 @@
       </c>
       <c r="E430" s="30">
         <f t="shared" si="13"/>
-        <v>-14.24</v>
+        <v>-13.257999999999999</v>
       </c>
       <c r="F430" s="4"/>
     </row>
@@ -35314,7 +35314,7 @@
       </c>
       <c r="E431" s="30">
         <f t="shared" si="13"/>
-        <v>-13.973000000000001</v>
+        <v>-12.866</v>
       </c>
       <c r="F431" s="4"/>
     </row>
@@ -35334,7 +35334,7 @@
       </c>
       <c r="E432" s="30">
         <f t="shared" si="13"/>
-        <v>-13.675000000000001</v>
+        <v>-13.034000000000001</v>
       </c>
       <c r="F432" s="4"/>
     </row>
@@ -35354,7 +35354,7 @@
       </c>
       <c r="E433" s="30">
         <f t="shared" si="13"/>
-        <v>-13.353</v>
+        <v>-13.148</v>
       </c>
       <c r="F433" s="4"/>
     </row>
@@ -35374,7 +35374,7 @@
       </c>
       <c r="E434" s="30">
         <f t="shared" si="13"/>
-        <v>-13.04</v>
+        <v>-13.231999999999999</v>
       </c>
       <c r="F434" s="4"/>
     </row>
@@ -35394,7 +35394,7 @@
       </c>
       <c r="E435" s="30">
         <f t="shared" si="13"/>
-        <v>-13.076000000000001</v>
+        <v>-13.326000000000001</v>
       </c>
       <c r="F435" s="4"/>
     </row>
@@ -35414,7 +35414,7 @@
       </c>
       <c r="E436" s="30">
         <f t="shared" si="13"/>
-        <v>-13.099</v>
+        <v>-13.194000000000001</v>
       </c>
       <c r="F436" s="4"/>
     </row>
@@ -35434,7 +35434,7 @@
       </c>
       <c r="E437" s="30">
         <f t="shared" si="13"/>
-        <v>-13.143000000000001</v>
+        <v>-13.077999999999999</v>
       </c>
       <c r="F437" s="4"/>
     </row>
@@ -35454,7 +35454,7 @@
       </c>
       <c r="E438" s="30">
         <f t="shared" si="13"/>
-        <v>-13.129</v>
+        <v>-12.9</v>
       </c>
       <c r="F438" s="4"/>
     </row>
@@ -35474,7 +35474,7 @@
       </c>
       <c r="E439" s="30">
         <f t="shared" si="13"/>
-        <v>-12.981</v>
+        <v>-12.772</v>
       </c>
       <c r="F439" s="4"/>
     </row>
@@ -35494,7 +35494,7 @@
       </c>
       <c r="E440" s="30">
         <f t="shared" si="13"/>
-        <v>-12.834</v>
+        <v>-12.646000000000001</v>
       </c>
       <c r="F440" s="4"/>
     </row>
@@ -35514,7 +35514,7 @@
       </c>
       <c r="E441" s="30">
         <f t="shared" si="13"/>
-        <v>-12.696</v>
+        <v>-12.504</v>
       </c>
       <c r="F441" s="4"/>
     </row>
@@ -35534,7 +35534,7 @@
       </c>
       <c r="E442" s="30">
         <f t="shared" si="13"/>
-        <v>-13.193</v>
+        <v>-13.311999999999999</v>
       </c>
       <c r="F442" s="4"/>
     </row>
@@ -35554,7 +35554,7 @@
       </c>
       <c r="E443" s="30">
         <f t="shared" si="13"/>
-        <v>-13.694000000000001</v>
+        <v>-14.23</v>
       </c>
       <c r="F443" s="4"/>
     </row>
@@ -35574,7 +35574,7 @@
       </c>
       <c r="E444" s="30">
         <f t="shared" si="13"/>
-        <v>-14.186</v>
+        <v>-15.122</v>
       </c>
       <c r="F444" s="4"/>
     </row>
@@ -35594,7 +35594,7 @@
       </c>
       <c r="E445" s="30">
         <f t="shared" si="13"/>
-        <v>-14.670999999999999</v>
+        <v>-16.018000000000001</v>
       </c>
       <c r="F445" s="4"/>
     </row>
@@ -35614,7 +35614,7 @@
       </c>
       <c r="E446" s="30">
         <f t="shared" si="13"/>
-        <v>-15.226000000000001</v>
+        <v>-16.948</v>
       </c>
       <c r="F446" s="4"/>
     </row>
@@ -35634,7 +35634,7 @@
       </c>
       <c r="E447" s="30">
         <f t="shared" si="13"/>
-        <v>-15.792999999999999</v>
+        <v>-16.931999999999999</v>
       </c>
       <c r="F447" s="4"/>
     </row>
@@ -35654,7 +35654,7 @@
       </c>
       <c r="E448" s="30">
         <f t="shared" si="13"/>
-        <v>-16.341000000000001</v>
+        <v>-16.882000000000001</v>
       </c>
       <c r="F448" s="7"/>
     </row>
@@ -35674,7 +35674,7 @@
       </c>
       <c r="E449" s="30">
         <f t="shared" si="13"/>
-        <v>-16.940999999999999</v>
+        <v>-16.911999999999999</v>
       </c>
       <c r="F449" s="4"/>
     </row>
@@ -35694,7 +35694,7 @@
       </c>
       <c r="E450" s="30">
         <f t="shared" si="13"/>
-        <v>-16.93</v>
+        <v>-16.925999999999998</v>
       </c>
       <c r="F450" s="4"/>
     </row>
@@ -35714,7 +35714,7 @@
       </c>
       <c r="E451" s="30">
         <f t="shared" si="13"/>
-        <v>-16.939</v>
+        <v>-16.97</v>
       </c>
       <c r="F451" s="4"/>
     </row>
@@ -35734,7 +35734,7 @@
       </c>
       <c r="E452" s="30">
         <f t="shared" si="13"/>
-        <v>-16.969000000000001</v>
+        <v>-17.004000000000001</v>
       </c>
       <c r="F452" s="4"/>
     </row>
@@ -35754,7 +35754,7 @@
       </c>
       <c r="E453" s="30">
         <f t="shared" si="13"/>
-        <v>-16.934000000000001</v>
+        <v>-16.966000000000001</v>
       </c>
       <c r="F453" s="4"/>
     </row>
@@ -35774,7 +35774,7 @@
       </c>
       <c r="E454" s="30">
         <f t="shared" si="13"/>
-        <v>-16.908000000000001</v>
+        <v>-16.893999999999998</v>
       </c>
       <c r="F454" s="4"/>
     </row>
@@ -35794,7 +35794,7 @@
       </c>
       <c r="E455" s="30">
         <f t="shared" si="13"/>
-        <v>-16.838000000000001</v>
+        <v>-16.783999999999999</v>
       </c>
       <c r="F455" s="4"/>
     </row>
@@ -35814,7 +35814,7 @@
       </c>
       <c r="E456" s="30">
         <f t="shared" si="13"/>
-        <v>-16.745000000000001</v>
+        <v>-16.571999999999999</v>
       </c>
       <c r="F456" s="4"/>
     </row>
@@ -35833,8 +35833,8 @@
         <v>-15.920000000000002</v>
       </c>
       <c r="E457" s="30">
-        <f t="shared" ref="E457:E520" si="15" xml:space="preserve"> ROUND(AVERAGE(D450:D457),3)</f>
-        <v>-16.605</v>
+        <f t="shared" ref="E457:E520" si="15" xml:space="preserve"> ROUND(AVERAGE(D453:D457),3)</f>
+        <v>-16.329999999999998</v>
       </c>
       <c r="F457" s="4"/>
     </row>
@@ -35854,7 +35854,7 @@
       </c>
       <c r="E458" s="30">
         <f t="shared" si="15"/>
-        <v>-16.312999999999999</v>
+        <v>-15.932</v>
       </c>
       <c r="F458" s="4"/>
     </row>
@@ -35874,7 +35874,7 @@
       </c>
       <c r="E459" s="30">
         <f t="shared" si="15"/>
-        <v>-15.978999999999999</v>
+        <v>-15.484</v>
       </c>
       <c r="F459" s="4"/>
     </row>
@@ -35894,7 +35894,7 @@
       </c>
       <c r="E460" s="30">
         <f t="shared" si="15"/>
-        <v>-15.548999999999999</v>
+        <v>-14.942</v>
       </c>
       <c r="F460" s="4"/>
     </row>
@@ -35914,7 +35914,7 @@
       </c>
       <c r="E461" s="30">
         <f t="shared" si="15"/>
-        <v>-15.186</v>
+        <v>-14.472</v>
       </c>
       <c r="F461" s="4"/>
     </row>
@@ -35934,7 +35934,7 @@
       </c>
       <c r="E462" s="30">
         <f t="shared" si="15"/>
-        <v>-14.73</v>
+        <v>-13.894</v>
       </c>
       <c r="F462" s="4"/>
     </row>
@@ -35954,7 +35954,7 @@
       </c>
       <c r="E463" s="30">
         <f t="shared" si="15"/>
-        <v>-14.881</v>
+        <v>-14.494</v>
       </c>
       <c r="F463" s="4"/>
     </row>
@@ -35974,7 +35974,7 @@
       </c>
       <c r="E464" s="30">
         <f t="shared" si="15"/>
-        <v>-15.06</v>
+        <v>-15.102</v>
       </c>
       <c r="F464" s="4"/>
     </row>
@@ -35994,7 +35994,7 @@
       </c>
       <c r="E465" s="30">
         <f t="shared" si="15"/>
-        <v>-15.260999999999999</v>
+        <v>-15.87</v>
       </c>
       <c r="F465" s="4"/>
     </row>
@@ -36014,7 +36014,7 @@
       </c>
       <c r="E466" s="30">
         <f t="shared" si="15"/>
-        <v>-15.605</v>
+        <v>-16.602</v>
       </c>
       <c r="F466" s="4"/>
     </row>
@@ -36034,7 +36034,7 @@
       </c>
       <c r="E467" s="30">
         <f t="shared" si="15"/>
-        <v>-16.006</v>
+        <v>-17.526</v>
       </c>
       <c r="F467" s="4"/>
     </row>
@@ -36054,7 +36054,7 @@
       </c>
       <c r="E468" s="30">
         <f t="shared" si="15"/>
-        <v>-16.491</v>
+        <v>-17.518000000000001</v>
       </c>
       <c r="F468" s="4"/>
     </row>
@@ -36074,7 +36074,7 @@
       </c>
       <c r="E469" s="30">
         <f t="shared" si="15"/>
-        <v>-16.454000000000001</v>
+        <v>-16.702000000000002</v>
       </c>
       <c r="F469" s="4"/>
     </row>
@@ -36094,7 +36094,7 @@
       </c>
       <c r="E470" s="30">
         <f t="shared" si="15"/>
-        <v>-16.449000000000002</v>
+        <v>-15.794</v>
       </c>
       <c r="F470" s="4"/>
     </row>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="E471" s="30">
         <f t="shared" si="15"/>
-        <v>-15.917999999999999</v>
+        <v>-14.994</v>
       </c>
       <c r="F471" s="4"/>
     </row>
@@ -36134,7 +36134,7 @@
       </c>
       <c r="E472" s="30">
         <f t="shared" si="15"/>
-        <v>-15.456</v>
+        <v>-14.222</v>
       </c>
       <c r="F472" s="4"/>
     </row>
@@ -36154,7 +36154,7 @@
       </c>
       <c r="E473" s="30">
         <f t="shared" si="15"/>
-        <v>-14.944000000000001</v>
+        <v>-13.394</v>
       </c>
       <c r="F473" s="4"/>
     </row>
@@ -36174,7 +36174,7 @@
       </c>
       <c r="E474" s="30">
         <f t="shared" si="15"/>
-        <v>-14.468</v>
+        <v>-13.423999999999999</v>
       </c>
       <c r="F474" s="4"/>
     </row>
@@ -36194,7 +36194,7 @@
       </c>
       <c r="E475" s="30">
         <f t="shared" si="15"/>
-        <v>-13.948</v>
+        <v>-13.523999999999999</v>
       </c>
       <c r="F475" s="4"/>
     </row>
@@ -36214,7 +36214,7 @@
       </c>
       <c r="E476" s="30">
         <f t="shared" si="15"/>
-        <v>-13.29</v>
+        <v>-13.314</v>
       </c>
       <c r="F476" s="4"/>
     </row>
@@ -36234,7 +36234,7 @@
       </c>
       <c r="E477" s="30">
         <f t="shared" si="15"/>
-        <v>-13.164</v>
+        <v>-13.034000000000001</v>
       </c>
       <c r="F477" s="4"/>
     </row>
@@ -36254,7 +36254,7 @@
       </c>
       <c r="E478" s="30">
         <f t="shared" si="15"/>
-        <v>-12.92</v>
+        <v>-12.555999999999999</v>
       </c>
       <c r="F478" s="4"/>
     </row>
@@ -36274,7 +36274,7 @@
       </c>
       <c r="E479" s="30">
         <f t="shared" si="15"/>
-        <v>-12.618</v>
+        <v>-12.034000000000001</v>
       </c>
       <c r="F479" s="4"/>
     </row>
@@ -36294,7 +36294,7 @@
       </c>
       <c r="E480" s="30">
         <f t="shared" si="15"/>
-        <v>-12.250999999999999</v>
+        <v>-11.507999999999999</v>
       </c>
       <c r="F480" s="4"/>
     </row>
@@ -36314,7 +36314,7 @@
       </c>
       <c r="E481" s="30">
         <f t="shared" si="15"/>
-        <v>-11.930999999999999</v>
+        <v>-11.22</v>
       </c>
       <c r="F481" s="4"/>
     </row>
@@ -36334,7 +36334,7 @@
       </c>
       <c r="E482" s="30">
         <f t="shared" si="15"/>
-        <v>-11.577999999999999</v>
+        <v>-10.885999999999999</v>
       </c>
       <c r="F482" s="4"/>
     </row>
@@ -36354,7 +36354,7 @@
       </c>
       <c r="E483" s="30">
         <f t="shared" si="15"/>
-        <v>-11.071</v>
+        <v>-10.566000000000001</v>
       </c>
       <c r="F483" s="4"/>
     </row>
@@ -36374,7 +36374,7 @@
       </c>
       <c r="E484" s="30">
         <f t="shared" si="15"/>
-        <v>-10.723000000000001</v>
+        <v>-10.282</v>
       </c>
       <c r="F484" s="4"/>
     </row>
@@ -36394,7 +36394,7 @@
       </c>
       <c r="E485" s="30">
         <f t="shared" si="15"/>
-        <v>-11.166</v>
+        <v>-11.298</v>
       </c>
       <c r="F485" s="4"/>
     </row>
@@ -36414,7 +36414,7 @@
       </c>
       <c r="E486" s="30">
         <f t="shared" si="15"/>
-        <v>-11.766</v>
+        <v>-12.292</v>
       </c>
       <c r="F486" s="4"/>
     </row>
@@ -36434,7 +36434,7 @@
       </c>
       <c r="E487" s="30">
         <f t="shared" si="15"/>
-        <v>-12.27</v>
+        <v>-13.141999999999999</v>
       </c>
       <c r="F487" s="4"/>
     </row>
@@ -36454,7 +36454,7 @@
       </c>
       <c r="E488" s="30">
         <f t="shared" si="15"/>
-        <v>-12.769</v>
+        <v>-14.224</v>
       </c>
       <c r="F488" s="4"/>
     </row>
@@ -36474,7 +36474,7 @@
       </c>
       <c r="E489" s="30">
         <f t="shared" si="15"/>
-        <v>-13.196</v>
+        <v>-15.178000000000001</v>
       </c>
       <c r="F489" s="4"/>
     </row>
@@ -36494,7 +36494,7 @@
       </c>
       <c r="E490" s="30">
         <f t="shared" si="15"/>
-        <v>-13.625999999999999</v>
+        <v>-14.821999999999999</v>
       </c>
       <c r="F490" s="4"/>
     </row>
@@ -36514,7 +36514,7 @@
       </c>
       <c r="E491" s="30">
         <f t="shared" si="15"/>
-        <v>-14.089</v>
+        <v>-14.282</v>
       </c>
       <c r="F491" s="4"/>
     </row>
@@ -36534,7 +36534,7 @@
       </c>
       <c r="E492" s="30">
         <f t="shared" si="15"/>
-        <v>-14.518000000000001</v>
+        <v>-13.878</v>
       </c>
       <c r="F492" s="4"/>
     </row>
@@ -36554,7 +36554,7 @@
       </c>
       <c r="E493" s="30">
         <f t="shared" si="15"/>
-        <v>-14.132999999999999</v>
+        <v>-13.48</v>
       </c>
       <c r="F493" s="4"/>
     </row>
@@ -36574,7 +36574,7 @@
       </c>
       <c r="E494" s="30">
         <f t="shared" si="15"/>
-        <v>-13.747999999999999</v>
+        <v>-13.173999999999999</v>
       </c>
       <c r="F494" s="4"/>
     </row>
@@ -36594,7 +36594,7 @@
       </c>
       <c r="E495" s="30">
         <f t="shared" si="15"/>
-        <v>-13.429</v>
+        <v>-12.826000000000001</v>
       </c>
       <c r="F495" s="4"/>
     </row>
@@ -36614,7 +36614,7 @@
       </c>
       <c r="E496" s="30">
         <f t="shared" si="15"/>
-        <v>-13.1</v>
+        <v>-12.641999999999999</v>
       </c>
       <c r="F496" s="4"/>
     </row>
@@ -36634,7 +36634,7 @@
       </c>
       <c r="E497" s="30">
         <f t="shared" si="15"/>
-        <v>-12.849</v>
+        <v>-12.507999999999999</v>
       </c>
       <c r="F497" s="4"/>
     </row>
@@ -36654,7 +36654,7 @@
       </c>
       <c r="E498" s="30">
         <f t="shared" si="15"/>
-        <v>-12.593999999999999</v>
+        <v>-12.36</v>
       </c>
       <c r="F498" s="4"/>
     </row>
@@ -36674,7 +36674,7 @@
       </c>
       <c r="E499" s="30">
         <f t="shared" si="15"/>
-        <v>-12.455</v>
+        <v>-12.214</v>
       </c>
       <c r="F499" s="4"/>
     </row>
@@ -36694,7 +36694,7 @@
       </c>
       <c r="E500" s="30">
         <f t="shared" si="15"/>
-        <v>-12.331</v>
+        <v>-12.122</v>
       </c>
       <c r="F500" s="4"/>
     </row>
@@ -36714,7 +36714,7 @@
       </c>
       <c r="E501" s="30">
         <f t="shared" si="15"/>
-        <v>-12.228</v>
+        <v>-12.084</v>
       </c>
       <c r="F501" s="4"/>
     </row>
@@ -36734,7 +36734,7 @@
       </c>
       <c r="E502" s="30">
         <f t="shared" si="15"/>
-        <v>-12.134</v>
+        <v>-12.03</v>
       </c>
       <c r="F502" s="4"/>
     </row>
@@ -36754,7 +36754,7 @@
       </c>
       <c r="E503" s="30">
         <f t="shared" si="15"/>
-        <v>-12.086</v>
+        <v>-12.013999999999999</v>
       </c>
       <c r="F503" s="4"/>
     </row>
@@ -36774,7 +36774,7 @@
       </c>
       <c r="E504" s="30">
         <f t="shared" si="15"/>
-        <v>-12.074</v>
+        <v>-12.032</v>
       </c>
       <c r="F504" s="4"/>
     </row>
@@ -36794,7 +36794,7 @@
       </c>
       <c r="E505" s="30">
         <f t="shared" si="15"/>
-        <v>-12.005000000000001</v>
+        <v>-11.986000000000001</v>
       </c>
       <c r="F505" s="4"/>
     </row>
@@ -36814,7 +36814,7 @@
       </c>
       <c r="E506" s="30">
         <f t="shared" si="15"/>
-        <v>-11.763</v>
+        <v>-11.616</v>
       </c>
       <c r="F506" s="4"/>
     </row>
@@ -36834,7 +36834,7 @@
       </c>
       <c r="E507" s="30">
         <f t="shared" si="15"/>
-        <v>-11.778</v>
+        <v>-11.644</v>
       </c>
       <c r="F507" s="4"/>
     </row>
@@ -36854,7 +36854,7 @@
       </c>
       <c r="E508" s="30">
         <f t="shared" si="15"/>
-        <v>-11.805999999999999</v>
+        <v>-11.673999999999999</v>
       </c>
       <c r="F508" s="4"/>
     </row>
@@ -36874,7 +36874,7 @@
       </c>
       <c r="E509" s="30">
         <f t="shared" si="15"/>
-        <v>-11.82</v>
+        <v>-11.678000000000001</v>
       </c>
       <c r="F509" s="4"/>
     </row>
@@ -36894,7 +36894,7 @@
       </c>
       <c r="E510" s="30">
         <f t="shared" si="15"/>
-        <v>-11.837999999999999</v>
+        <v>-11.762</v>
       </c>
       <c r="F510" s="4"/>
     </row>
@@ -36914,7 +36914,7 @@
       </c>
       <c r="E511" s="30">
         <f t="shared" si="15"/>
-        <v>-11.869</v>
+        <v>-12.183999999999999</v>
       </c>
       <c r="F511" s="4"/>
     </row>
@@ -36934,7 +36934,7 @@
       </c>
       <c r="E512" s="30">
         <f t="shared" si="15"/>
-        <v>-11.874000000000001</v>
+        <v>-12.186</v>
       </c>
       <c r="F512" s="4"/>
     </row>
@@ -36954,7 +36954,7 @@
       </c>
       <c r="E513" s="30">
         <f t="shared" si="15"/>
-        <v>-11.926</v>
+        <v>-12.178000000000001</v>
       </c>
       <c r="F513" s="4"/>
     </row>
@@ -36974,7 +36974,7 @@
       </c>
       <c r="E514" s="30">
         <f t="shared" si="15"/>
-        <v>-12.156000000000001</v>
+        <v>-12.154</v>
       </c>
       <c r="F514" s="4"/>
     </row>
@@ -36994,7 +36994,7 @@
       </c>
       <c r="E515" s="30">
         <f t="shared" si="15"/>
-        <v>-12.135</v>
+        <v>-12.12</v>
       </c>
       <c r="F515" s="4"/>
     </row>
@@ -37014,7 +37014,7 @@
       </c>
       <c r="E516" s="30">
         <f t="shared" si="15"/>
-        <v>-12.122999999999999</v>
+        <v>-12.08</v>
       </c>
       <c r="F516" s="4"/>
     </row>
@@ -37034,7 +37034,7 @@
       </c>
       <c r="E517" s="30">
         <f t="shared" si="15"/>
-        <v>-12.12</v>
+        <v>-12.071999999999999</v>
       </c>
       <c r="F517" s="4"/>
     </row>
@@ -37054,7 +37054,7 @@
       </c>
       <c r="E518" s="30">
         <f t="shared" si="15"/>
-        <v>-12.125999999999999</v>
+        <v>-12.082000000000001</v>
       </c>
       <c r="F518" s="4"/>
     </row>
@@ -37074,7 +37074,7 @@
       </c>
       <c r="E519" s="30">
         <f t="shared" si="15"/>
-        <v>-12.125999999999999</v>
+        <v>-12.135999999999999</v>
       </c>
       <c r="F519" s="4"/>
     </row>
@@ -37094,7 +37094,7 @@
       </c>
       <c r="E520" s="30">
         <f t="shared" si="15"/>
-        <v>-12.183</v>
+        <v>-12.262</v>
       </c>
       <c r="F520" s="4"/>
     </row>
@@ -37109,12 +37109,12 @@
         <v>79.66</v>
       </c>
       <c r="D521" s="6">
-        <f t="shared" ref="D521:D534" si="16">B521-C521</f>
+        <f t="shared" ref="D521:D563" si="16">B521-C521</f>
         <v>-12.530000000000001</v>
       </c>
       <c r="E521" s="30">
-        <f t="shared" ref="E521:E534" si="17" xml:space="preserve"> ROUND(AVERAGE(D514:D521),3)</f>
-        <v>-12.23</v>
+        <f t="shared" ref="E521:E563" si="17" xml:space="preserve"> ROUND(AVERAGE(D517:D521),3)</f>
+        <v>-12.35</v>
       </c>
       <c r="F521" s="4"/>
     </row>
@@ -37134,7 +37134,7 @@
       </c>
       <c r="E522" s="30">
         <f t="shared" si="17"/>
-        <v>-12.234</v>
+        <v>-12.336</v>
       </c>
       <c r="F522" s="4"/>
     </row>
@@ -37154,7 +37154,7 @@
       </c>
       <c r="E523" s="30">
         <f t="shared" si="17"/>
-        <v>-12.259</v>
+        <v>-12.332000000000001</v>
       </c>
       <c r="F523" s="4"/>
     </row>
@@ -37174,7 +37174,7 @@
       </c>
       <c r="E524" s="30">
         <f t="shared" si="17"/>
-        <v>-12.21</v>
+        <v>-12.214</v>
       </c>
       <c r="F524" s="4"/>
     </row>
@@ -37194,7 +37194,7 @@
       </c>
       <c r="E525" s="30">
         <f t="shared" si="17"/>
-        <v>-12.180999999999999</v>
+        <v>-12.07</v>
       </c>
       <c r="F525" s="4"/>
     </row>
@@ -37214,7 +37214,7 @@
       </c>
       <c r="E526" s="30">
         <f t="shared" si="17"/>
-        <v>-12.132999999999999</v>
+        <v>-11.926</v>
       </c>
       <c r="F526" s="4"/>
     </row>
@@ -37234,7 +37234,7 @@
       </c>
       <c r="E527" s="30">
         <f t="shared" si="17"/>
-        <v>-12.085000000000001</v>
+        <v>-11.898</v>
       </c>
       <c r="F527" s="4"/>
     </row>
@@ -37254,7 +37254,7 @@
       </c>
       <c r="E528" s="30">
         <f t="shared" si="17"/>
-        <v>-11.997999999999999</v>
+        <v>-11.843999999999999</v>
       </c>
       <c r="F528" s="4"/>
     </row>
@@ -37274,7 +37274,7 @@
       </c>
       <c r="E529" s="30">
         <f t="shared" si="17"/>
-        <v>-11.906000000000001</v>
+        <v>-11.864000000000001</v>
       </c>
       <c r="F529" s="4"/>
     </row>
@@ -37294,7 +37294,7 @@
       </c>
       <c r="E530" s="30">
         <f t="shared" si="17"/>
-        <v>-11.903</v>
+        <v>-11.89</v>
       </c>
       <c r="F530" s="4"/>
     </row>
@@ -37314,7 +37314,7 @@
       </c>
       <c r="E531" s="30">
         <f t="shared" si="17"/>
-        <v>-11.9</v>
+        <v>-11.96</v>
       </c>
       <c r="F531" s="4"/>
     </row>
@@ -37334,7 +37334,7 @@
       </c>
       <c r="E532" s="30">
         <f t="shared" si="17"/>
-        <v>-12.000999999999999</v>
+        <v>-12.08</v>
       </c>
       <c r="F532" s="4"/>
     </row>
@@ -37354,7 +37354,7 @@
       </c>
       <c r="E533" s="30">
         <f t="shared" si="17"/>
-        <v>-12.079000000000001</v>
+        <v>-12.2</v>
       </c>
       <c r="F533" s="4"/>
     </row>
@@ -37374,9 +37374,560 @@
       </c>
       <c r="E534" s="30">
         <f t="shared" si="17"/>
-        <v>-12.215999999999999</v>
+        <v>-12.422000000000001</v>
       </c>
       <c r="F534" s="4"/>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A535" s="20">
+        <v>45301</v>
+      </c>
+      <c r="B535" s="4">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="C535" s="6">
+        <v>76.8</v>
+      </c>
+      <c r="D535" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="E535" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.458</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A536" s="20">
+        <v>45302</v>
+      </c>
+      <c r="B536" s="4">
+        <v>66.14</v>
+      </c>
+      <c r="C536" s="6">
+        <v>77.41</v>
+      </c>
+      <c r="D536" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.269999999999996</v>
+      </c>
+      <c r="E536" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.28</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A537" s="20">
+        <v>45303</v>
+      </c>
+      <c r="B537" s="4">
+        <v>66.14</v>
+      </c>
+      <c r="C537" s="6">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="D537" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.150000000000006</v>
+      </c>
+      <c r="E537" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.208</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A538" s="20">
+        <v>45306</v>
+      </c>
+      <c r="B538" s="4">
+        <v>66.13</v>
+      </c>
+      <c r="C538" s="6">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="D538" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.02000000000001</v>
+      </c>
+      <c r="E538" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.11</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A539" s="20">
+        <v>45307</v>
+      </c>
+      <c r="B539">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="C539" s="6">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="D539" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.64</v>
+      </c>
+      <c r="E539" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.055999999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A540" s="20">
+        <v>45308</v>
+      </c>
+      <c r="B540" s="4">
+        <v>66.06</v>
+      </c>
+      <c r="C540" s="6">
+        <v>77.88</v>
+      </c>
+      <c r="D540" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.819999999999993</v>
+      </c>
+      <c r="E540" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.98</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A541" s="20">
+        <v>45309</v>
+      </c>
+      <c r="B541" s="4">
+        <v>67.08</v>
+      </c>
+      <c r="C541" s="6">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="D541" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.019999999999996</v>
+      </c>
+      <c r="E541" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.13</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A542" s="20">
+        <v>45310</v>
+      </c>
+      <c r="B542" s="4">
+        <v>66.83</v>
+      </c>
+      <c r="C542" s="6">
+        <v>78.56</v>
+      </c>
+      <c r="D542" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.730000000000004</v>
+      </c>
+      <c r="E542" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.045999999999999</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A543" s="20">
+        <v>45313</v>
+      </c>
+      <c r="B543" s="4">
+        <v>68.09</v>
+      </c>
+      <c r="C543" s="6">
+        <v>80.06</v>
+      </c>
+      <c r="D543" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.969999999999999</v>
+      </c>
+      <c r="E543" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.036</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A544" s="20">
+        <v>45314</v>
+      </c>
+      <c r="B544" s="4">
+        <v>67.91</v>
+      </c>
+      <c r="C544" s="6">
+        <v>79.55</v>
+      </c>
+      <c r="D544" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.64</v>
+      </c>
+      <c r="E544" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.836</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A545" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B545" s="4">
+        <v>68.34</v>
+      </c>
+      <c r="C545" s="6">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="D545" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.700000000000003</v>
+      </c>
+      <c r="E545" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.811999999999999</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" s="20">
+        <v>45316</v>
+      </c>
+      <c r="B546" s="4">
+        <v>70.31</v>
+      </c>
+      <c r="C546" s="6">
+        <v>82.43</v>
+      </c>
+      <c r="D546" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.120000000000005</v>
+      </c>
+      <c r="E546" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.832000000000001</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" s="20">
+        <v>45317</v>
+      </c>
+      <c r="B547" s="4">
+        <v>71.67</v>
+      </c>
+      <c r="C547" s="6">
+        <v>83.55</v>
+      </c>
+      <c r="D547" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.879999999999995</v>
+      </c>
+      <c r="E547" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.862</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" s="20">
+        <v>45320</v>
+      </c>
+      <c r="B548" s="4">
+        <v>70.45</v>
+      </c>
+      <c r="C548" s="6">
+        <v>82.4</v>
+      </c>
+      <c r="D548" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.950000000000003</v>
+      </c>
+      <c r="E548" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.858000000000001</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" s="20">
+        <v>45321</v>
+      </c>
+      <c r="B549" s="4">
+        <v>70.81</v>
+      </c>
+      <c r="C549" s="6">
+        <v>82.87</v>
+      </c>
+      <c r="D549" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.060000000000002</v>
+      </c>
+      <c r="E549" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.942</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" s="20">
+        <v>45322</v>
+      </c>
+      <c r="B550" s="4">
+        <v>69.069999999999993</v>
+      </c>
+      <c r="C550" s="6">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="D550" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.64</v>
+      </c>
+      <c r="E550" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.13</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" s="20">
+        <v>45323</v>
+      </c>
+      <c r="B551" s="4">
+        <v>66.67</v>
+      </c>
+      <c r="C551" s="6">
+        <v>78.7</v>
+      </c>
+      <c r="D551" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.030000000000001</v>
+      </c>
+      <c r="E551" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.112</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" s="20">
+        <v>45324</v>
+      </c>
+      <c r="B552" s="4">
+        <v>65.13</v>
+      </c>
+      <c r="C552" s="6">
+        <v>77.33</v>
+      </c>
+      <c r="D552" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="E552" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.176</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" s="20">
+        <v>45327</v>
+      </c>
+      <c r="B553" s="4">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="C553" s="6">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="D553" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.280000000000001</v>
+      </c>
+      <c r="E553" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.242000000000001</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554" s="20">
+        <v>45328</v>
+      </c>
+      <c r="B554" s="4">
+        <v>66.45</v>
+      </c>
+      <c r="C554" s="6">
+        <v>78.59</v>
+      </c>
+      <c r="D554" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.14</v>
+      </c>
+      <c r="E554" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.257999999999999</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555" s="20">
+        <v>45329</v>
+      </c>
+      <c r="B555" s="4">
+        <v>67.23</v>
+      </c>
+      <c r="C555" s="6">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="D555" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.97999999999999</v>
+      </c>
+      <c r="E555" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.125999999999999</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556" s="20">
+        <v>45330</v>
+      </c>
+      <c r="B556" s="4">
+        <v>69.67</v>
+      </c>
+      <c r="C556" s="6">
+        <v>81.63</v>
+      </c>
+      <c r="D556" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.959999999999994</v>
+      </c>
+      <c r="E556" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.112</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557" s="20">
+        <v>45331</v>
+      </c>
+      <c r="B557" s="4">
+        <v>69.91</v>
+      </c>
+      <c r="C557" s="6">
+        <v>82.19</v>
+      </c>
+      <c r="D557" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.280000000000001</v>
+      </c>
+      <c r="E557" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.128</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558" s="20">
+        <v>45334</v>
+      </c>
+      <c r="B558" s="4">
+        <v>69.94</v>
+      </c>
+      <c r="C558" s="6">
+        <v>82</v>
+      </c>
+      <c r="D558" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.060000000000002</v>
+      </c>
+      <c r="E558" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.084</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559" s="20">
+        <v>45335</v>
+      </c>
+      <c r="B559" s="4">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="C559" s="6">
+        <v>82.77</v>
+      </c>
+      <c r="D559" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.060000000000002</v>
+      </c>
+      <c r="E559" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.068</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560" s="20">
+        <v>45336</v>
+      </c>
+      <c r="B560" s="4">
+        <v>69.58</v>
+      </c>
+      <c r="C560" s="6">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D560" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.019999999999996</v>
+      </c>
+      <c r="E560" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.076000000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A561" s="20">
+        <v>45337</v>
+      </c>
+      <c r="B561" s="4">
+        <v>70.91</v>
+      </c>
+      <c r="C561" s="6">
+        <v>82.86</v>
+      </c>
+      <c r="D561" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.950000000000003</v>
+      </c>
+      <c r="E561" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.074</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A562" s="20">
+        <v>45338</v>
+      </c>
+      <c r="B562" s="4">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="C562" s="6">
+        <v>83.47</v>
+      </c>
+      <c r="D562" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.760000000000005</v>
+      </c>
+      <c r="E562" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.97</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A563" s="20">
+        <v>45341</v>
+      </c>
+      <c r="B563" s="4">
+        <v>71.8</v>
+      </c>
+      <c r="C563" s="6">
+        <v>83.56</v>
+      </c>
+      <c r="D563" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.760000000000005</v>
+      </c>
+      <c r="E563" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/figure_4/figure_4.xlsx
+++ b/documentation/figure_4/figure_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/documentation/figure_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD27660-10EC-114B-8162-38A446F0746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BECC48-768F-E040-8F97-60363067C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
+    <workbookView xWindow="820" yWindow="1620" windowWidth="18120" windowHeight="18880" activeTab="6" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -290,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,6 +390,19 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -413,7 +426,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -471,6 +484,9 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13773,7 +13789,7 @@
                   <c:v>-22.225999999999999</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>-22.66</c:v>
+                  <c:v>-22.742000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26762,11 +26778,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C491D87-F346-CA48-BF83-3B74F4392A2D}">
-  <dimension ref="A1:I563"/>
+  <dimension ref="A1:I602"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K562" sqref="K562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37109,11 +37125,11 @@
         <v>79.66</v>
       </c>
       <c r="D521" s="6">
-        <f t="shared" ref="D521:D563" si="16">B521-C521</f>
+        <f t="shared" ref="D521:D566" si="16">B521-C521</f>
         <v>-12.530000000000001</v>
       </c>
       <c r="E521" s="30">
-        <f t="shared" ref="E521:E563" si="17" xml:space="preserve"> ROUND(AVERAGE(D517:D521),3)</f>
+        <f t="shared" ref="E521:E584" si="17" xml:space="preserve"> ROUND(AVERAGE(D517:D521),3)</f>
         <v>-12.35</v>
       </c>
       <c r="F521" s="4"/>
@@ -37928,6 +37944,571 @@
         <f t="shared" si="17"/>
         <v>-11.91</v>
       </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A564" s="20">
+        <v>45342</v>
+      </c>
+      <c r="B564" s="4">
+        <v>70.87</v>
+      </c>
+      <c r="C564" s="6">
+        <v>82.34</v>
+      </c>
+      <c r="D564" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.469999999999999</v>
+      </c>
+      <c r="E564" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.792</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A565" s="20">
+        <v>45343</v>
+      </c>
+      <c r="B565" s="4">
+        <v>71.39</v>
+      </c>
+      <c r="C565" s="6">
+        <v>83.02</v>
+      </c>
+      <c r="D565" s="6">
+        <f t="shared" si="16"/>
+        <v>-11.629999999999995</v>
+      </c>
+      <c r="E565" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.714</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A566" s="20">
+        <v>45344</v>
+      </c>
+      <c r="B566" s="4">
+        <v>71.56</v>
+      </c>
+      <c r="C566" s="6">
+        <v>83.67</v>
+      </c>
+      <c r="D566" s="6">
+        <f t="shared" si="16"/>
+        <v>-12.11</v>
+      </c>
+      <c r="E566" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.746</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A567" s="20">
+        <v>45345</v>
+      </c>
+      <c r="B567" s="4">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="C567" s="6">
+        <v>81.62</v>
+      </c>
+      <c r="D567" s="6">
+        <f>B567-C567</f>
+        <v>-11.88000000000001</v>
+      </c>
+      <c r="E567" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.77</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A568" s="20">
+        <v>45348</v>
+      </c>
+      <c r="B568" s="4">
+        <v>70.53</v>
+      </c>
+      <c r="C568" s="6">
+        <v>82.53</v>
+      </c>
+      <c r="D568" s="6">
+        <f t="shared" ref="D568:D591" si="18">B568-C568</f>
+        <v>-12</v>
+      </c>
+      <c r="E568" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.818</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A569" s="20">
+        <v>45349</v>
+      </c>
+      <c r="B569" s="4">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="C569" s="6">
+        <v>83.65</v>
+      </c>
+      <c r="D569" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.300000000000011</v>
+      </c>
+      <c r="E569" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.984</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A570" s="20">
+        <v>45350</v>
+      </c>
+      <c r="B570" s="4">
+        <v>70.959999999999994</v>
+      </c>
+      <c r="C570" s="6">
+        <v>83.68</v>
+      </c>
+      <c r="D570" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.720000000000013</v>
+      </c>
+      <c r="E570" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.202</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A571" s="20">
+        <v>45351</v>
+      </c>
+      <c r="B571" s="4">
+        <v>71.58</v>
+      </c>
+      <c r="C571" s="6">
+        <v>83.62</v>
+      </c>
+      <c r="D571" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.040000000000006</v>
+      </c>
+      <c r="E571" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.188000000000001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A572" s="20">
+        <v>45352</v>
+      </c>
+      <c r="B572" s="4">
+        <v>71.47</v>
+      </c>
+      <c r="C572" s="6">
+        <v>83.55</v>
+      </c>
+      <c r="D572" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.079999999999998</v>
+      </c>
+      <c r="E572" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.228</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A573" s="20">
+        <v>45355</v>
+      </c>
+      <c r="B573" s="4">
+        <v>70.89</v>
+      </c>
+      <c r="C573" s="6">
+        <v>82.8</v>
+      </c>
+      <c r="D573" s="6">
+        <f t="shared" si="18"/>
+        <v>-11.909999999999997</v>
+      </c>
+      <c r="E573" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.21</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A574" s="20">
+        <v>45356</v>
+      </c>
+      <c r="B574" s="4">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="C574" s="31">
+        <v>82.04</v>
+      </c>
+      <c r="D574" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.030000000000001</v>
+      </c>
+      <c r="E574" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.156000000000001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A575" s="20">
+        <v>45357</v>
+      </c>
+      <c r="B575" s="4">
+        <v>70.92</v>
+      </c>
+      <c r="C575" s="31">
+        <v>82.96</v>
+      </c>
+      <c r="D575" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.039999999999992</v>
+      </c>
+      <c r="E575" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.02</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A576" s="20">
+        <v>45358</v>
+      </c>
+      <c r="B576" s="4">
+        <v>71.38</v>
+      </c>
+      <c r="C576" s="31">
+        <v>82.96</v>
+      </c>
+      <c r="D576" s="6">
+        <f t="shared" si="18"/>
+        <v>-11.579999999999998</v>
+      </c>
+      <c r="E576" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.928000000000001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A577" s="20">
+        <v>45359</v>
+      </c>
+      <c r="B577" s="4">
+        <v>69.98</v>
+      </c>
+      <c r="C577" s="31">
+        <v>82.08</v>
+      </c>
+      <c r="D577" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.099999999999994</v>
+      </c>
+      <c r="E577" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.932</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A578" s="20">
+        <v>45362</v>
+      </c>
+      <c r="B578" s="4">
+        <v>70.33</v>
+      </c>
+      <c r="C578" s="31">
+        <v>82.21</v>
+      </c>
+      <c r="D578" s="6">
+        <f t="shared" si="18"/>
+        <v>-11.879999999999995</v>
+      </c>
+      <c r="E578" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.926</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A579" s="20">
+        <v>45363</v>
+      </c>
+      <c r="B579" s="4">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="C579" s="31">
+        <v>81.92</v>
+      </c>
+      <c r="D579" s="6">
+        <f t="shared" si="18"/>
+        <v>-11.659999999999997</v>
+      </c>
+      <c r="E579" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.852</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A580" s="20">
+        <v>45364</v>
+      </c>
+      <c r="B580" s="4">
+        <v>71.790000000000006</v>
+      </c>
+      <c r="C580" s="31">
+        <v>84.03</v>
+      </c>
+      <c r="D580" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.239999999999995</v>
+      </c>
+      <c r="E580" s="30">
+        <f t="shared" si="17"/>
+        <v>-11.891999999999999</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A581" s="20">
+        <v>45365</v>
+      </c>
+      <c r="B581" s="4">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C581" s="31">
+        <v>85.42</v>
+      </c>
+      <c r="D581" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.320000000000007</v>
+      </c>
+      <c r="E581" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.04</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A582" s="20">
+        <v>45366</v>
+      </c>
+      <c r="B582" s="4">
+        <v>73.27</v>
+      </c>
+      <c r="C582" s="31">
+        <v>85.34</v>
+      </c>
+      <c r="D582" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.070000000000007</v>
+      </c>
+      <c r="E582" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.034000000000001</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A583" s="20">
+        <v>45369</v>
+      </c>
+      <c r="B583" s="4">
+        <v>74.7</v>
+      </c>
+      <c r="C583" s="31">
+        <v>86.89</v>
+      </c>
+      <c r="D583" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.189999999999998</v>
+      </c>
+      <c r="E583" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.096</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A584" s="20">
+        <v>45370</v>
+      </c>
+      <c r="B584" s="4">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="C584" s="31">
+        <v>87.38</v>
+      </c>
+      <c r="D584" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.310000000000002</v>
+      </c>
+      <c r="E584" s="30">
+        <f t="shared" si="17"/>
+        <v>-12.226000000000001</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A585" s="20">
+        <v>45371</v>
+      </c>
+      <c r="B585" s="4">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="C585" s="31">
+        <v>85.95</v>
+      </c>
+      <c r="D585" s="6">
+        <f t="shared" si="18"/>
+        <v>-11.939999999999998</v>
+      </c>
+      <c r="E585" s="30">
+        <f t="shared" ref="E585:E591" si="19" xml:space="preserve"> ROUND(AVERAGE(D581:D585),3)</f>
+        <v>-12.166</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A586" s="20">
+        <v>45372</v>
+      </c>
+      <c r="B586" s="4">
+        <v>73.38</v>
+      </c>
+      <c r="C586" s="31">
+        <v>85.78</v>
+      </c>
+      <c r="D586" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.400000000000006</v>
+      </c>
+      <c r="E586" s="30">
+        <f t="shared" si="19"/>
+        <v>-12.182</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A587" s="20">
+        <v>45373</v>
+      </c>
+      <c r="B587" s="4">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="C587" s="31">
+        <v>85.43</v>
+      </c>
+      <c r="D587" s="6">
+        <f t="shared" si="18"/>
+        <v>-11.970000000000013</v>
+      </c>
+      <c r="E587" s="30">
+        <f t="shared" si="19"/>
+        <v>-12.162000000000001</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A588" s="20">
+        <v>45376</v>
+      </c>
+      <c r="B588" s="4">
+        <v>74.41</v>
+      </c>
+      <c r="C588" s="31">
+        <v>86.75</v>
+      </c>
+      <c r="D588" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.340000000000003</v>
+      </c>
+      <c r="E588" s="30">
+        <f t="shared" si="19"/>
+        <v>-12.192</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A589" s="20">
+        <v>45377</v>
+      </c>
+      <c r="B589" s="4">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="C589" s="31">
+        <v>86.25</v>
+      </c>
+      <c r="D589" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.569999999999993</v>
+      </c>
+      <c r="E589" s="30">
+        <f t="shared" si="19"/>
+        <v>-12.244</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A590" s="20">
+        <v>45378</v>
+      </c>
+      <c r="B590" s="4">
+        <v>73.94</v>
+      </c>
+      <c r="C590" s="31">
+        <v>86.09</v>
+      </c>
+      <c r="D590" s="6">
+        <f t="shared" si="18"/>
+        <v>-12.150000000000006</v>
+      </c>
+      <c r="E590" s="30">
+        <f t="shared" si="19"/>
+        <v>-12.286</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A591" s="20">
+        <v>45379</v>
+      </c>
+      <c r="B591" s="4">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="C591" s="31">
+        <v>87.48</v>
+      </c>
+      <c r="D591" s="6">
+        <f t="shared" si="18"/>
+        <v>-11.939999999999998</v>
+      </c>
+      <c r="E591" s="30">
+        <f t="shared" si="19"/>
+        <v>-12.194000000000001</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="C592" s="31"/>
+    </row>
+    <row r="593" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C593" s="31"/>
+    </row>
+    <row r="594" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C594" s="31"/>
+    </row>
+    <row r="595" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C595" s="31"/>
+    </row>
+    <row r="596" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C596" s="31"/>
+    </row>
+    <row r="597" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C597" s="31"/>
+    </row>
+    <row r="598" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C598" s="31"/>
+    </row>
+    <row r="599" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C599" s="31"/>
+    </row>
+    <row r="600" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C600" s="31"/>
+    </row>
+    <row r="601" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C601" s="31"/>
+    </row>
+    <row r="602" spans="3:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C602" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61245,11 +61826,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC841A3D-0425-7F4C-9464-9A4518464EF5}">
-  <dimension ref="A1:K541"/>
+  <dimension ref="A1:K600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8:I539"/>
+      <pane ySplit="7" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A539" sqref="A539:A599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -77278,11 +77859,11 @@
         <v>79.34</v>
       </c>
       <c r="H521" s="4">
-        <f t="shared" ref="H521:H539" si="16">AVERAGE(C521,F521)-G521</f>
+        <f t="shared" ref="H521:H584" si="16">AVERAGE(C521,F521)-G521</f>
         <v>-20.64</v>
       </c>
       <c r="I521">
-        <f t="shared" ref="I521:I539" si="17" xml:space="preserve"> ROUND(AVERAGE(H517:H521), 3)</f>
+        <f t="shared" ref="I521:I584" si="17" xml:space="preserve"> ROUND(AVERAGE(H517:H521), 3)</f>
         <v>-21.411999999999999</v>
       </c>
     </row>
@@ -77814,41 +78395,1902 @@
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A539" s="2">
+      <c r="A539" s="33">
         <v>45307</v>
       </c>
-      <c r="B539">
-        <v>61.76</v>
-      </c>
-      <c r="C539">
+      <c r="B539" s="32">
+        <v>62.15</v>
+      </c>
+      <c r="C539" s="32">
         <v>55.61</v>
       </c>
-      <c r="D539">
-        <v>61.76</v>
-      </c>
-      <c r="E539">
-        <v>60.76</v>
-      </c>
-      <c r="F539">
+      <c r="D539" s="32">
+        <v>62.15</v>
+      </c>
+      <c r="E539" s="32">
+        <v>61.15</v>
+      </c>
+      <c r="F539" s="32">
         <v>55.61</v>
       </c>
-      <c r="G539">
-        <v>77.94</v>
+      <c r="G539" s="32">
+        <v>78.349999999999994</v>
       </c>
       <c r="H539" s="4">
         <f t="shared" si="16"/>
-        <v>-22.33</v>
+        <v>-22.739999999999995</v>
       </c>
       <c r="I539">
         <f t="shared" si="17"/>
-        <v>-22.66</v>
+        <v>-22.742000000000001</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H540" s="4"/>
+      <c r="A540" s="33">
+        <v>45308</v>
+      </c>
+      <c r="B540" s="32">
+        <v>60.89</v>
+      </c>
+      <c r="C540" s="32">
+        <v>55.61</v>
+      </c>
+      <c r="D540" s="32">
+        <v>60.89</v>
+      </c>
+      <c r="E540" s="32">
+        <v>59.89</v>
+      </c>
+      <c r="F540" s="32">
+        <v>55.61</v>
+      </c>
+      <c r="G540" s="32">
+        <v>77.62</v>
+      </c>
+      <c r="H540" s="4">
+        <f t="shared" si="16"/>
+        <v>-22.010000000000005</v>
+      </c>
+      <c r="I540">
+        <f t="shared" si="17"/>
+        <v>-22.776</v>
+      </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H541" s="4"/>
+      <c r="A541" s="33">
+        <v>45309</v>
+      </c>
+      <c r="B541" s="32">
+        <v>63.04</v>
+      </c>
+      <c r="C541" s="32">
+        <v>55.61</v>
+      </c>
+      <c r="D541" s="32">
+        <v>63.04</v>
+      </c>
+      <c r="E541" s="32">
+        <v>62.04</v>
+      </c>
+      <c r="F541" s="32">
+        <v>55.61</v>
+      </c>
+      <c r="G541" s="32">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="H541" s="4">
+        <f t="shared" si="16"/>
+        <v>-23.099999999999994</v>
+      </c>
+      <c r="I541">
+        <f t="shared" si="17"/>
+        <v>-22.716000000000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A542" s="33">
+        <v>45310</v>
+      </c>
+      <c r="B542" s="32">
+        <v>62.71</v>
+      </c>
+      <c r="C542" s="32">
+        <v>55.61</v>
+      </c>
+      <c r="D542" s="32">
+        <v>62.71</v>
+      </c>
+      <c r="E542" s="32">
+        <v>61.71</v>
+      </c>
+      <c r="F542" s="32">
+        <v>55.61</v>
+      </c>
+      <c r="G542" s="32">
+        <v>79.09</v>
+      </c>
+      <c r="H542" s="4">
+        <f t="shared" si="16"/>
+        <v>-23.480000000000004</v>
+      </c>
+      <c r="I542">
+        <f t="shared" si="17"/>
+        <v>-22.731999999999999</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A543" s="33">
+        <v>45313</v>
+      </c>
+      <c r="B543" s="32">
+        <v>63.7</v>
+      </c>
+      <c r="C543" s="32">
+        <v>62.9</v>
+      </c>
+      <c r="D543" s="32">
+        <v>63.7</v>
+      </c>
+      <c r="E543" s="32">
+        <v>62.7</v>
+      </c>
+      <c r="F543" s="32">
+        <v>62.9</v>
+      </c>
+      <c r="G543" s="32">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="H543" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.110000000000007</v>
+      </c>
+      <c r="I543">
+        <f t="shared" si="17"/>
+        <v>-21.687999999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A544" s="33">
+        <v>45314</v>
+      </c>
+      <c r="B544" s="32">
+        <v>71.48</v>
+      </c>
+      <c r="C544" s="32">
+        <v>63.24</v>
+      </c>
+      <c r="D544" s="32">
+        <v>71.48</v>
+      </c>
+      <c r="E544" s="32">
+        <v>67.69</v>
+      </c>
+      <c r="F544" s="32">
+        <v>63.24</v>
+      </c>
+      <c r="G544" s="32">
+        <v>80.22</v>
+      </c>
+      <c r="H544" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.979999999999997</v>
+      </c>
+      <c r="I544">
+        <f t="shared" si="17"/>
+        <v>-20.536000000000001</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A545" s="33">
+        <v>45315</v>
+      </c>
+      <c r="B545" s="32">
+        <v>71.52</v>
+      </c>
+      <c r="C545" s="32">
+        <v>63.36</v>
+      </c>
+      <c r="D545" s="32">
+        <v>71.52</v>
+      </c>
+      <c r="E545" s="32">
+        <v>67.8</v>
+      </c>
+      <c r="F545" s="32">
+        <v>63.36</v>
+      </c>
+      <c r="G545" s="32">
+        <v>80.33</v>
+      </c>
+      <c r="H545" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.97</v>
+      </c>
+      <c r="I545">
+        <f t="shared" si="17"/>
+        <v>-19.527999999999999</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A546" s="33">
+        <v>45316</v>
+      </c>
+      <c r="B546" s="32">
+        <v>71.63</v>
+      </c>
+      <c r="C546" s="32">
+        <v>63.53</v>
+      </c>
+      <c r="D546" s="32">
+        <v>71.63</v>
+      </c>
+      <c r="E546" s="32">
+        <v>68.09</v>
+      </c>
+      <c r="F546" s="32">
+        <v>63.53</v>
+      </c>
+      <c r="G546" s="32">
+        <v>81.34</v>
+      </c>
+      <c r="H546" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.810000000000002</v>
+      </c>
+      <c r="I546">
+        <f t="shared" si="17"/>
+        <v>-18.47</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A547" s="33">
+        <v>45317</v>
+      </c>
+      <c r="B547" s="32">
+        <v>72.61</v>
+      </c>
+      <c r="C547" s="32">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="D547" s="32">
+        <v>72.61</v>
+      </c>
+      <c r="E547" s="32">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="F547" s="32">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="G547" s="32">
+        <v>81.95</v>
+      </c>
+      <c r="H547" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.409999999999997</v>
+      </c>
+      <c r="I547">
+        <f t="shared" si="17"/>
+        <v>-17.256</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A548" s="33">
+        <v>45320</v>
+      </c>
+      <c r="B548" s="32">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="C548" s="32">
+        <v>65.19</v>
+      </c>
+      <c r="D548" s="32">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="E548" s="32">
+        <v>69.61</v>
+      </c>
+      <c r="F548" s="32">
+        <v>65.19</v>
+      </c>
+      <c r="G548" s="32">
+        <v>82.69</v>
+      </c>
+      <c r="H548" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.5</v>
+      </c>
+      <c r="I548">
+        <f t="shared" si="17"/>
+        <v>-17.334</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A549" s="33">
+        <v>45321</v>
+      </c>
+      <c r="B549" s="32">
+        <v>73.39</v>
+      </c>
+      <c r="C549" s="32">
+        <v>65.19</v>
+      </c>
+      <c r="D549" s="32">
+        <v>73.39</v>
+      </c>
+      <c r="E549" s="32">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="F549" s="32">
+        <v>65.19</v>
+      </c>
+      <c r="G549" s="32">
+        <v>82.83</v>
+      </c>
+      <c r="H549" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.64</v>
+      </c>
+      <c r="I549">
+        <f t="shared" si="17"/>
+        <v>-17.466000000000001</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A550" s="33">
+        <v>45322</v>
+      </c>
+      <c r="B550" s="32">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="C550" s="32">
+        <v>65.34</v>
+      </c>
+      <c r="D550" s="32">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="E550" s="32">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="F550" s="32">
+        <v>65.34</v>
+      </c>
+      <c r="G550" s="32">
+        <v>81.93</v>
+      </c>
+      <c r="H550" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.590000000000003</v>
+      </c>
+      <c r="I550">
+        <f t="shared" si="17"/>
+        <v>-17.39</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A551" s="33">
+        <v>45323</v>
+      </c>
+      <c r="B551" s="32">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="C551" s="32">
+        <v>63.4</v>
+      </c>
+      <c r="D551" s="32">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="E551" s="32">
+        <v>67.819999999999993</v>
+      </c>
+      <c r="F551" s="32">
+        <v>63.4</v>
+      </c>
+      <c r="G551" s="32">
+        <v>81.5</v>
+      </c>
+      <c r="H551" s="4">
+        <f t="shared" si="16"/>
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="I551">
+        <f t="shared" si="17"/>
+        <v>-17.448</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A552" s="33">
+        <v>45324</v>
+      </c>
+      <c r="B552" s="32">
+        <v>68.77</v>
+      </c>
+      <c r="C552" s="32">
+        <v>60.74</v>
+      </c>
+      <c r="D552" s="32">
+        <v>68.77</v>
+      </c>
+      <c r="E552" s="32">
+        <v>65.16</v>
+      </c>
+      <c r="F552" s="32">
+        <v>60.74</v>
+      </c>
+      <c r="G552" s="32">
+        <v>77.53</v>
+      </c>
+      <c r="H552" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.79</v>
+      </c>
+      <c r="I552">
+        <f t="shared" si="17"/>
+        <v>-17.324000000000002</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A553" s="33">
+        <v>45327</v>
+      </c>
+      <c r="B553" s="32">
+        <v>68.53</v>
+      </c>
+      <c r="C553" s="32">
+        <v>60.5</v>
+      </c>
+      <c r="D553" s="32">
+        <v>68.53</v>
+      </c>
+      <c r="E553" s="32">
+        <v>64.92</v>
+      </c>
+      <c r="F553" s="32">
+        <v>60.5</v>
+      </c>
+      <c r="G553" s="32">
+        <v>77.28</v>
+      </c>
+      <c r="H553" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.78</v>
+      </c>
+      <c r="I553">
+        <f t="shared" si="17"/>
+        <v>-17.18</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A554" s="33">
+        <v>45328</v>
+      </c>
+      <c r="B554" s="32">
+        <v>69.66</v>
+      </c>
+      <c r="C554" s="32">
+        <v>61.66</v>
+      </c>
+      <c r="D554" s="32">
+        <v>69.66</v>
+      </c>
+      <c r="E554" s="32">
+        <v>65.84</v>
+      </c>
+      <c r="F554" s="32">
+        <v>61.66</v>
+      </c>
+      <c r="G554" s="32">
+        <v>78.7</v>
+      </c>
+      <c r="H554" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.040000000000006</v>
+      </c>
+      <c r="I554">
+        <f t="shared" si="17"/>
+        <v>-17.059999999999999</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A555" s="33">
+        <v>45329</v>
+      </c>
+      <c r="B555" s="32">
+        <v>70.38</v>
+      </c>
+      <c r="C555" s="32">
+        <v>62.38</v>
+      </c>
+      <c r="D555" s="32">
+        <v>70.38</v>
+      </c>
+      <c r="E555" s="32">
+        <v>66.56</v>
+      </c>
+      <c r="F555" s="32">
+        <v>62.38</v>
+      </c>
+      <c r="G555" s="32">
+        <v>79.19</v>
+      </c>
+      <c r="H555" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.809999999999995</v>
+      </c>
+      <c r="I555">
+        <f t="shared" si="17"/>
+        <v>-17.103999999999999</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A556" s="33">
+        <v>45330</v>
+      </c>
+      <c r="B556" s="32">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="C556" s="32">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="D556" s="32">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="E556" s="32">
+        <v>68.39</v>
+      </c>
+      <c r="F556" s="32">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="G556" s="32">
+        <v>81.27</v>
+      </c>
+      <c r="H556" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.060000000000002</v>
+      </c>
+      <c r="I556">
+        <f t="shared" si="17"/>
+        <v>-16.896000000000001</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A557" s="33">
+        <v>45331</v>
+      </c>
+      <c r="B557" s="32">
+        <v>72.78</v>
+      </c>
+      <c r="C557" s="32">
+        <v>64.77</v>
+      </c>
+      <c r="D557" s="32">
+        <v>72.78</v>
+      </c>
+      <c r="E557" s="32">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="F557" s="32">
+        <v>64.77</v>
+      </c>
+      <c r="G557" s="32">
+        <v>81.73</v>
+      </c>
+      <c r="H557" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.960000000000008</v>
+      </c>
+      <c r="I557">
+        <f t="shared" si="17"/>
+        <v>-16.93</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A558" s="33">
+        <v>45334</v>
+      </c>
+      <c r="B558" s="32">
+        <v>73.02</v>
+      </c>
+      <c r="C558" s="32">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="D558" s="32">
+        <v>73.02</v>
+      </c>
+      <c r="E558" s="32">
+        <v>69.2</v>
+      </c>
+      <c r="F558" s="32">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="G558" s="32">
+        <v>82</v>
+      </c>
+      <c r="H558" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.930000000000007</v>
+      </c>
+      <c r="I558">
+        <f t="shared" si="17"/>
+        <v>-16.96</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A559" s="33">
+        <v>45335</v>
+      </c>
+      <c r="B559" s="32">
+        <v>73.92</v>
+      </c>
+      <c r="C559" s="32">
+        <v>65.91</v>
+      </c>
+      <c r="D559" s="32">
+        <v>73.92</v>
+      </c>
+      <c r="E559" s="32">
+        <v>70.06</v>
+      </c>
+      <c r="F559" s="32">
+        <v>65.91</v>
+      </c>
+      <c r="G559" s="32">
+        <v>82.95</v>
+      </c>
+      <c r="H559" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.040000000000006</v>
+      </c>
+      <c r="I559">
+        <f t="shared" si="17"/>
+        <v>-16.96</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A560" s="33">
+        <v>45336</v>
+      </c>
+      <c r="B560" s="32">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C560" s="32">
+        <v>66.7</v>
+      </c>
+      <c r="D560" s="32">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E560" s="32">
+        <v>69.81</v>
+      </c>
+      <c r="F560" s="32">
+        <v>66.7</v>
+      </c>
+      <c r="G560" s="32">
+        <v>82.42</v>
+      </c>
+      <c r="H560" s="4">
+        <f t="shared" si="16"/>
+        <v>-15.719999999999999</v>
+      </c>
+      <c r="I560">
+        <f t="shared" si="17"/>
+        <v>-16.742000000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A561" s="33">
+        <v>45337</v>
+      </c>
+      <c r="B561" s="32">
+        <v>74.64</v>
+      </c>
+      <c r="C561" s="32">
+        <v>66.62</v>
+      </c>
+      <c r="D561" s="32">
+        <v>74.64</v>
+      </c>
+      <c r="E561" s="32">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="F561" s="32">
+        <v>66.62</v>
+      </c>
+      <c r="G561" s="32">
+        <v>82.73</v>
+      </c>
+      <c r="H561" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.11</v>
+      </c>
+      <c r="I561">
+        <f t="shared" si="17"/>
+        <v>-16.552</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A562" s="33">
+        <v>45338</v>
+      </c>
+      <c r="B562" s="32">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="C562" s="32">
+        <v>67.17</v>
+      </c>
+      <c r="D562" s="32">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="E562" s="32">
+        <v>71.39</v>
+      </c>
+      <c r="F562" s="32">
+        <v>67.17</v>
+      </c>
+      <c r="G562" s="32">
+        <v>83.2</v>
+      </c>
+      <c r="H562" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.03</v>
+      </c>
+      <c r="I562">
+        <f t="shared" si="17"/>
+        <v>-16.366</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A563" s="33">
+        <v>45341</v>
+      </c>
+      <c r="B563" s="32">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="C563" s="32">
+        <v>67.81</v>
+      </c>
+      <c r="D563" s="32">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="E563" s="32">
+        <v>72.03</v>
+      </c>
+      <c r="F563" s="32">
+        <v>67.81</v>
+      </c>
+      <c r="G563" s="32">
+        <v>83.54</v>
+      </c>
+      <c r="H563" s="4">
+        <f t="shared" si="16"/>
+        <v>-15.730000000000004</v>
+      </c>
+      <c r="I563">
+        <f t="shared" si="17"/>
+        <v>-16.126000000000001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A564" s="33">
+        <v>45342</v>
+      </c>
+      <c r="B564" s="32">
+        <v>75.08</v>
+      </c>
+      <c r="C564" s="32">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="D564" s="32">
+        <v>75.08</v>
+      </c>
+      <c r="E564" s="32">
+        <v>71.290000000000006</v>
+      </c>
+      <c r="F564" s="32">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="G564" s="32">
+        <v>82.31</v>
+      </c>
+      <c r="H564" s="4">
+        <f t="shared" si="16"/>
+        <v>-15.659999999999997</v>
+      </c>
+      <c r="I564">
+        <f t="shared" si="17"/>
+        <v>-15.85</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A565" s="33">
+        <v>45343</v>
+      </c>
+      <c r="B565" s="32">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="C565" s="32">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="D565" s="32">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="E565" s="32">
+        <v>70.86</v>
+      </c>
+      <c r="F565" s="32">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="G565" s="32">
+        <v>82.89</v>
+      </c>
+      <c r="H565" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.239999999999995</v>
+      </c>
+      <c r="I565">
+        <f t="shared" si="17"/>
+        <v>-15.954000000000001</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A566" s="33">
+        <v>45344</v>
+      </c>
+      <c r="B566" s="32">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="C566" s="32">
+        <v>67.72</v>
+      </c>
+      <c r="D566" s="32">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="E566" s="32">
+        <v>72.36</v>
+      </c>
+      <c r="F566" s="32">
+        <v>67.72</v>
+      </c>
+      <c r="G566" s="32">
+        <v>83.51</v>
+      </c>
+      <c r="H566" s="4">
+        <f t="shared" si="16"/>
+        <v>-15.790000000000006</v>
+      </c>
+      <c r="I566">
+        <f t="shared" si="17"/>
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A567" s="33">
+        <v>45345</v>
+      </c>
+      <c r="B567" s="32">
+        <v>74.44</v>
+      </c>
+      <c r="C567" s="32">
+        <v>66.05</v>
+      </c>
+      <c r="D567" s="32">
+        <v>74.44</v>
+      </c>
+      <c r="E567" s="32">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="F567" s="32">
+        <v>66.05</v>
+      </c>
+      <c r="G567" s="32">
+        <v>82.42</v>
+      </c>
+      <c r="H567" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.370000000000005</v>
+      </c>
+      <c r="I567">
+        <f t="shared" si="17"/>
+        <v>-15.958</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A568" s="33">
+        <v>45348</v>
+      </c>
+      <c r="B568" s="32">
+        <v>74.27</v>
+      </c>
+      <c r="C568" s="32">
+        <v>65.89</v>
+      </c>
+      <c r="D568" s="32">
+        <v>74.27</v>
+      </c>
+      <c r="E568" s="32">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F568" s="32">
+        <v>65.89</v>
+      </c>
+      <c r="G568" s="32">
+        <v>82.26</v>
+      </c>
+      <c r="H568" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.370000000000005</v>
+      </c>
+      <c r="I568">
+        <f t="shared" si="17"/>
+        <v>-16.085999999999999</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A569" s="33">
+        <v>45349</v>
+      </c>
+      <c r="B569" s="32">
+        <v>73.819999999999993</v>
+      </c>
+      <c r="C569" s="32">
+        <v>65.680000000000007</v>
+      </c>
+      <c r="D569" s="32">
+        <v>73.819999999999993</v>
+      </c>
+      <c r="E569" s="32">
+        <v>69.86</v>
+      </c>
+      <c r="F569" s="32">
+        <v>65.680000000000007</v>
+      </c>
+      <c r="G569" s="32">
+        <v>83.23</v>
+      </c>
+      <c r="H569" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.549999999999997</v>
+      </c>
+      <c r="I569">
+        <f t="shared" si="17"/>
+        <v>-16.463999999999999</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A570" s="33">
+        <v>45350</v>
+      </c>
+      <c r="B570" s="32">
+        <v>74.09</v>
+      </c>
+      <c r="C570" s="32">
+        <v>65.959999999999994</v>
+      </c>
+      <c r="D570" s="32">
+        <v>74.09</v>
+      </c>
+      <c r="E570" s="32">
+        <v>70.13</v>
+      </c>
+      <c r="F570" s="32">
+        <v>65.959999999999994</v>
+      </c>
+      <c r="G570" s="32">
+        <v>83.27</v>
+      </c>
+      <c r="H570" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.310000000000002</v>
+      </c>
+      <c r="I570">
+        <f t="shared" si="17"/>
+        <v>-16.678000000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A571" s="33">
+        <v>45351</v>
+      </c>
+      <c r="B571" s="32">
+        <v>74.59</v>
+      </c>
+      <c r="C571" s="32">
+        <v>66.45</v>
+      </c>
+      <c r="D571" s="32">
+        <v>74.59</v>
+      </c>
+      <c r="E571" s="32">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="F571" s="32">
+        <v>66.45</v>
+      </c>
+      <c r="G571" s="32">
+        <v>83.78</v>
+      </c>
+      <c r="H571" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.329999999999998</v>
+      </c>
+      <c r="I571">
+        <f t="shared" si="17"/>
+        <v>-16.986000000000001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A572" s="33">
+        <v>45352</v>
+      </c>
+      <c r="B572" s="32">
+        <v>74.84</v>
+      </c>
+      <c r="C572" s="32">
+        <v>67.39</v>
+      </c>
+      <c r="D572" s="32">
+        <v>74.84</v>
+      </c>
+      <c r="E572" s="32">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="F572" s="32">
+        <v>67.39</v>
+      </c>
+      <c r="G572" s="32">
+        <v>84.19</v>
+      </c>
+      <c r="H572" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.799999999999997</v>
+      </c>
+      <c r="I572">
+        <f t="shared" si="17"/>
+        <v>-17.071999999999999</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A573" s="33">
+        <v>45355</v>
+      </c>
+      <c r="B573" s="32">
+        <v>77.83</v>
+      </c>
+      <c r="C573" s="32">
+        <v>69.16</v>
+      </c>
+      <c r="D573" s="32">
+        <v>77.83</v>
+      </c>
+      <c r="E573" s="32">
+        <v>72.95</v>
+      </c>
+      <c r="F573" s="32">
+        <v>69.16</v>
+      </c>
+      <c r="G573" s="32">
+        <v>83.23</v>
+      </c>
+      <c r="H573" s="4">
+        <f t="shared" si="16"/>
+        <v>-14.070000000000007</v>
+      </c>
+      <c r="I573">
+        <f t="shared" si="17"/>
+        <v>-16.611999999999998</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A574" s="33">
+        <v>45356</v>
+      </c>
+      <c r="B574" s="32">
+        <v>77.08</v>
+      </c>
+      <c r="C574" s="32">
+        <v>68.42</v>
+      </c>
+      <c r="D574" s="32">
+        <v>77.08</v>
+      </c>
+      <c r="E574" s="32">
+        <v>72.14</v>
+      </c>
+      <c r="F574" s="32">
+        <v>68.42</v>
+      </c>
+      <c r="G574" s="32">
+        <v>82.88</v>
+      </c>
+      <c r="H574" s="4">
+        <f t="shared" si="16"/>
+        <v>-14.459999999999994</v>
+      </c>
+      <c r="I574">
+        <f t="shared" si="17"/>
+        <v>-15.994</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A575" s="33">
+        <v>45357</v>
+      </c>
+      <c r="B575" s="32">
+        <v>77.86</v>
+      </c>
+      <c r="C575" s="32">
+        <v>69.19</v>
+      </c>
+      <c r="D575" s="32">
+        <v>77.86</v>
+      </c>
+      <c r="E575" s="32">
+        <v>72.91</v>
+      </c>
+      <c r="F575" s="32">
+        <v>69.19</v>
+      </c>
+      <c r="G575" s="32">
+        <v>84.08</v>
+      </c>
+      <c r="H575" s="4">
+        <f t="shared" si="16"/>
+        <v>-14.89</v>
+      </c>
+      <c r="I575">
+        <f t="shared" si="17"/>
+        <v>-15.51</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A576" s="33">
+        <v>45358</v>
+      </c>
+      <c r="B576" s="32">
+        <v>76.14</v>
+      </c>
+      <c r="C576" s="32">
+        <v>69.19</v>
+      </c>
+      <c r="D576" s="32">
+        <v>76.14</v>
+      </c>
+      <c r="E576" s="32">
+        <v>71.19</v>
+      </c>
+      <c r="F576" s="32">
+        <v>69.19</v>
+      </c>
+      <c r="G576" s="32">
+        <v>82.91</v>
+      </c>
+      <c r="H576" s="4">
+        <f t="shared" si="16"/>
+        <v>-13.719999999999999</v>
+      </c>
+      <c r="I576">
+        <f t="shared" si="17"/>
+        <v>-14.788</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A577" s="33">
+        <v>45359</v>
+      </c>
+      <c r="B577" s="32">
+        <v>75.52</v>
+      </c>
+      <c r="C577" s="32">
+        <v>66.86</v>
+      </c>
+      <c r="D577" s="32">
+        <v>75.52</v>
+      </c>
+      <c r="E577" s="32">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="F577" s="32">
+        <v>66.86</v>
+      </c>
+      <c r="G577" s="32">
+        <v>82.18</v>
+      </c>
+      <c r="H577" s="4">
+        <f t="shared" si="16"/>
+        <v>-15.320000000000007</v>
+      </c>
+      <c r="I577">
+        <f t="shared" si="17"/>
+        <v>-14.492000000000001</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A578" s="33">
+        <v>45362</v>
+      </c>
+      <c r="B578" s="32">
+        <v>74.7</v>
+      </c>
+      <c r="C578" s="32">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="D578" s="32">
+        <v>74.7</v>
+      </c>
+      <c r="E578" s="32">
+        <v>69.72</v>
+      </c>
+      <c r="F578" s="32">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="G578" s="32">
+        <v>82.63</v>
+      </c>
+      <c r="H578" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.61999999999999</v>
+      </c>
+      <c r="I578">
+        <f t="shared" si="17"/>
+        <v>-15.002000000000001</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A579" s="33">
+        <v>45363</v>
+      </c>
+      <c r="B579" s="32">
+        <v>74.92</v>
+      </c>
+      <c r="C579" s="32">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="D579" s="32">
+        <v>74.92</v>
+      </c>
+      <c r="E579" s="32">
+        <v>69.94</v>
+      </c>
+      <c r="F579" s="32">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="G579" s="32">
+        <v>82.55</v>
+      </c>
+      <c r="H579" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.36999999999999</v>
+      </c>
+      <c r="I579">
+        <f t="shared" si="17"/>
+        <v>-15.384</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A580" s="33">
+        <v>45364</v>
+      </c>
+      <c r="B580" s="32">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="C580" s="32">
+        <v>66.52</v>
+      </c>
+      <c r="D580" s="32">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="E580" s="32">
+        <v>70.28</v>
+      </c>
+      <c r="F580" s="32">
+        <v>66.52</v>
+      </c>
+      <c r="G580" s="32">
+        <v>83.61</v>
+      </c>
+      <c r="H580" s="4">
+        <f t="shared" si="16"/>
+        <v>-17.090000000000003</v>
+      </c>
+      <c r="I580">
+        <f t="shared" si="17"/>
+        <v>-15.824</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A581" s="33">
+        <v>45365</v>
+      </c>
+      <c r="B581" s="32">
+        <v>77.39</v>
+      </c>
+      <c r="C581" s="32">
+        <v>68.73</v>
+      </c>
+      <c r="D581" s="32">
+        <v>77.39</v>
+      </c>
+      <c r="E581" s="32">
+        <v>72.540000000000006</v>
+      </c>
+      <c r="F581" s="32">
+        <v>68.73</v>
+      </c>
+      <c r="G581" s="32">
+        <v>85.2</v>
+      </c>
+      <c r="H581" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.47</v>
+      </c>
+      <c r="I581">
+        <f t="shared" si="17"/>
+        <v>-16.373999999999999</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A582" s="33">
+        <v>45366</v>
+      </c>
+      <c r="B582" s="32">
+        <v>76.62</v>
+      </c>
+      <c r="C582" s="32">
+        <v>68.73</v>
+      </c>
+      <c r="D582" s="32">
+        <v>76.62</v>
+      </c>
+      <c r="E582" s="32">
+        <v>71.77</v>
+      </c>
+      <c r="F582" s="32">
+        <v>68.73</v>
+      </c>
+      <c r="G582" s="32">
+        <v>85.44</v>
+      </c>
+      <c r="H582" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.709999999999994</v>
+      </c>
+      <c r="I582">
+        <f t="shared" si="17"/>
+        <v>-16.652000000000001</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A583" s="33">
+        <v>45369</v>
+      </c>
+      <c r="B583" s="32">
+        <v>77.7</v>
+      </c>
+      <c r="C583" s="32">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="D583" s="32">
+        <v>77.7</v>
+      </c>
+      <c r="E583" s="32">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="F583" s="32">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="G583" s="32">
+        <v>86.49</v>
+      </c>
+      <c r="H583" s="4">
+        <f t="shared" si="16"/>
+        <v>-18.53</v>
+      </c>
+      <c r="I583">
+        <f t="shared" si="17"/>
+        <v>-17.033999999999999</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A584" s="33">
+        <v>45370</v>
+      </c>
+      <c r="B584" s="32">
+        <v>78.59</v>
+      </c>
+      <c r="C584" s="32">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="D584" s="32">
+        <v>78.59</v>
+      </c>
+      <c r="E584" s="32">
+        <v>73.88</v>
+      </c>
+      <c r="F584" s="32">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="G584" s="32">
+        <v>87.39</v>
+      </c>
+      <c r="H584" s="4">
+        <f t="shared" si="16"/>
+        <v>-18.349999999999994</v>
+      </c>
+      <c r="I584">
+        <f t="shared" si="17"/>
+        <v>-17.43</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A585" s="33">
+        <v>45371</v>
+      </c>
+      <c r="B585" s="32">
+        <v>77</v>
+      </c>
+      <c r="C585" s="32">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="D585" s="32">
+        <v>77</v>
+      </c>
+      <c r="E585" s="32">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="F585" s="32">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="G585" s="32">
+        <v>85.99</v>
+      </c>
+      <c r="H585" s="4">
+        <f t="shared" ref="H585:H599" si="18">AVERAGE(C585,F585)-G585</f>
+        <v>-16.949999999999989</v>
+      </c>
+      <c r="I585">
+        <f t="shared" ref="I585:I599" si="19" xml:space="preserve"> ROUND(AVERAGE(H581:H585), 3)</f>
+        <v>-17.402000000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A586" s="33">
+        <v>45372</v>
+      </c>
+      <c r="B586" s="32">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="C586" s="32">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="D586" s="32">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="E586" s="32">
+        <v>71.47</v>
+      </c>
+      <c r="F586" s="32">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="G586" s="32">
+        <v>85.56</v>
+      </c>
+      <c r="H586" s="4">
+        <f t="shared" si="18"/>
+        <v>-16.519999999999996</v>
+      </c>
+      <c r="I586">
+        <f t="shared" si="19"/>
+        <v>-17.411999999999999</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A587" s="33">
+        <v>45373</v>
+      </c>
+      <c r="B587" s="32">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C587" s="32">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="D587" s="32">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E587" s="32">
+        <v>71.42</v>
+      </c>
+      <c r="F587" s="32">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="G587" s="32">
+        <v>85.58</v>
+      </c>
+      <c r="H587" s="4">
+        <f t="shared" si="18"/>
+        <v>-16.539999999999992</v>
+      </c>
+      <c r="I587">
+        <f t="shared" si="19"/>
+        <v>-17.378</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A588" s="33">
+        <v>45376</v>
+      </c>
+      <c r="B588" s="32">
+        <v>77.41</v>
+      </c>
+      <c r="C588" s="32">
+        <v>67.44</v>
+      </c>
+      <c r="D588" s="32">
+        <v>77.41</v>
+      </c>
+      <c r="E588" s="32">
+        <v>72.73</v>
+      </c>
+      <c r="F588" s="32">
+        <v>67.44</v>
+      </c>
+      <c r="G588" s="32">
+        <v>86.88</v>
+      </c>
+      <c r="H588" s="4">
+        <f t="shared" si="18"/>
+        <v>-19.439999999999998</v>
+      </c>
+      <c r="I588">
+        <f t="shared" si="19"/>
+        <v>-17.559999999999999</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A589" s="33">
+        <v>45377</v>
+      </c>
+      <c r="B589" s="32">
+        <v>77.17</v>
+      </c>
+      <c r="C589" s="32">
+        <v>67.44</v>
+      </c>
+      <c r="D589" s="32">
+        <v>77.17</v>
+      </c>
+      <c r="E589" s="32">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="F589" s="32">
+        <v>67.44</v>
+      </c>
+      <c r="G589" s="32">
+        <v>86.62</v>
+      </c>
+      <c r="H589" s="4">
+        <f t="shared" si="18"/>
+        <v>-19.180000000000007</v>
+      </c>
+      <c r="I589">
+        <f t="shared" si="19"/>
+        <v>-17.725999999999999</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A590" s="33">
+        <v>45378</v>
+      </c>
+      <c r="B590" s="32">
+        <v>76.2</v>
+      </c>
+      <c r="C590" s="32">
+        <v>67.44</v>
+      </c>
+      <c r="D590" s="32">
+        <v>76.2</v>
+      </c>
+      <c r="E590" s="32">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="F590" s="32">
+        <v>67.44</v>
+      </c>
+      <c r="G590" s="32">
+        <v>85.94</v>
+      </c>
+      <c r="H590" s="4">
+        <f t="shared" si="18"/>
+        <v>-18.5</v>
+      </c>
+      <c r="I590">
+        <f t="shared" si="19"/>
+        <v>-18.036000000000001</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A591" s="33">
+        <v>45379</v>
+      </c>
+      <c r="B591" s="32">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="C591" s="32">
+        <v>68.77</v>
+      </c>
+      <c r="D591" s="32">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="E591" s="32">
+        <v>72.72</v>
+      </c>
+      <c r="F591" s="32">
+        <v>68.77</v>
+      </c>
+      <c r="G591" s="32">
+        <v>87.42</v>
+      </c>
+      <c r="H591" s="4">
+        <f t="shared" si="18"/>
+        <v>-18.650000000000006</v>
+      </c>
+      <c r="I591">
+        <f t="shared" si="19"/>
+        <v>-18.462</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A592" s="33">
+        <v>45380</v>
+      </c>
+      <c r="B592" s="32">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="C592" s="32">
+        <v>68.77</v>
+      </c>
+      <c r="D592" s="32">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="E592" s="32">
+        <v>72.72</v>
+      </c>
+      <c r="F592" s="32">
+        <v>68.77</v>
+      </c>
+      <c r="G592" s="32">
+        <v>87.42</v>
+      </c>
+      <c r="H592" s="4">
+        <f t="shared" si="18"/>
+        <v>-18.650000000000006</v>
+      </c>
+      <c r="I592">
+        <f t="shared" si="19"/>
+        <v>-18.884</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A593" s="33">
+        <v>45383</v>
+      </c>
+      <c r="B593" s="32">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="C593" s="32">
+        <v>68.77</v>
+      </c>
+      <c r="D593" s="32">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="E593" s="32">
+        <v>72.72</v>
+      </c>
+      <c r="F593" s="32">
+        <v>68.77</v>
+      </c>
+      <c r="G593" s="32">
+        <v>87.42</v>
+      </c>
+      <c r="H593" s="4">
+        <f t="shared" si="18"/>
+        <v>-18.650000000000006</v>
+      </c>
+      <c r="I593">
+        <f t="shared" si="19"/>
+        <v>-18.725999999999999</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A594" s="33">
+        <v>45384</v>
+      </c>
+      <c r="B594" s="32">
+        <v>78.89</v>
+      </c>
+      <c r="C594" s="32">
+        <v>70.27</v>
+      </c>
+      <c r="D594" s="32">
+        <v>78.89</v>
+      </c>
+      <c r="E594" s="32">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="F594" s="32">
+        <v>70.27</v>
+      </c>
+      <c r="G594" s="32">
+        <v>88.9</v>
+      </c>
+      <c r="H594" s="4">
+        <f t="shared" si="18"/>
+        <v>-18.63000000000001</v>
+      </c>
+      <c r="I594">
+        <f t="shared" si="19"/>
+        <v>-18.616</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A595" s="33">
+        <v>45385</v>
+      </c>
+      <c r="B595" s="32">
+        <v>81.84</v>
+      </c>
+      <c r="C595" s="32">
+        <v>73.27</v>
+      </c>
+      <c r="D595" s="32">
+        <v>81.84</v>
+      </c>
+      <c r="E595" s="32">
+        <v>77.13</v>
+      </c>
+      <c r="F595" s="32">
+        <v>73.27</v>
+      </c>
+      <c r="G595" s="32">
+        <v>89.78</v>
+      </c>
+      <c r="H595" s="4">
+        <f t="shared" si="18"/>
+        <v>-16.510000000000005</v>
+      </c>
+      <c r="I595">
+        <f t="shared" si="19"/>
+        <v>-18.218</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A596" s="33">
+        <v>45386</v>
+      </c>
+      <c r="B596" s="32">
+        <v>81.58</v>
+      </c>
+      <c r="C596" s="32">
+        <v>72.89</v>
+      </c>
+      <c r="D596" s="32">
+        <v>81.58</v>
+      </c>
+      <c r="E596" s="32">
+        <v>76.87</v>
+      </c>
+      <c r="F596" s="32">
+        <v>72.89</v>
+      </c>
+      <c r="G596" s="32">
+        <v>89.23</v>
+      </c>
+      <c r="H596" s="4">
+        <f t="shared" si="18"/>
+        <v>-16.340000000000003</v>
+      </c>
+      <c r="I596">
+        <f t="shared" si="19"/>
+        <v>-17.756</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A597" s="33">
+        <v>45387</v>
+      </c>
+      <c r="B597" s="32">
+        <v>84.07</v>
+      </c>
+      <c r="C597" s="32">
+        <v>75.38</v>
+      </c>
+      <c r="D597" s="32">
+        <v>84.07</v>
+      </c>
+      <c r="E597" s="32">
+        <v>79.19</v>
+      </c>
+      <c r="F597" s="32">
+        <v>75.38</v>
+      </c>
+      <c r="G597" s="32">
+        <v>91.55</v>
+      </c>
+      <c r="H597" s="4">
+        <f t="shared" si="18"/>
+        <v>-16.170000000000002</v>
+      </c>
+      <c r="I597">
+        <f t="shared" si="19"/>
+        <v>-17.260000000000002</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A598" s="33">
+        <v>45390</v>
+      </c>
+      <c r="B598" s="32">
+        <v>82.99</v>
+      </c>
+      <c r="C598" s="32">
+        <v>74.3</v>
+      </c>
+      <c r="D598" s="32">
+        <v>82.99</v>
+      </c>
+      <c r="E598" s="32">
+        <v>78.11</v>
+      </c>
+      <c r="F598" s="32">
+        <v>74.3</v>
+      </c>
+      <c r="G598" s="32">
+        <v>89.95</v>
+      </c>
+      <c r="H598" s="4">
+        <f t="shared" si="18"/>
+        <v>-15.650000000000006</v>
+      </c>
+      <c r="I598">
+        <f t="shared" si="19"/>
+        <v>-16.66</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A599" s="33">
+        <v>45391</v>
+      </c>
+      <c r="B599" s="32">
+        <v>83.39</v>
+      </c>
+      <c r="C599" s="32">
+        <v>74.3</v>
+      </c>
+      <c r="D599" s="32">
+        <v>83.39</v>
+      </c>
+      <c r="E599" s="32">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="F599" s="32">
+        <v>74.3</v>
+      </c>
+      <c r="G599" s="32">
+        <v>89.92</v>
+      </c>
+      <c r="H599" s="4">
+        <f t="shared" si="18"/>
+        <v>-15.620000000000005</v>
+      </c>
+      <c r="I599">
+        <f t="shared" si="19"/>
+        <v>-16.058</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B600" s="32"/>
+      <c r="C600" s="32"/>
+      <c r="D600" s="32"/>
+      <c r="E600" s="32"/>
+      <c r="F600" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
